--- a/media/yield.xlsx
+++ b/media/yield.xlsx
@@ -842,11 +842,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -3267,10 +3267,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>3</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="70" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4669,16 +4669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:A23"/>
     <mergeCell ref="B12:B23"/>
-    <mergeCell ref="A12:A23"/>
     <mergeCell ref="B27:B38"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="B49:B60"/>
     <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B42:B44"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <conditionalFormatting sqref="E19:N19">
     <cfRule type="colorScale" priority="8">
@@ -4784,8 +4784,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="34" width="9" style="12" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="12"/>
+    <col min="10" max="35" width="9" style="12" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15830,8 +15830,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="34" width="9" style="12" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="12"/>
+    <col min="10" max="35" width="9" style="12" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/media/yield.xlsx
+++ b/media/yield.xlsx
@@ -842,11 +842,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1822,11 +1822,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="21">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="E2" s="24">
         <f>D2</f>
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>3</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="D3" s="24">
         <f>D2*80%</f>
-        <v>80000</v>
+        <v>1600000</v>
       </c>
       <c r="E3" s="24">
         <f>D3</f>
-        <v>80000</v>
+        <v>1600000</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L3" s="24">
         <f>D3*0.3%</f>
-        <v>240</v>
+        <v>4800</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>9</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="D4" s="24">
         <f>D2+D3</f>
-        <v>180000</v>
+        <v>3600000</v>
       </c>
       <c r="E4" s="24">
         <f>D4</f>
-        <v>180000</v>
+        <v>3600000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D12" s="39">
         <f>-D2</f>
-        <v>-100000</v>
+        <v>-2000000</v>
       </c>
       <c r="E12" s="39">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="D13" s="39">
         <f>-(D2+D3)*5%</f>
-        <v>-9000</v>
+        <v>-180000</v>
       </c>
       <c r="E13" s="39">
         <f>-$K$2</f>
@@ -2190,43 +2190,43 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39">
         <f>(D4)*D7</f>
-        <v>13140</v>
+        <v>262800</v>
       </c>
       <c r="F15" s="39">
         <f>(D4+SUM($E$15:E15))*$D$7</f>
-        <v>14099.22</v>
+        <v>281984.39999999997</v>
       </c>
       <c r="G15" s="39">
         <f>(D4+SUM($E$15:F15))*$D$7</f>
-        <v>15128.46306</v>
+        <v>302569.26119999995</v>
       </c>
       <c r="H15" s="39">
         <f>(D4+SUM($E$15:G15))*$D$7</f>
-        <v>16232.840863379999</v>
+        <v>324656.81726759998</v>
       </c>
       <c r="I15" s="40">
         <f>(D4+SUM($E$15:H15))*$D$7</f>
-        <v>17417.83824640674</v>
+        <v>348356.7649281348</v>
       </c>
       <c r="J15" s="39">
         <f>(D4+SUM($E$15:I15))*$D$7</f>
-        <v>18689.340438394429</v>
+        <v>373786.80876788858</v>
       </c>
       <c r="K15" s="39">
         <f>(D4+SUM($E$15:J15))*$D$7</f>
-        <v>20053.662290397224</v>
+        <v>401073.24580794445</v>
       </c>
       <c r="L15" s="39">
         <f>(D4+SUM($E$15:K15))*$D$7</f>
-        <v>21517.57963759622</v>
+        <v>430351.59275192436</v>
       </c>
       <c r="M15" s="39">
         <f>(D4+SUM($E$15:L15))*$D$7</f>
-        <v>23088.362951140745</v>
+        <v>461767.25902281486</v>
       </c>
       <c r="N15" s="40">
         <f>(D4+SUM($E$15:M15))*$D$7</f>
-        <v>24773.813446574019</v>
+        <v>495476.2689314803</v>
       </c>
       <c r="O15" s="42"/>
     </row>
@@ -2239,43 +2239,43 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39">
         <f>D4*K4</f>
-        <v>8800</v>
+        <v>175999.99999999997</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ref="F16:N16" si="2">ROUND(E16*(1+$D$8),0)</f>
-        <v>9319</v>
+        <v>186384</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>9869</v>
+        <v>197381</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>10451</v>
+        <v>209026</v>
       </c>
       <c r="I16" s="40">
         <f t="shared" si="2"/>
-        <v>11068</v>
+        <v>221359</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>11721</v>
+        <v>234419</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>12413</v>
+        <v>248250</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>13145</v>
+        <v>262897</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="2"/>
-        <v>13921</v>
+        <v>278408</v>
       </c>
       <c r="N16" s="40">
         <f t="shared" si="2"/>
-        <v>14742</v>
+        <v>294834</v>
       </c>
       <c r="O16" s="41"/>
     </row>
@@ -2336,47 +2336,47 @@
       </c>
       <c r="D18" s="43">
         <f t="shared" ref="D18:N18" si="4">SUM(D12:D17)</f>
-        <v>-109000</v>
+        <v>-2180000</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>12830.472976604</v>
+        <v>429690.47297660401</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>14308.692976604001</v>
+        <v>459258.87297660398</v>
       </c>
       <c r="G18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>15887.936036604002</v>
+        <v>490840.73417660396</v>
       </c>
       <c r="H18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>17574.313839983999</v>
+        <v>524573.29024420399</v>
       </c>
       <c r="I18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>19376.31122301074</v>
+        <v>560606.23790473887</v>
       </c>
       <c r="J18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>21300.813414998429</v>
+        <v>599096.28174449259</v>
       </c>
       <c r="K18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>23357.135267001224</v>
+        <v>640213.71878454846</v>
       </c>
       <c r="L18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>25553.052614200224</v>
+        <v>684139.06572852843</v>
       </c>
       <c r="M18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>27899.835927744749</v>
+        <v>731065.73199941893</v>
       </c>
       <c r="N18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>30406.286423178015</v>
+        <v>781200.74190808437</v>
       </c>
       <c r="O18" s="41"/>
     </row>
@@ -2389,43 +2389,43 @@
       <c r="D19" s="43"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:N19" ca="1" si="5">SUM(E13:E14,E16:E17)/12</f>
-        <v>-25.793918616333332</v>
+        <v>13907.539414716999</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>17.456081383666668</v>
+        <v>14772.872748050335</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>63.289414717</v>
+        <v>15689.289414717001</v>
       </c>
       <c r="H19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>111.789414717</v>
+        <v>16659.706081383669</v>
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>163.20608138366666</v>
+        <v>17687.456081383669</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>217.62274805033334</v>
+        <v>18775.789414717001</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>275.289414717</v>
+        <v>19928.372748050333</v>
       </c>
       <c r="L19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>336.289414717</v>
+        <v>21148.956081383669</v>
       </c>
       <c r="M19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>400.95608138366669</v>
+        <v>22441.539414717001</v>
       </c>
       <c r="N19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>469.37274805033331</v>
+        <v>23810.372748050333</v>
       </c>
       <c r="O19" s="41"/>
     </row>
@@ -2438,43 +2438,43 @@
       <c r="D20" s="39"/>
       <c r="E20" s="43">
         <f ca="1">D4+SUM(F17:$O$17)+SUM($E$18:E18)</f>
-        <v>117324.72976603998</v>
+        <v>3954184.7297660401</v>
       </c>
       <c r="F20" s="47">
         <f ca="1">D4+SUM(G17:$O$17)+SUM($E$18:F18)</f>
-        <v>140022.94976603999</v>
+        <v>4421833.1297660396</v>
       </c>
       <c r="G20" s="43">
         <f ca="1">D4+SUM(H17:$O$17)+SUM($E$18:G18)</f>
-        <v>164300.41282604</v>
+        <v>4921063.3909660401</v>
       </c>
       <c r="H20" s="43">
         <f ca="1">D4+SUM(I17:$O$17)+SUM($E$18:H18)</f>
-        <v>190264.25368942</v>
+        <v>5454026.2082336396</v>
       </c>
       <c r="I20" s="44">
         <f ca="1">D4+SUM(J17:$O$17)+SUM($E$18:I18)</f>
-        <v>218030.09193582673</v>
+        <v>6023021.9731617756</v>
       </c>
       <c r="J20" s="43">
         <f ca="1">D4+SUM(K17:$O$17)+SUM($E$18:J18)</f>
-        <v>247720.43237422116</v>
+        <v>6630507.7819296643</v>
       </c>
       <c r="K20" s="43">
         <f ca="1">D4+SUM(L17:$O$17)+SUM($E$18:K18)</f>
-        <v>279467.09466461837</v>
+        <v>7279111.0277376082</v>
       </c>
       <c r="L20" s="43">
         <f ca="1">D4+SUM(M17:$O$17)+SUM($E$18:L18)</f>
-        <v>313409.67430221464</v>
+        <v>7971639.6204895331</v>
       </c>
       <c r="M20" s="43">
         <f ca="1">D4+SUM(N17:$O$17)+SUM($E$18:M18)</f>
-        <v>349699.03725335537</v>
+        <v>8711094.8795123473</v>
       </c>
       <c r="N20" s="44">
         <f ca="1">D4+SUM(O17:$O$17)+SUM($E$18:N18)</f>
-        <v>388494.8506999294</v>
+        <v>9500685.1484438293</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" t="s">
@@ -2490,43 +2490,43 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48">
         <f>$D$4+SUM($E$15:E15)</f>
-        <v>193140</v>
+        <v>3862800</v>
       </c>
       <c r="F21" s="49">
         <f>$D$4+SUM($E$15:F15)</f>
-        <v>207239.22</v>
+        <v>4144784.4</v>
       </c>
       <c r="G21" s="48">
         <f>$D$4+SUM($E$15:G15)</f>
-        <v>222367.68306000001</v>
+        <v>4447353.6612</v>
       </c>
       <c r="H21" s="48">
         <f>$D$4+SUM($E$15:H15)</f>
-        <v>238600.52392338001</v>
+        <v>4772010.4784676004</v>
       </c>
       <c r="I21" s="50">
         <f>$D$4+SUM($E$15:I15)</f>
-        <v>256018.36216978673</v>
+        <v>5120367.2433957346</v>
       </c>
       <c r="J21" s="48">
         <f>$D$4+SUM($E$15:J15)</f>
-        <v>274707.70260818116</v>
+        <v>5494154.0521636233</v>
       </c>
       <c r="K21" s="48">
         <f>$D$4+SUM($E$15:K15)</f>
-        <v>294761.36489857838</v>
+        <v>5895227.2979715671</v>
       </c>
       <c r="L21" s="48">
         <f>$D$4+SUM($E$15:L15)</f>
-        <v>316278.94453617459</v>
+        <v>6325578.890723492</v>
       </c>
       <c r="M21" s="48">
         <f>$D$4+SUM($E$15:M15)</f>
-        <v>339367.30748731532</v>
+        <v>6787346.1497463062</v>
       </c>
       <c r="N21" s="50">
         <f>$D$4+SUM($E$15:N15)</f>
-        <v>364141.12093388935</v>
+        <v>7282822.4186777864</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" t="s">
@@ -2546,7 +2546,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="44">
         <f ca="1">I20+SUM(D12:D17)</f>
-        <v>109030.09193582673</v>
+        <v>3843021.9731617756</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -2554,7 +2554,7 @@
       <c r="M22" s="43"/>
       <c r="N22" s="44">
         <f ca="1">N20+SUM(D12:D17)</f>
-        <v>279494.8506999294</v>
+        <v>7320685.1484438293</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="32">
         <f ca="1">(I20+$D$18)/-$D$18</f>
-        <v>1.0002760728057498</v>
+        <v>1.7628541161292548</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -2578,7 +2578,7 @@
       <c r="M23" s="51"/>
       <c r="N23" s="32">
         <f ca="1">(N20+$D$18)/-$D$18</f>
-        <v>2.5641729422011874</v>
+        <v>3.3581124534146007</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D27" s="39">
         <f>D12</f>
-        <v>-100000</v>
+        <v>-2000000</v>
       </c>
       <c r="E27" s="39">
         <f>E12</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D28" s="39">
         <f>D13</f>
-        <v>-9000</v>
+        <v>-180000</v>
       </c>
       <c r="E28" s="39">
         <f>-L2</f>
@@ -2757,43 +2757,43 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39">
         <f>-$L$3</f>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ref="F29:N29" si="7">E29</f>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="G29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="I29" s="40">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="K29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="M29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
       <c r="N29" s="40">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-4800</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,43 +2805,43 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39">
         <f>(D4+D30)*$E$7</f>
-        <v>9000</v>
+        <v>180000</v>
       </c>
       <c r="F30" s="39">
         <f>(D4+SUM($D$30:E30))*$E$7</f>
-        <v>9450</v>
+        <v>189000</v>
       </c>
       <c r="G30" s="39">
         <f>(D4+SUM($D$30:F30))*$E$7</f>
-        <v>9922.5</v>
+        <v>198450</v>
       </c>
       <c r="H30" s="39">
         <f>(D4+SUM($D$30:G30))*$E$7</f>
-        <v>10418.625</v>
+        <v>208372.5</v>
       </c>
       <c r="I30" s="40">
         <f>(D4+SUM($D$30:H30))*$E$7</f>
-        <v>10939.556250000001</v>
+        <v>218791.125</v>
       </c>
       <c r="J30" s="39">
         <f>(D4+SUM($D$30:I30))*$E$7</f>
-        <v>11486.534062500001</v>
+        <v>229730.68125000002</v>
       </c>
       <c r="K30" s="39">
         <f>(D4+SUM($D$30:J30))*$E$7</f>
-        <v>12060.860765625002</v>
+        <v>241217.21531250002</v>
       </c>
       <c r="L30" s="39">
         <f>(D4+SUM($D$30:K30))*$E$7</f>
-        <v>12663.903803906251</v>
+        <v>253278.07607812501</v>
       </c>
       <c r="M30" s="39">
         <f>(D4+SUM($D$30:L30))*$E$7</f>
-        <v>13297.098994101565</v>
+        <v>265941.97988203127</v>
       </c>
       <c r="N30" s="40">
         <f>(D4+SUM($D$30:M30))*$E$7</f>
-        <v>13961.953943806642</v>
+        <v>279239.07887613279</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2853,43 +2853,43 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39">
         <f>D4*L4</f>
-        <v>5600</v>
+        <v>112000</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ref="F31:N31" si="8">E31*(1+$E$8)</f>
-        <v>5824</v>
+        <v>116480</v>
       </c>
       <c r="G31" s="39">
         <f t="shared" si="8"/>
-        <v>6056.96</v>
+        <v>121139.2</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="8"/>
-        <v>6299.2384000000002</v>
+        <v>125984.768</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="8"/>
-        <v>6551.2079360000007</v>
+        <v>131024.15872000001</v>
       </c>
       <c r="J31" s="39">
         <f t="shared" si="8"/>
-        <v>6813.2562534400013</v>
+        <v>136265.1250688</v>
       </c>
       <c r="K31" s="39">
         <f t="shared" si="8"/>
-        <v>7085.7865035776013</v>
+        <v>141715.73007155201</v>
       </c>
       <c r="L31" s="39">
         <f t="shared" si="8"/>
-        <v>7369.2179637207055</v>
+        <v>147384.35927441411</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="8"/>
-        <v>7663.986682269534</v>
+        <v>153279.73364539066</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="8"/>
-        <v>7970.5461495603158</v>
+        <v>159410.92299120629</v>
       </c>
       <c r="O31" s="3"/>
     </row>
@@ -2949,47 +2949,47 @@
       </c>
       <c r="D33" s="43">
         <f>SUM(D27:D32)</f>
-        <v>-109000</v>
+        <v>-2180000</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" ref="E33:N33" ca="1" si="10">$E$12+SUM(E27:E32)</f>
-        <v>5584.5456401581278</v>
+        <v>278424.54564015812</v>
       </c>
       <c r="F33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>6258.5456401581278</v>
+        <v>291904.54564015812</v>
       </c>
       <c r="G33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>6964.0056401581269</v>
+        <v>306013.74564015813</v>
       </c>
       <c r="H33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>7702.4090401581279</v>
+        <v>320781.8136401581</v>
       </c>
       <c r="I33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>8475.309826158129</v>
+        <v>336239.82936015812</v>
       </c>
       <c r="J33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>9284.3359560981298</v>
+        <v>352420.35195895814</v>
       </c>
       <c r="K33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>10131.192909360732</v>
+        <v>369357.49102421012</v>
       </c>
       <c r="L33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>11017.667407785084</v>
+        <v>387086.98099269724</v>
       </c>
       <c r="M33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>11945.631316529227</v>
+        <v>405646.25916758005</v>
       </c>
       <c r="N33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>12917.045733525087</v>
+        <v>425074.54750749719</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3001,43 +3001,43 @@
       <c r="D34" s="43"/>
       <c r="E34" s="45">
         <f t="shared" ref="E34:N34" ca="1" si="11">SUM(E28:E29,E31:E32)/12</f>
-        <v>-284.62119665348933</v>
+        <v>8202.0454700131777</v>
       </c>
       <c r="F34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-265.95452998682271</v>
+        <v>8575.3788033465116</v>
       </c>
       <c r="G34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-246.54119665348935</v>
+        <v>8963.6454700131781</v>
       </c>
       <c r="H34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-226.35132998682266</v>
+        <v>9367.4428033465101</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>-205.35386865348929</v>
+        <v>9787.3920300131776</v>
       </c>
       <c r="J34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-183.51650886682259</v>
+        <v>10224.13922574651</v>
       </c>
       <c r="K34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-160.80565468868926</v>
+        <v>10678.356309309178</v>
       </c>
       <c r="L34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-137.18636634343056</v>
+        <v>11150.742076214352</v>
       </c>
       <c r="M34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-112.62230646436153</v>
+        <v>11642.023273795732</v>
       </c>
       <c r="N34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>-87.075684190129707</v>
+        <v>12152.955719280368</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3049,43 +3049,43 @@
       <c r="D35" s="39"/>
       <c r="E35" s="43">
         <f ca="1">D4+SUM(F32:$O$32)+SUM($E$33:E33)</f>
-        <v>112005.45640158128</v>
+        <v>3804845.4564015809</v>
       </c>
       <c r="F35" s="43">
         <f ca="1">D4+SUM(G32:$O$32)+SUM($E$33:F33)</f>
-        <v>126439.45640158126</v>
+        <v>4104925.4564015809</v>
       </c>
       <c r="G35" s="47">
         <f ca="1">D4+SUM(H32:$O$32)+SUM($E$33:G33)</f>
-        <v>141578.91640158126</v>
+        <v>4419114.6564015811</v>
       </c>
       <c r="H35" s="43">
         <f ca="1">D4+SUM(I32:$O$32)+SUM($E$33:H33)</f>
-        <v>157456.77980158129</v>
+        <v>4748071.9244015813</v>
       </c>
       <c r="I35" s="44">
         <f ca="1">D4+SUM(J32:$O$32)+SUM($E$33:I33)</f>
-        <v>174107.54398758127</v>
+        <v>5092487.208121581</v>
       </c>
       <c r="J35" s="43">
         <f ca="1">D4+SUM(K32:$O$32)+SUM($E$33:J33)</f>
-        <v>191567.33430352126</v>
+        <v>5453083.0144403819</v>
       </c>
       <c r="K35" s="43">
         <f ca="1">D4+SUM(L32:$O$32)+SUM($E$33:K33)</f>
-        <v>209873.98157272389</v>
+        <v>5830615.9598244336</v>
       </c>
       <c r="L35" s="43">
         <f ca="1">D4+SUM(M32:$O$32)+SUM($E$33:L33)</f>
-        <v>229067.10334035085</v>
+        <v>6225878.3951769732</v>
       </c>
       <c r="M35" s="43">
         <f ca="1">D4+SUM(N32:$O$32)+SUM($E$33:M33)</f>
-        <v>249188.18901672194</v>
+        <v>6639700.1087043937</v>
       </c>
       <c r="N35" s="44">
         <f ca="1">D4+SUM(O32:$O$32)+SUM($E$33:N33)</f>
-        <v>270280.68911008892</v>
+        <v>7072950.1105717327</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
@@ -3100,43 +3100,43 @@
       <c r="D36" s="39"/>
       <c r="E36" s="55">
         <f>$D$4+SUM($E$30:E30)</f>
-        <v>189000</v>
+        <v>3780000</v>
       </c>
       <c r="F36" s="55">
         <f>$D$4+SUM($E$30:F30)</f>
-        <v>198450</v>
+        <v>3969000</v>
       </c>
       <c r="G36" s="55">
         <f>$D$4+SUM($E$30:G30)</f>
-        <v>208372.5</v>
+        <v>4167450</v>
       </c>
       <c r="H36" s="55">
         <f>$D$4+SUM($E$30:H30)</f>
-        <v>218791.125</v>
+        <v>4375822.5</v>
       </c>
       <c r="I36" s="56">
         <f>$D$4+SUM($E$30:I30)</f>
-        <v>229730.68124999999</v>
+        <v>4594613.625</v>
       </c>
       <c r="J36" s="48">
         <f>$D$4+SUM($E$30:J30)</f>
-        <v>241217.21531250002</v>
+        <v>4824344.3062500004</v>
       </c>
       <c r="K36" s="48">
         <f>$D$4+SUM($E$30:K30)</f>
-        <v>253278.07607812501</v>
+        <v>5065561.5215624999</v>
       </c>
       <c r="L36" s="48">
         <f>$D$4+SUM($E$30:L30)</f>
-        <v>265941.97988203127</v>
+        <v>5318839.5976406252</v>
       </c>
       <c r="M36" s="48">
         <f>$D$4+SUM($E$30:M30)</f>
-        <v>279239.07887613284</v>
+        <v>5584781.5775226559</v>
       </c>
       <c r="N36" s="56">
         <f>D4+SUM(E30:N30)</f>
-        <v>293201.03281993949</v>
+        <v>5864020.656398789</v>
       </c>
       <c r="P36" t="s">
         <v>34</v>
@@ -3155,7 +3155,7 @@
       <c r="H37" s="43"/>
       <c r="I37" s="44">
         <f ca="1">I35+SUM(D27:D32)</f>
-        <v>65107.543987581274</v>
+        <v>2912487.208121581</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
@@ -3163,7 +3163,7 @@
       <c r="M37" s="43"/>
       <c r="N37" s="44">
         <f ca="1">N35+SUM(D27:D32)</f>
-        <v>161280.68911008892</v>
+        <v>4892950.1105717327</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -3182,7 +3182,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="32">
         <f ca="1">(I35+$D$33)/-$D$33</f>
-        <v>0.59731691731725944</v>
+        <v>1.3360033064777894</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -3190,7 +3190,7 @@
       <c r="M38" s="51"/>
       <c r="N38" s="32">
         <f ca="1">(N35+$D$33)/-$D$33</f>
-        <v>1.4796393496338434</v>
+        <v>2.2444725277851987</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -3267,10 +3267,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69">
+      <c r="A42" s="70">
         <v>3</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3278,47 +3278,47 @@
       </c>
       <c r="D42" s="43">
         <f>-D2</f>
-        <v>-100000</v>
+        <v>-2000000</v>
       </c>
       <c r="E42" s="43">
         <f>-$D$42*E9</f>
-        <v>3000</v>
+        <v>60000</v>
       </c>
       <c r="F42" s="43">
         <f>(-$D$42+E42)*E9</f>
-        <v>3090</v>
+        <v>61800</v>
       </c>
       <c r="G42" s="43">
         <f>(-$D$42+SUM($E$42:F42))*3.5%</f>
-        <v>3713.1500000000005</v>
+        <v>74263</v>
       </c>
       <c r="H42" s="43">
         <f>(-$D$42+SUM($E$42:G42))*3.5%</f>
-        <v>3843.1102500000002</v>
+        <v>76862.205000000002</v>
       </c>
       <c r="I42" s="44">
         <f>(-$D$42+SUM($E$42:H42))*3.5%</f>
-        <v>3977.6191087500006</v>
+        <v>79552.382175000006</v>
       </c>
       <c r="J42" s="43">
         <f>(-$D$42+SUM($E$42:I42))*3.5%</f>
-        <v>4116.8357775562499</v>
+        <v>82336.715551125002</v>
       </c>
       <c r="K42" s="43">
         <f>(-$D$42+SUM($E$42:J42))*3.5%</f>
-        <v>4260.9250297707185</v>
+        <v>85218.500595414385</v>
       </c>
       <c r="L42" s="43">
         <f>(-$D$42+SUM($E$42:K42))*3.5%</f>
-        <v>4410.0574058126949</v>
+        <v>88201.148116253884</v>
       </c>
       <c r="M42" s="43">
         <f>(-$D$42+SUM($E$42:L42))*3.5%</f>
-        <v>4564.4094150161391</v>
+        <v>91288.18830032277</v>
       </c>
       <c r="N42" s="44">
         <f>(-$D$42+SUM($E$42:M42))*3.5%</f>
-        <v>4724.1637445417036</v>
+        <v>94483.274890834073</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3330,43 +3330,43 @@
       <c r="D43" s="39"/>
       <c r="E43" s="39">
         <f>-D42+E42</f>
-        <v>103000</v>
+        <v>2060000</v>
       </c>
       <c r="F43" s="39">
         <f t="shared" ref="F43:N43" si="12">E43+F42</f>
-        <v>106090</v>
+        <v>2121800</v>
       </c>
       <c r="G43" s="39">
         <f t="shared" si="12"/>
-        <v>109803.15</v>
+        <v>2196063</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="12"/>
-        <v>113646.26024999999</v>
+        <v>2272925.2050000001</v>
       </c>
       <c r="I43" s="40">
         <f t="shared" si="12"/>
-        <v>117623.87935875</v>
+        <v>2352477.587175</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="12"/>
-        <v>121740.71513630624</v>
+        <v>2434814.3027261249</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="12"/>
-        <v>126001.64016607696</v>
+        <v>2520032.8033215394</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="12"/>
-        <v>130411.69757188966</v>
+        <v>2608233.9514377932</v>
       </c>
       <c r="M43" s="39">
         <f t="shared" si="12"/>
-        <v>134976.1069869058</v>
+        <v>2699522.1397381159</v>
       </c>
       <c r="N43" s="40">
         <f t="shared" si="12"/>
-        <v>139700.2707314475</v>
+        <v>2794005.4146289499</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
@@ -3389,15 +3389,15 @@
       </c>
       <c r="G44" s="57">
         <f t="shared" si="13"/>
-        <v>9.8031499999999938E-2</v>
+        <v>9.8031499999999994E-2</v>
       </c>
       <c r="H44" s="57">
         <f t="shared" si="13"/>
-        <v>0.13646260249999992</v>
+        <v>0.13646260250000003</v>
       </c>
       <c r="I44" s="58">
         <f t="shared" si="13"/>
-        <v>0.17623879358749997</v>
+        <v>0.1762387935875</v>
       </c>
       <c r="J44" s="57">
         <f t="shared" si="13"/>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="K44" s="57">
         <f t="shared" si="13"/>
-        <v>0.26001640166076961</v>
+        <v>0.26001640166076972</v>
       </c>
       <c r="L44" s="57">
         <f t="shared" si="13"/>
-        <v>0.30411697571889656</v>
+        <v>0.30411697571889662</v>
       </c>
       <c r="M44" s="57">
         <f t="shared" si="13"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D49" s="39">
         <f>D27</f>
-        <v>-100000</v>
+        <v>-2000000</v>
       </c>
       <c r="E49" s="39">
         <v>0</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D50" s="39">
         <f>D28</f>
-        <v>-9000</v>
+        <v>-180000</v>
       </c>
       <c r="E50" s="39">
         <f>-K2</f>
@@ -3633,43 +3633,43 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39">
         <f>-D49*D7</f>
-        <v>7299.9999999999991</v>
+        <v>146000</v>
       </c>
       <c r="F52" s="39">
         <f>(-$D$49+SUM($E$52:E52))*$D$7</f>
-        <v>7832.9</v>
+        <v>156658</v>
       </c>
       <c r="G52" s="39">
         <f>(-$D$49+SUM($E$52:F52))*$D$7</f>
-        <v>8404.7016999999996</v>
+        <v>168094.03399999999</v>
       </c>
       <c r="H52" s="39">
         <f>(-$D$49+SUM($E$52:G52))*$D$7</f>
-        <v>9018.2449240999995</v>
+        <v>180364.89848199999</v>
       </c>
       <c r="I52" s="40">
         <f>(-$D$49+SUM($E$52:H52))*$D$7</f>
-        <v>9676.5768035592992</v>
+        <v>193531.53607118598</v>
       </c>
       <c r="J52" s="39">
         <f>(-$D$49+SUM($E$52:I52))*$D$7</f>
-        <v>10382.966910219127</v>
+        <v>207659.33820438257</v>
       </c>
       <c r="K52" s="39">
         <f>(-$D$49+SUM($E$52:J52))*$D$7</f>
-        <v>11140.923494665125</v>
+        <v>222818.46989330248</v>
       </c>
       <c r="L52" s="39">
         <f>(-$D$49+SUM($E$52:K52))*$D$7</f>
-        <v>11954.210909775678</v>
+        <v>239084.21819551359</v>
       </c>
       <c r="M52" s="39">
         <f>(-$D$49+SUM($E$52:L52))*$D$7</f>
-        <v>12826.868306189304</v>
+        <v>256537.36612378605</v>
       </c>
       <c r="N52" s="40">
         <f>(-$D$49+SUM($E$52:M52))*$D$7</f>
-        <v>13763.229692541125</v>
+        <v>275264.59385082242</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3681,43 +3681,43 @@
       <c r="D53" s="39"/>
       <c r="E53" s="39">
         <f>-D49*K4</f>
-        <v>4888.8888888888887</v>
+        <v>97777.777777777766</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" ref="F53:N53" si="15">E53*(1+$D$8)</f>
-        <v>5177.333333333333</v>
+        <v>103546.66666666664</v>
       </c>
       <c r="G53" s="39">
         <f t="shared" si="15"/>
-        <v>5482.7959999999994</v>
+        <v>109655.91999999997</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="15"/>
-        <v>5806.2809639999987</v>
+        <v>116125.61927999996</v>
       </c>
       <c r="I53" s="40">
         <f t="shared" si="15"/>
-        <v>6148.8515408759986</v>
+        <v>122977.03081751995</v>
       </c>
       <c r="J53" s="39">
         <f t="shared" si="15"/>
-        <v>6511.633781787682</v>
+        <v>130232.67563575362</v>
       </c>
       <c r="K53" s="39">
         <f t="shared" si="15"/>
-        <v>6895.8201749131549</v>
+        <v>137916.40349826307</v>
       </c>
       <c r="L53" s="39">
         <f t="shared" si="15"/>
-        <v>7302.6735652330308</v>
+        <v>146053.47130466058</v>
       </c>
       <c r="M53" s="39">
         <f t="shared" si="15"/>
-        <v>7733.5313055817787</v>
+        <v>154670.62611163553</v>
       </c>
       <c r="N53" s="40">
         <f t="shared" si="15"/>
-        <v>8189.809652611103</v>
+        <v>163796.19305222202</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3766,47 +3766,47 @@
       </c>
       <c r="D55" s="43">
         <f t="shared" ref="D55:N55" si="16">SUM(D49:D54)</f>
-        <v>-109000</v>
+        <v>-2180000</v>
       </c>
       <c r="E55" s="43">
         <f t="shared" si="16"/>
-        <v>11588.888888888887</v>
+        <v>243177.77777777775</v>
       </c>
       <c r="F55" s="43">
         <f t="shared" si="16"/>
-        <v>12410.233333333334</v>
+        <v>259604.66666666663</v>
       </c>
       <c r="G55" s="43">
         <f t="shared" si="16"/>
-        <v>13287.4977</v>
+        <v>277149.95399999997</v>
       </c>
       <c r="H55" s="43">
         <f t="shared" si="16"/>
-        <v>14224.525888099997</v>
+        <v>295890.51776199997</v>
       </c>
       <c r="I55" s="44">
         <f t="shared" si="16"/>
-        <v>15225.428344435299</v>
+        <v>315908.56688870594</v>
       </c>
       <c r="J55" s="43">
         <f t="shared" si="16"/>
-        <v>16294.60069200681</v>
+        <v>337292.01384013618</v>
       </c>
       <c r="K55" s="43">
         <f t="shared" si="16"/>
-        <v>17436.743669578282</v>
+        <v>360134.87339156552</v>
       </c>
       <c r="L55" s="43">
         <f t="shared" si="16"/>
-        <v>18656.884475008708</v>
+        <v>384537.68950017414</v>
       </c>
       <c r="M55" s="43">
         <f t="shared" si="16"/>
-        <v>19960.399611771085</v>
+        <v>410607.99223542155</v>
       </c>
       <c r="N55" s="44">
         <f t="shared" si="16"/>
-        <v>21353.039345152229</v>
+        <v>438460.78690304444</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,43 +3818,43 @@
       <c r="D56" s="39"/>
       <c r="E56" s="45">
         <f t="shared" ref="E56:N56" si="17">SUM(E50:E51,E53:E54)/12</f>
-        <v>357.40740740740739</v>
+        <v>8098.1481481481469</v>
       </c>
       <c r="F56" s="45">
         <f t="shared" si="17"/>
-        <v>381.4444444444444</v>
+        <v>8578.8888888888869</v>
       </c>
       <c r="G56" s="45">
         <f t="shared" si="17"/>
-        <v>406.89966666666663</v>
+        <v>9087.9933333333302</v>
       </c>
       <c r="H56" s="45">
         <f t="shared" si="17"/>
-        <v>433.85674699999987</v>
+        <v>9627.1349399999963</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" si="17"/>
-        <v>462.4042950729999</v>
+        <v>10198.085901459996</v>
       </c>
       <c r="J56" s="45">
         <f t="shared" si="17"/>
-        <v>492.63614848230685</v>
+        <v>10802.722969646135</v>
       </c>
       <c r="K56" s="45">
         <f t="shared" si="17"/>
-        <v>524.65168124276295</v>
+        <v>11443.033624855256</v>
       </c>
       <c r="L56" s="45">
         <f t="shared" si="17"/>
-        <v>558.55613043608594</v>
+        <v>12121.122608721715</v>
       </c>
       <c r="M56" s="45">
         <f t="shared" si="17"/>
-        <v>594.46094213181493</v>
+        <v>12839.218842636294</v>
       </c>
       <c r="N56" s="46">
         <f t="shared" si="17"/>
-        <v>632.48413771759192</v>
+        <v>13599.682754351836</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3866,43 +3866,43 @@
       <c r="D57" s="39"/>
       <c r="E57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:E55)</f>
-        <v>111588.88888888889</v>
+        <v>2243177.777777778</v>
       </c>
       <c r="F57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:F55)</f>
-        <v>123999.12222222221</v>
+        <v>2502782.4444444445</v>
       </c>
       <c r="G57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:G55)</f>
-        <v>137286.61992222222</v>
+        <v>2779932.3984444444</v>
       </c>
       <c r="H57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:H55)</f>
-        <v>151511.14581032222</v>
+        <v>3075822.9162064446</v>
       </c>
       <c r="I57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:I55)</f>
-        <v>166736.57415475752</v>
+        <v>3391731.4830951504</v>
       </c>
       <c r="J57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:J55)</f>
-        <v>183031.17484676433</v>
+        <v>3729023.4969352866</v>
       </c>
       <c r="K57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:K55)</f>
-        <v>200467.91851634262</v>
+        <v>4089158.370326852</v>
       </c>
       <c r="L57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:L55)</f>
-        <v>219124.80299135132</v>
+        <v>4473696.059827026</v>
       </c>
       <c r="M57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:M55)</f>
-        <v>239085.20260312239</v>
+        <v>4884304.0520624481</v>
       </c>
       <c r="N57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:N55)</f>
-        <v>260438.24194827463</v>
+        <v>5322764.8389654923</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
@@ -3917,43 +3917,43 @@
       <c r="D58" s="39"/>
       <c r="E58" s="55">
         <f>-$D$49+SUM($E$52:E52)</f>
-        <v>107300</v>
+        <v>2146000</v>
       </c>
       <c r="F58" s="55">
         <f>-$D$49+SUM($E$52:F52)</f>
-        <v>115132.9</v>
+        <v>2302658</v>
       </c>
       <c r="G58" s="55">
         <f>-$D$49+SUM($E$52:G52)</f>
-        <v>123537.6017</v>
+        <v>2470752.034</v>
       </c>
       <c r="H58" s="55">
         <f>-$D$49+SUM($E$52:H52)</f>
-        <v>132555.8466241</v>
+        <v>2651116.932482</v>
       </c>
       <c r="I58" s="56">
         <f>-$D$49+SUM($E$52:I52)</f>
-        <v>142232.42342765929</v>
+        <v>2844648.4685531859</v>
       </c>
       <c r="J58" s="48">
         <f>-$D$49+SUM($E$52:J52)</f>
-        <v>152615.39033787843</v>
+        <v>3052307.8067575684</v>
       </c>
       <c r="K58" s="48">
         <f>-$D$49+SUM($E$52:K52)</f>
-        <v>163756.31383254356</v>
+        <v>3275126.2766508712</v>
       </c>
       <c r="L58" s="48">
         <f>-$D$49+SUM($E$52:L52)</f>
-        <v>175710.52474231925</v>
+        <v>3514210.4948463845</v>
       </c>
       <c r="M58" s="48">
         <f>-$D$49+SUM($E$52:M52)</f>
-        <v>188537.39304850856</v>
+        <v>3770747.8609701702</v>
       </c>
       <c r="N58" s="56">
         <f>-D49+SUM(E52:N52)</f>
-        <v>202300.62274104968</v>
+        <v>4046012.4548209929</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -3972,7 +3972,7 @@
       <c r="H59" s="43"/>
       <c r="I59" s="44">
         <f>I57+SUM(D49:D54)</f>
-        <v>57736.574154757516</v>
+        <v>1211731.4830951504</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="43"/>
@@ -3980,7 +3980,7 @@
       <c r="M59" s="43"/>
       <c r="N59" s="44">
         <f>N57+SUM(D49:D54)</f>
-        <v>151438.24194827463</v>
+        <v>3142764.8389654923</v>
       </c>
       <c r="P59" t="s">
         <v>49</v>
@@ -3999,7 +3999,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="32">
         <f>(I57+$D$18)/-$D$18</f>
-        <v>0.52969334086933506</v>
+        <v>0.55584012986016074</v>
       </c>
       <c r="J60" s="51"/>
       <c r="K60" s="51"/>
@@ -4007,7 +4007,7 @@
       <c r="M60" s="51"/>
       <c r="N60" s="32">
         <f>(N57+$D$18)/-$D$18</f>
-        <v>1.3893416692502261</v>
+        <v>1.4416352472318772</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D64" s="39">
         <f>D12</f>
-        <v>-100000</v>
+        <v>-2000000</v>
       </c>
       <c r="E64" s="39">
         <v>0</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D65" s="39">
         <f>D13</f>
-        <v>-9000</v>
+        <v>-180000</v>
       </c>
       <c r="E65" s="39">
         <f>-L2</f>
@@ -4196,43 +4196,43 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39">
         <f>-D64*E7</f>
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="F67" s="39">
         <f>(-$D$64+SUM($E$67:E67))*$E$7</f>
-        <v>5250</v>
+        <v>105000</v>
       </c>
       <c r="G67" s="39">
         <f>(-$D$64+SUM($E$67:F67))*$E$7</f>
-        <v>5512.5</v>
+        <v>110250</v>
       </c>
       <c r="H67" s="39">
         <f>(-$D$64+SUM($E$67:G67))*$E$7</f>
-        <v>5788.125</v>
+        <v>115762.5</v>
       </c>
       <c r="I67" s="40">
         <f>(-$D$64+SUM($E$67:H67))*$E$7</f>
-        <v>6077.53125</v>
+        <v>121550.625</v>
       </c>
       <c r="J67" s="39">
         <f>(-$D$64+SUM($E$67:I67))*$E$7</f>
-        <v>6381.4078125000005</v>
+        <v>127628.15625</v>
       </c>
       <c r="K67" s="39">
         <f>(-$D$64+SUM($E$67:J67))*$E$7</f>
-        <v>6700.4782031249997</v>
+        <v>134009.56406249999</v>
       </c>
       <c r="L67" s="39">
         <f>(-$D$64+SUM($E$67:K67))*$E$7</f>
-        <v>7035.5021132812508</v>
+        <v>140710.042265625</v>
       </c>
       <c r="M67" s="39">
         <f>(-$D$64+SUM($E$67:L67))*$E$7</f>
-        <v>7387.2772189453135</v>
+        <v>147745.54437890626</v>
       </c>
       <c r="N67" s="40">
         <f>(-$D$64+SUM($E$67:M67))*$E$7</f>
-        <v>7756.641079892579</v>
+        <v>155132.82159785155</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4244,43 +4244,43 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39">
         <f>-D64*L4</f>
-        <v>3111.1111111111109</v>
+        <v>62222.222222222219</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" ref="F68:N68" si="19">E68*(1+$D$8)</f>
-        <v>3294.6666666666661</v>
+        <v>65893.333333333328</v>
       </c>
       <c r="G68" s="39">
         <f t="shared" si="19"/>
-        <v>3489.0519999999992</v>
+        <v>69781.039999999994</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="19"/>
-        <v>3694.9060679999989</v>
+        <v>73898.12135999999</v>
       </c>
       <c r="I68" s="40">
         <f t="shared" si="19"/>
-        <v>3912.9055260119985</v>
+        <v>78258.110520239992</v>
       </c>
       <c r="J68" s="39">
         <f t="shared" si="19"/>
-        <v>4143.7669520467061</v>
+        <v>82875.339040934152</v>
       </c>
       <c r="K68" s="39">
         <f t="shared" si="19"/>
-        <v>4388.249202217462</v>
+        <v>87764.984044349258</v>
       </c>
       <c r="L68" s="39">
         <f t="shared" si="19"/>
-        <v>4647.1559051482918</v>
+        <v>92943.118102965862</v>
       </c>
       <c r="M68" s="39">
         <f t="shared" si="19"/>
-        <v>4921.3381035520406</v>
+        <v>98426.762071040837</v>
       </c>
       <c r="N68" s="40">
         <f t="shared" si="19"/>
-        <v>5211.6970516616111</v>
+        <v>104233.94103323224</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4329,47 +4329,47 @@
       </c>
       <c r="D70" s="43">
         <f t="shared" ref="D70:N70" si="20">SUM(D64:D69)</f>
-        <v>-109000</v>
+        <v>-2180000</v>
       </c>
       <c r="E70" s="43">
         <f t="shared" si="20"/>
-        <v>7511.1111111111113</v>
+        <v>161622.22222222222</v>
       </c>
       <c r="F70" s="43">
         <f t="shared" si="20"/>
-        <v>7944.6666666666661</v>
+        <v>170293.33333333331</v>
       </c>
       <c r="G70" s="43">
         <f t="shared" si="20"/>
-        <v>8401.5519999999997</v>
+        <v>179431.03999999998</v>
       </c>
       <c r="H70" s="43">
         <f t="shared" si="20"/>
-        <v>8883.0310679999984</v>
+        <v>189060.62135999999</v>
       </c>
       <c r="I70" s="44">
         <f t="shared" si="20"/>
-        <v>9390.4367760119985</v>
+        <v>199208.73552023998</v>
       </c>
       <c r="J70" s="43">
         <f t="shared" si="20"/>
-        <v>9925.1747645467076</v>
+        <v>209903.49529093417</v>
       </c>
       <c r="K70" s="43">
         <f t="shared" si="20"/>
-        <v>10488.727405342463</v>
+        <v>221174.54810684925</v>
       </c>
       <c r="L70" s="43">
         <f t="shared" si="20"/>
-        <v>11082.658018429542</v>
+        <v>233053.16036859085</v>
       </c>
       <c r="M70" s="43">
         <f t="shared" si="20"/>
-        <v>11708.615322497353</v>
+        <v>245572.30644994709</v>
       </c>
       <c r="N70" s="44">
         <f t="shared" si="20"/>
-        <v>12368.33813155419</v>
+        <v>258766.76263108378</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4381,43 +4381,43 @@
       <c r="D71" s="39"/>
       <c r="E71" s="45">
         <f t="shared" ref="E71:N71" si="21">SUM(E65:E66,E68:E69)/12</f>
-        <v>209.25925925925924</v>
+        <v>5135.1851851851852</v>
       </c>
       <c r="F71" s="45">
         <f t="shared" si="21"/>
-        <v>224.55555555555551</v>
+        <v>5441.1111111111104</v>
       </c>
       <c r="G71" s="45">
         <f t="shared" si="21"/>
-        <v>240.75433333333328</v>
+        <v>5765.0866666666661</v>
       </c>
       <c r="H71" s="45">
         <f t="shared" si="21"/>
-        <v>257.90883899999989</v>
+        <v>6108.1767799999989</v>
       </c>
       <c r="I71" s="46">
         <f t="shared" si="21"/>
-        <v>276.0754605009999</v>
+        <v>6471.509210019999</v>
       </c>
       <c r="J71" s="45">
         <f t="shared" si="21"/>
-        <v>295.31391267055886</v>
+        <v>6856.2782534111793</v>
       </c>
       <c r="K71" s="45">
         <f t="shared" si="21"/>
-        <v>315.68743351812185</v>
+        <v>7263.7486703624381</v>
       </c>
       <c r="L71" s="45">
         <f t="shared" si="21"/>
-        <v>337.262992095691</v>
+        <v>7695.2598419138221</v>
       </c>
       <c r="M71" s="45">
         <f t="shared" si="21"/>
-        <v>360.1115086293367</v>
+        <v>8152.2301725867364</v>
       </c>
       <c r="N71" s="46">
         <f t="shared" si="21"/>
-        <v>384.30808763846761</v>
+        <v>8636.1617527693543</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4429,43 +4429,43 @@
       <c r="D72" s="39"/>
       <c r="E72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:E70)</f>
-        <v>107511.11111111111</v>
+        <v>2161622.222222222</v>
       </c>
       <c r="F72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:F70)</f>
-        <v>115455.77777777778</v>
+        <v>2331915.5555555555</v>
       </c>
       <c r="G72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:G70)</f>
-        <v>123857.32977777778</v>
+        <v>2511346.5955555555</v>
       </c>
       <c r="H72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:H70)</f>
-        <v>132740.36084577779</v>
+        <v>2700407.2169155553</v>
       </c>
       <c r="I72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:I70)</f>
-        <v>142130.79762178977</v>
+        <v>2899615.9524357952</v>
       </c>
       <c r="J72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:J70)</f>
-        <v>152055.97238633648</v>
+        <v>3109519.4477267293</v>
       </c>
       <c r="K72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:K70)</f>
-        <v>162544.69979167893</v>
+        <v>3330693.9958335785</v>
       </c>
       <c r="L72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:L70)</f>
-        <v>173627.35781010849</v>
+        <v>3563747.1562021696</v>
       </c>
       <c r="M72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:M70)</f>
-        <v>185335.97313260584</v>
+        <v>3809319.462652117</v>
       </c>
       <c r="N72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:N70)</f>
-        <v>197704.31126416003</v>
+        <v>4068086.2252832009</v>
       </c>
       <c r="P72" t="s">
         <v>47</v>
@@ -4480,43 +4480,43 @@
       <c r="D73" s="39"/>
       <c r="E73" s="55">
         <f>-$D$64+SUM($E$67:E67)</f>
-        <v>105000</v>
+        <v>2100000</v>
       </c>
       <c r="F73" s="55">
         <f>-$D$64+SUM($E$67:F67)</f>
-        <v>110250</v>
+        <v>2205000</v>
       </c>
       <c r="G73" s="55">
         <f>-$D$64+SUM($E$67:G67)</f>
-        <v>115762.5</v>
+        <v>2315250</v>
       </c>
       <c r="H73" s="55">
         <f>-$D$64+SUM($E$67:H67)</f>
-        <v>121550.625</v>
+        <v>2431012.5</v>
       </c>
       <c r="I73" s="56">
         <f>-$D$64+SUM($E$67:I67)</f>
-        <v>127628.15625</v>
+        <v>2552563.125</v>
       </c>
       <c r="J73" s="48">
         <f>-$D$64+SUM($E$67:J67)</f>
-        <v>134009.56406249999</v>
+        <v>2680191.28125</v>
       </c>
       <c r="K73" s="48">
         <f>-$D$64+SUM($E$67:K67)</f>
-        <v>140710.042265625</v>
+        <v>2814200.8453124999</v>
       </c>
       <c r="L73" s="48">
         <f>-$D$64+SUM($E$67:L67)</f>
-        <v>147745.54437890626</v>
+        <v>2954910.8875781251</v>
       </c>
       <c r="M73" s="48">
         <f>-$D$64+SUM($E$67:M67)</f>
-        <v>155132.82159785158</v>
+        <v>3102656.4319570311</v>
       </c>
       <c r="N73" s="56">
         <f>-D64+SUM(E67:N67)</f>
-        <v>162889.46267774416</v>
+        <v>3257789.2535548825</v>
       </c>
       <c r="P73" t="s">
         <v>48</v>
@@ -4535,7 +4535,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44">
         <f>I72+SUM(D64:D69)</f>
-        <v>33130.797621789767</v>
+        <v>719615.95243579522</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -4543,7 +4543,7 @@
       <c r="M74" s="43"/>
       <c r="N74" s="44">
         <f>N72+SUM(D64:D69)</f>
-        <v>88704.311264160031</v>
+        <v>1888086.2252832009</v>
       </c>
       <c r="P74" t="s">
         <v>49</v>
@@ -4562,7 +4562,7 @@
       <c r="H75" s="51"/>
       <c r="I75" s="32">
         <f>(I72+$D$18)/-$D$18</f>
-        <v>0.30395227175953915</v>
+        <v>0.33009906075036477</v>
       </c>
       <c r="J75" s="51"/>
       <c r="K75" s="51"/>
@@ -4570,7 +4570,7 @@
       <c r="M75" s="51"/>
       <c r="N75" s="32">
         <f>(N72+$D$18)/-$D$18</f>
-        <v>0.81380102077211036</v>
+        <v>0.86609459875376182</v>
       </c>
       <c r="P75" t="s">
         <v>49</v>
@@ -4669,16 +4669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B23"/>
     <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
     <mergeCell ref="B27:B38"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="B49:B60"/>
     <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="A64:A75"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <conditionalFormatting sqref="E19:N19">
     <cfRule type="colorScale" priority="8">
@@ -4784,8 +4784,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="35" width="9" style="12" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="12"/>
+    <col min="10" max="38" width="9" style="12" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15830,8 +15830,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="35" width="9" style="12" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="12"/>
+    <col min="10" max="38" width="9" style="12" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/media/yield.xlsx
+++ b/media/yield.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-108" yWindow="-14508" windowWidth="25824" windowHeight="13896"/>
   </bookViews>
   <sheets>
-    <sheet name="SmartInvest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="İpoteka hesablaması (TR)" sheetId="2" r:id="rId2"/>
     <sheet name="İpoteka hesablaması (AZE)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
@@ -1777,7 +1777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,11 +1822,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="21">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="24">
         <f>D2</f>
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>3</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="D3" s="24">
         <f>D2*80%</f>
-        <v>1600000</v>
+        <v>160000</v>
       </c>
       <c r="E3" s="24">
         <f>D3</f>
-        <v>1600000</v>
+        <v>160000</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L3" s="24">
         <f>D3*0.3%</f>
-        <v>4800</v>
+        <v>480</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>9</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="D4" s="24">
         <f>D2+D3</f>
-        <v>3600000</v>
+        <v>360000</v>
       </c>
       <c r="E4" s="24">
         <f>D4</f>
-        <v>3600000</v>
+        <v>360000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -1938,11 +1938,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="22">
         <f>D6</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>17</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D12" s="39">
         <f>-D2</f>
-        <v>-2000000</v>
+        <v>-200000</v>
       </c>
       <c r="E12" s="39">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="D13" s="39">
         <f>-(D2+D3)*5%</f>
-        <v>-180000</v>
+        <v>-18000</v>
       </c>
       <c r="E13" s="39">
         <f>-$K$2</f>
@@ -2190,43 +2190,43 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39">
         <f>(D4)*D7</f>
-        <v>262800</v>
+        <v>26280</v>
       </c>
       <c r="F15" s="39">
         <f>(D4+SUM($E$15:E15))*$D$7</f>
-        <v>281984.39999999997</v>
+        <v>28198.44</v>
       </c>
       <c r="G15" s="39">
         <f>(D4+SUM($E$15:F15))*$D$7</f>
-        <v>302569.26119999995</v>
+        <v>30256.92612</v>
       </c>
       <c r="H15" s="39">
         <f>(D4+SUM($E$15:G15))*$D$7</f>
-        <v>324656.81726759998</v>
+        <v>32465.681726759998</v>
       </c>
       <c r="I15" s="40">
         <f>(D4+SUM($E$15:H15))*$D$7</f>
-        <v>348356.7649281348</v>
+        <v>34835.67649281348</v>
       </c>
       <c r="J15" s="39">
         <f>(D4+SUM($E$15:I15))*$D$7</f>
-        <v>373786.80876788858</v>
+        <v>37378.680876788858</v>
       </c>
       <c r="K15" s="39">
         <f>(D4+SUM($E$15:J15))*$D$7</f>
-        <v>401073.24580794445</v>
+        <v>40107.324580794448</v>
       </c>
       <c r="L15" s="39">
         <f>(D4+SUM($E$15:K15))*$D$7</f>
-        <v>430351.59275192436</v>
+        <v>43035.15927519244</v>
       </c>
       <c r="M15" s="39">
         <f>(D4+SUM($E$15:L15))*$D$7</f>
-        <v>461767.25902281486</v>
+        <v>46176.725902281491</v>
       </c>
       <c r="N15" s="40">
         <f>(D4+SUM($E$15:M15))*$D$7</f>
-        <v>495476.2689314803</v>
+        <v>49547.626893148037</v>
       </c>
       <c r="O15" s="42"/>
     </row>
@@ -2239,43 +2239,43 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39">
         <f>D4*K4</f>
-        <v>175999.99999999997</v>
+        <v>17600</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ref="F16:N16" si="2">ROUND(E16*(1+$D$8),0)</f>
-        <v>186384</v>
+        <v>18638</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>197381</v>
+        <v>19738</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>209026</v>
+        <v>20903</v>
       </c>
       <c r="I16" s="40">
         <f t="shared" si="2"/>
-        <v>221359</v>
+        <v>22136</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>234419</v>
+        <v>23442</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>248250</v>
+        <v>24825</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>262897</v>
+        <v>26290</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="2"/>
-        <v>278408</v>
+        <v>27841</v>
       </c>
       <c r="N16" s="40">
         <f t="shared" si="2"/>
-        <v>294834</v>
+        <v>29484</v>
       </c>
       <c r="O16" s="41"/>
     </row>
@@ -2336,47 +2336,47 @@
       </c>
       <c r="D18" s="43">
         <f t="shared" ref="D18:N18" si="4">SUM(D12:D17)</f>
-        <v>-2180000</v>
+        <v>-218000</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>429690.47297660401</v>
+        <v>34770.472976603996</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>459258.87297660398</v>
+        <v>37726.912976603999</v>
       </c>
       <c r="G18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>490840.73417660396</v>
+        <v>40885.399096604</v>
       </c>
       <c r="H18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>524573.29024420399</v>
+        <v>44259.154703363994</v>
       </c>
       <c r="I18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>560606.23790473887</v>
+        <v>47862.149469417476</v>
       </c>
       <c r="J18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>599096.28174449259</v>
+        <v>51711.153853392854</v>
       </c>
       <c r="K18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>640213.71878454846</v>
+        <v>55822.797557398444</v>
       </c>
       <c r="L18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>684139.06572852843</v>
+        <v>60215.632251796444</v>
       </c>
       <c r="M18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>731065.73199941893</v>
+        <v>64908.198878885494</v>
       </c>
       <c r="N18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>781200.74190808437</v>
+        <v>69922.099869752026</v>
       </c>
       <c r="O18" s="41"/>
     </row>
@@ -2389,43 +2389,43 @@
       <c r="D19" s="43"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:N19" ca="1" si="5">SUM(E13:E14,E16:E17)/12</f>
-        <v>13907.539414716999</v>
+        <v>707.539414717</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>14772.872748050335</v>
+        <v>794.039414717</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>15689.289414717001</v>
+        <v>885.70608138366663</v>
       </c>
       <c r="H19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>16659.706081383669</v>
+        <v>982.789414717</v>
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>17687.456081383669</v>
+        <v>1085.539414717</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>18775.789414717001</v>
+        <v>1194.3727480503333</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>19928.372748050333</v>
+        <v>1309.6227480503333</v>
       </c>
       <c r="L19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>21148.956081383669</v>
+        <v>1431.7060813836667</v>
       </c>
       <c r="M19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>22441.539414717001</v>
+        <v>1560.9560813836667</v>
       </c>
       <c r="N19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>23810.372748050333</v>
+        <v>1697.8727480503333</v>
       </c>
       <c r="O19" s="41"/>
     </row>
@@ -2438,43 +2438,43 @@
       <c r="D20" s="39"/>
       <c r="E20" s="43">
         <f ca="1">D4+SUM(F17:$O$17)+SUM($E$18:E18)</f>
-        <v>3954184.7297660401</v>
+        <v>319264.72976603999</v>
       </c>
       <c r="F20" s="47">
         <f ca="1">D4+SUM(G17:$O$17)+SUM($E$18:F18)</f>
-        <v>4421833.1297660396</v>
+        <v>365381.16976603994</v>
       </c>
       <c r="G20" s="43">
         <f ca="1">D4+SUM(H17:$O$17)+SUM($E$18:G18)</f>
-        <v>4921063.3909660401</v>
+        <v>414656.09588603996</v>
       </c>
       <c r="H20" s="43">
         <f ca="1">D4+SUM(I17:$O$17)+SUM($E$18:H18)</f>
-        <v>5454026.2082336396</v>
+        <v>467304.77761280001</v>
       </c>
       <c r="I20" s="44">
         <f ca="1">D4+SUM(J17:$O$17)+SUM($E$18:I18)</f>
-        <v>6023021.9731617756</v>
+        <v>523556.45410561346</v>
       </c>
       <c r="J20" s="43">
         <f ca="1">D4+SUM(K17:$O$17)+SUM($E$18:J18)</f>
-        <v>6630507.7819296643</v>
+        <v>583657.13498240232</v>
       </c>
       <c r="K20" s="43">
         <f ca="1">D4+SUM(L17:$O$17)+SUM($E$18:K18)</f>
-        <v>7279111.0277376082</v>
+        <v>647869.45956319675</v>
       </c>
       <c r="L20" s="43">
         <f ca="1">D4+SUM(M17:$O$17)+SUM($E$18:L18)</f>
-        <v>7971639.6204895331</v>
+        <v>716474.61883838917</v>
       </c>
       <c r="M20" s="43">
         <f ca="1">D4+SUM(N17:$O$17)+SUM($E$18:M18)</f>
-        <v>8711094.8795123473</v>
+        <v>789772.34474067064</v>
       </c>
       <c r="N20" s="44">
         <f ca="1">D4+SUM(O17:$O$17)+SUM($E$18:N18)</f>
-        <v>9500685.1484438293</v>
+        <v>868083.9716338187</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" t="s">
@@ -2490,43 +2490,43 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48">
         <f>$D$4+SUM($E$15:E15)</f>
-        <v>3862800</v>
+        <v>386280</v>
       </c>
       <c r="F21" s="49">
         <f>$D$4+SUM($E$15:F15)</f>
-        <v>4144784.4</v>
+        <v>414478.44</v>
       </c>
       <c r="G21" s="48">
         <f>$D$4+SUM($E$15:G15)</f>
-        <v>4447353.6612</v>
+        <v>444735.36612000002</v>
       </c>
       <c r="H21" s="48">
         <f>$D$4+SUM($E$15:H15)</f>
-        <v>4772010.4784676004</v>
+        <v>477201.04784676002</v>
       </c>
       <c r="I21" s="50">
         <f>$D$4+SUM($E$15:I15)</f>
-        <v>5120367.2433957346</v>
+        <v>512036.72433957347</v>
       </c>
       <c r="J21" s="48">
         <f>$D$4+SUM($E$15:J15)</f>
-        <v>5494154.0521636233</v>
+        <v>549415.40521636233</v>
       </c>
       <c r="K21" s="48">
         <f>$D$4+SUM($E$15:K15)</f>
-        <v>5895227.2979715671</v>
+        <v>589522.72979715676</v>
       </c>
       <c r="L21" s="48">
         <f>$D$4+SUM($E$15:L15)</f>
-        <v>6325578.890723492</v>
+        <v>632557.88907234918</v>
       </c>
       <c r="M21" s="48">
         <f>$D$4+SUM($E$15:M15)</f>
-        <v>6787346.1497463062</v>
+        <v>678734.61497463065</v>
       </c>
       <c r="N21" s="50">
         <f>$D$4+SUM($E$15:N15)</f>
-        <v>7282822.4186777864</v>
+        <v>728282.24186777871</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" t="s">
@@ -2546,7 +2546,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="44">
         <f ca="1">I20+SUM(D12:D17)</f>
-        <v>3843021.9731617756</v>
+        <v>305556.45410561346</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -2554,7 +2554,7 @@
       <c r="M22" s="43"/>
       <c r="N22" s="44">
         <f ca="1">N20+SUM(D12:D17)</f>
-        <v>7320685.1484438293</v>
+        <v>650083.9716338187</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="32">
         <f ca="1">(I20+$D$18)/-$D$18</f>
-        <v>1.7628541161292548</v>
+        <v>1.4016351105762086</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -2578,7 +2578,7 @@
       <c r="M23" s="51"/>
       <c r="N23" s="32">
         <f ca="1">(N20+$D$18)/-$D$18</f>
-        <v>3.3581124534146007</v>
+        <v>2.9820365671276088</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D27" s="39">
         <f>D12</f>
-        <v>-2000000</v>
+        <v>-200000</v>
       </c>
       <c r="E27" s="39">
         <f>E12</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D28" s="39">
         <f>D13</f>
-        <v>-180000</v>
+        <v>-18000</v>
       </c>
       <c r="E28" s="39">
         <f>-L2</f>
@@ -2757,43 +2757,43 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39">
         <f>-$L$3</f>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ref="F29:N29" si="7">E29</f>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="G29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="I29" s="40">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="K29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="M29" s="39">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
       <c r="N29" s="40">
         <f t="shared" si="7"/>
-        <v>-4800</v>
+        <v>-480</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,43 +2805,43 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39">
         <f>(D4+D30)*$E$7</f>
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="F30" s="39">
         <f>(D4+SUM($D$30:E30))*$E$7</f>
-        <v>189000</v>
+        <v>18900</v>
       </c>
       <c r="G30" s="39">
         <f>(D4+SUM($D$30:F30))*$E$7</f>
-        <v>198450</v>
+        <v>19845</v>
       </c>
       <c r="H30" s="39">
         <f>(D4+SUM($D$30:G30))*$E$7</f>
-        <v>208372.5</v>
+        <v>20837.25</v>
       </c>
       <c r="I30" s="40">
         <f>(D4+SUM($D$30:H30))*$E$7</f>
-        <v>218791.125</v>
+        <v>21879.112500000003</v>
       </c>
       <c r="J30" s="39">
         <f>(D4+SUM($D$30:I30))*$E$7</f>
-        <v>229730.68125000002</v>
+        <v>22973.068125000002</v>
       </c>
       <c r="K30" s="39">
         <f>(D4+SUM($D$30:J30))*$E$7</f>
-        <v>241217.21531250002</v>
+        <v>24121.721531250005</v>
       </c>
       <c r="L30" s="39">
         <f>(D4+SUM($D$30:K30))*$E$7</f>
-        <v>253278.07607812501</v>
+        <v>25327.807607812501</v>
       </c>
       <c r="M30" s="39">
         <f>(D4+SUM($D$30:L30))*$E$7</f>
-        <v>265941.97988203127</v>
+        <v>26594.19798820313</v>
       </c>
       <c r="N30" s="40">
         <f>(D4+SUM($D$30:M30))*$E$7</f>
-        <v>279239.07887613279</v>
+        <v>27923.907887613284</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2853,43 +2853,43 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39">
         <f>D4*L4</f>
-        <v>112000</v>
+        <v>11200</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ref="F31:N31" si="8">E31*(1+$E$8)</f>
-        <v>116480</v>
+        <v>11648</v>
       </c>
       <c r="G31" s="39">
         <f t="shared" si="8"/>
-        <v>121139.2</v>
+        <v>12113.92</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="8"/>
-        <v>125984.768</v>
+        <v>12598.4768</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="8"/>
-        <v>131024.15872000001</v>
+        <v>13102.415872000001</v>
       </c>
       <c r="J31" s="39">
         <f t="shared" si="8"/>
-        <v>136265.1250688</v>
+        <v>13626.512506880003</v>
       </c>
       <c r="K31" s="39">
         <f t="shared" si="8"/>
-        <v>141715.73007155201</v>
+        <v>14171.573007155203</v>
       </c>
       <c r="L31" s="39">
         <f t="shared" si="8"/>
-        <v>147384.35927441411</v>
+        <v>14738.435927441411</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="8"/>
-        <v>153279.73364539066</v>
+        <v>15327.973364539068</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="8"/>
-        <v>159410.92299120629</v>
+        <v>15941.092299120632</v>
       </c>
       <c r="O31" s="3"/>
     </row>
@@ -2949,47 +2949,47 @@
       </c>
       <c r="D33" s="43">
         <f>SUM(D27:D32)</f>
-        <v>-2180000</v>
+        <v>-218000</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" ref="E33:N33" ca="1" si="10">$E$12+SUM(E27:E32)</f>
-        <v>278424.54564015812</v>
+        <v>19944.545640158129</v>
       </c>
       <c r="F33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>291904.54564015812</v>
+        <v>21292.545640158129</v>
       </c>
       <c r="G33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>306013.74564015813</v>
+        <v>22703.465640158127</v>
       </c>
       <c r="H33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>320781.8136401581</v>
+        <v>24180.272440158129</v>
       </c>
       <c r="I33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>336239.82936015812</v>
+        <v>25726.074012158129</v>
       </c>
       <c r="J33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>352420.35195895814</v>
+        <v>27344.126272038131</v>
       </c>
       <c r="K33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>369357.49102421012</v>
+        <v>29037.840178563336</v>
       </c>
       <c r="L33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>387086.98099269724</v>
+        <v>30810.789175412039</v>
       </c>
       <c r="M33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>405646.25916758005</v>
+        <v>32666.716992900325</v>
       </c>
       <c r="N33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>425074.54750749719</v>
+        <v>34609.545826892041</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3001,43 +3001,43 @@
       <c r="D34" s="43"/>
       <c r="E34" s="45">
         <f t="shared" ref="E34:N34" ca="1" si="11">SUM(E28:E29,E31:E32)/12</f>
-        <v>8202.0454700131777</v>
+        <v>162.04547001317732</v>
       </c>
       <c r="F34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>8575.3788033465116</v>
+        <v>199.37880334651064</v>
       </c>
       <c r="G34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>8963.6454700131781</v>
+        <v>238.20547001317732</v>
       </c>
       <c r="H34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>9367.4428033465101</v>
+        <v>278.5852033465107</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>9787.3920300131776</v>
+        <v>320.58012601317745</v>
       </c>
       <c r="J34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>10224.13922574651</v>
+        <v>364.25484558651084</v>
       </c>
       <c r="K34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>10678.356309309178</v>
+        <v>409.6765539427775</v>
       </c>
       <c r="L34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>11150.742076214352</v>
+        <v>456.91513063329489</v>
       </c>
       <c r="M34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>11642.023273795732</v>
+        <v>506.04325039143299</v>
       </c>
       <c r="N34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>12152.955719280368</v>
+        <v>557.13649493989658</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3049,43 +3049,43 @@
       <c r="D35" s="39"/>
       <c r="E35" s="43">
         <f ca="1">D4+SUM(F32:$O$32)+SUM($E$33:E33)</f>
-        <v>3804845.4564015809</v>
+        <v>306365.45640158129</v>
       </c>
       <c r="F35" s="43">
         <f ca="1">D4+SUM(G32:$O$32)+SUM($E$33:F33)</f>
-        <v>4104925.4564015809</v>
+        <v>335833.45640158124</v>
       </c>
       <c r="G35" s="47">
         <f ca="1">D4+SUM(H32:$O$32)+SUM($E$33:G33)</f>
-        <v>4419114.6564015811</v>
+        <v>366712.37640158128</v>
       </c>
       <c r="H35" s="43">
         <f ca="1">D4+SUM(I32:$O$32)+SUM($E$33:H33)</f>
-        <v>4748071.9244015813</v>
+        <v>399068.10320158128</v>
       </c>
       <c r="I35" s="44">
         <f ca="1">D4+SUM(J32:$O$32)+SUM($E$33:I33)</f>
-        <v>5092487.208121581</v>
+        <v>432969.63157358131</v>
       </c>
       <c r="J35" s="43">
         <f ca="1">D4+SUM(K32:$O$32)+SUM($E$33:J33)</f>
-        <v>5453083.0144403819</v>
+        <v>468489.21220546134</v>
       </c>
       <c r="K35" s="43">
         <f ca="1">D4+SUM(L32:$O$32)+SUM($E$33:K33)</f>
-        <v>5830615.9598244336</v>
+        <v>505702.50674386648</v>
       </c>
       <c r="L35" s="43">
         <f ca="1">D4+SUM(M32:$O$32)+SUM($E$33:L33)</f>
-        <v>6225878.3951769732</v>
+        <v>544688.7502791204</v>
       </c>
       <c r="M35" s="43">
         <f ca="1">D4+SUM(N32:$O$32)+SUM($E$33:M33)</f>
-        <v>6639700.1087043937</v>
+        <v>585530.92163186264</v>
       </c>
       <c r="N35" s="44">
         <f ca="1">D4+SUM(O32:$O$32)+SUM($E$33:N33)</f>
-        <v>7072950.1105717327</v>
+        <v>628315.92181859654</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
@@ -3100,43 +3100,43 @@
       <c r="D36" s="39"/>
       <c r="E36" s="55">
         <f>$D$4+SUM($E$30:E30)</f>
-        <v>3780000</v>
+        <v>378000</v>
       </c>
       <c r="F36" s="55">
         <f>$D$4+SUM($E$30:F30)</f>
-        <v>3969000</v>
+        <v>396900</v>
       </c>
       <c r="G36" s="55">
         <f>$D$4+SUM($E$30:G30)</f>
-        <v>4167450</v>
+        <v>416745</v>
       </c>
       <c r="H36" s="55">
         <f>$D$4+SUM($E$30:H30)</f>
-        <v>4375822.5</v>
+        <v>437582.25</v>
       </c>
       <c r="I36" s="56">
         <f>$D$4+SUM($E$30:I30)</f>
-        <v>4594613.625</v>
+        <v>459461.36249999999</v>
       </c>
       <c r="J36" s="48">
         <f>$D$4+SUM($E$30:J30)</f>
-        <v>4824344.3062500004</v>
+        <v>482434.43062500004</v>
       </c>
       <c r="K36" s="48">
         <f>$D$4+SUM($E$30:K30)</f>
-        <v>5065561.5215624999</v>
+        <v>506556.15215625003</v>
       </c>
       <c r="L36" s="48">
         <f>$D$4+SUM($E$30:L30)</f>
-        <v>5318839.5976406252</v>
+        <v>531883.95976406254</v>
       </c>
       <c r="M36" s="48">
         <f>$D$4+SUM($E$30:M30)</f>
-        <v>5584781.5775226559</v>
+        <v>558478.15775226569</v>
       </c>
       <c r="N36" s="56">
         <f>D4+SUM(E30:N30)</f>
-        <v>5864020.656398789</v>
+        <v>586402.06563987897</v>
       </c>
       <c r="P36" t="s">
         <v>34</v>
@@ -3155,7 +3155,7 @@
       <c r="H37" s="43"/>
       <c r="I37" s="44">
         <f ca="1">I35+SUM(D27:D32)</f>
-        <v>2912487.208121581</v>
+        <v>214969.63157358131</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
@@ -3163,7 +3163,7 @@
       <c r="M37" s="43"/>
       <c r="N37" s="44">
         <f ca="1">N35+SUM(D27:D32)</f>
-        <v>4892950.1105717327</v>
+        <v>410315.92181859654</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -3182,7 +3182,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="32">
         <f ca="1">(I35+$D$33)/-$D$33</f>
-        <v>1.3360033064777894</v>
+        <v>0.98609922740174916</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -3190,7 +3190,7 @@
       <c r="M38" s="51"/>
       <c r="N38" s="32">
         <f ca="1">(N35+$D$33)/-$D$33</f>
-        <v>2.2444725277851987</v>
+        <v>1.882183127608241</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -3278,47 +3278,47 @@
       </c>
       <c r="D42" s="43">
         <f>-D2</f>
-        <v>-2000000</v>
+        <v>-200000</v>
       </c>
       <c r="E42" s="43">
         <f>-$D$42*E9</f>
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="F42" s="43">
         <f>(-$D$42+E42)*E9</f>
-        <v>61800</v>
+        <v>6180</v>
       </c>
       <c r="G42" s="43">
         <f>(-$D$42+SUM($E$42:F42))*3.5%</f>
-        <v>74263</v>
+        <v>7426.3000000000011</v>
       </c>
       <c r="H42" s="43">
         <f>(-$D$42+SUM($E$42:G42))*3.5%</f>
-        <v>76862.205000000002</v>
+        <v>7686.2205000000004</v>
       </c>
       <c r="I42" s="44">
         <f>(-$D$42+SUM($E$42:H42))*3.5%</f>
-        <v>79552.382175000006</v>
+        <v>7955.2382175000012</v>
       </c>
       <c r="J42" s="43">
         <f>(-$D$42+SUM($E$42:I42))*3.5%</f>
-        <v>82336.715551125002</v>
+        <v>8233.6715551124998</v>
       </c>
       <c r="K42" s="43">
         <f>(-$D$42+SUM($E$42:J42))*3.5%</f>
-        <v>85218.500595414385</v>
+        <v>8521.8500595414371</v>
       </c>
       <c r="L42" s="43">
         <f>(-$D$42+SUM($E$42:K42))*3.5%</f>
-        <v>88201.148116253884</v>
+        <v>8820.1148116253898</v>
       </c>
       <c r="M42" s="43">
         <f>(-$D$42+SUM($E$42:L42))*3.5%</f>
-        <v>91288.18830032277</v>
+        <v>9128.8188300322781</v>
       </c>
       <c r="N42" s="44">
         <f>(-$D$42+SUM($E$42:M42))*3.5%</f>
-        <v>94483.274890834073</v>
+        <v>9448.3274890834073</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3330,43 +3330,43 @@
       <c r="D43" s="39"/>
       <c r="E43" s="39">
         <f>-D42+E42</f>
-        <v>2060000</v>
+        <v>206000</v>
       </c>
       <c r="F43" s="39">
         <f t="shared" ref="F43:N43" si="12">E43+F42</f>
-        <v>2121800</v>
+        <v>212180</v>
       </c>
       <c r="G43" s="39">
         <f t="shared" si="12"/>
-        <v>2196063</v>
+        <v>219606.3</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="12"/>
-        <v>2272925.2050000001</v>
+        <v>227292.52049999998</v>
       </c>
       <c r="I43" s="40">
         <f t="shared" si="12"/>
-        <v>2352477.587175</v>
+        <v>235247.75871749999</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="12"/>
-        <v>2434814.3027261249</v>
+        <v>243481.43027261249</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="12"/>
-        <v>2520032.8033215394</v>
+        <v>252003.28033215392</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="12"/>
-        <v>2608233.9514377932</v>
+        <v>260823.39514377931</v>
       </c>
       <c r="M43" s="39">
         <f t="shared" si="12"/>
-        <v>2699522.1397381159</v>
+        <v>269952.21397381159</v>
       </c>
       <c r="N43" s="40">
         <f t="shared" si="12"/>
-        <v>2794005.4146289499</v>
+        <v>279400.54146289499</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
@@ -3389,15 +3389,15 @@
       </c>
       <c r="G44" s="57">
         <f t="shared" si="13"/>
-        <v>9.8031499999999994E-2</v>
+        <v>9.8031499999999938E-2</v>
       </c>
       <c r="H44" s="57">
         <f t="shared" si="13"/>
-        <v>0.13646260250000003</v>
+        <v>0.13646260249999992</v>
       </c>
       <c r="I44" s="58">
         <f t="shared" si="13"/>
-        <v>0.1762387935875</v>
+        <v>0.17623879358749997</v>
       </c>
       <c r="J44" s="57">
         <f t="shared" si="13"/>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="K44" s="57">
         <f t="shared" si="13"/>
-        <v>0.26001640166076972</v>
+        <v>0.26001640166076961</v>
       </c>
       <c r="L44" s="57">
         <f t="shared" si="13"/>
-        <v>0.30411697571889662</v>
+        <v>0.30411697571889656</v>
       </c>
       <c r="M44" s="57">
         <f t="shared" si="13"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D49" s="39">
         <f>D27</f>
-        <v>-2000000</v>
+        <v>-200000</v>
       </c>
       <c r="E49" s="39">
         <v>0</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D50" s="39">
         <f>D28</f>
-        <v>-180000</v>
+        <v>-18000</v>
       </c>
       <c r="E50" s="39">
         <f>-K2</f>
@@ -3633,43 +3633,43 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39">
         <f>-D49*D7</f>
-        <v>146000</v>
+        <v>14599.999999999998</v>
       </c>
       <c r="F52" s="39">
         <f>(-$D$49+SUM($E$52:E52))*$D$7</f>
-        <v>156658</v>
+        <v>15665.8</v>
       </c>
       <c r="G52" s="39">
         <f>(-$D$49+SUM($E$52:F52))*$D$7</f>
-        <v>168094.03399999999</v>
+        <v>16809.403399999999</v>
       </c>
       <c r="H52" s="39">
         <f>(-$D$49+SUM($E$52:G52))*$D$7</f>
-        <v>180364.89848199999</v>
+        <v>18036.489848199999</v>
       </c>
       <c r="I52" s="40">
         <f>(-$D$49+SUM($E$52:H52))*$D$7</f>
-        <v>193531.53607118598</v>
+        <v>19353.153607118598</v>
       </c>
       <c r="J52" s="39">
         <f>(-$D$49+SUM($E$52:I52))*$D$7</f>
-        <v>207659.33820438257</v>
+        <v>20765.933820438255</v>
       </c>
       <c r="K52" s="39">
         <f>(-$D$49+SUM($E$52:J52))*$D$7</f>
-        <v>222818.46989330248</v>
+        <v>22281.84698933025</v>
       </c>
       <c r="L52" s="39">
         <f>(-$D$49+SUM($E$52:K52))*$D$7</f>
-        <v>239084.21819551359</v>
+        <v>23908.421819551357</v>
       </c>
       <c r="M52" s="39">
         <f>(-$D$49+SUM($E$52:L52))*$D$7</f>
-        <v>256537.36612378605</v>
+        <v>25653.736612378609</v>
       </c>
       <c r="N52" s="40">
         <f>(-$D$49+SUM($E$52:M52))*$D$7</f>
-        <v>275264.59385082242</v>
+        <v>27526.459385082249</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3681,43 +3681,43 @@
       <c r="D53" s="39"/>
       <c r="E53" s="39">
         <f>-D49*K4</f>
-        <v>97777.777777777766</v>
+        <v>9777.7777777777774</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" ref="F53:N53" si="15">E53*(1+$D$8)</f>
-        <v>103546.66666666664</v>
+        <v>10354.666666666666</v>
       </c>
       <c r="G53" s="39">
         <f t="shared" si="15"/>
-        <v>109655.91999999997</v>
+        <v>10965.591999999999</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="15"/>
-        <v>116125.61927999996</v>
+        <v>11612.561927999997</v>
       </c>
       <c r="I53" s="40">
         <f t="shared" si="15"/>
-        <v>122977.03081751995</v>
+        <v>12297.703081751997</v>
       </c>
       <c r="J53" s="39">
         <f t="shared" si="15"/>
-        <v>130232.67563575362</v>
+        <v>13023.267563575364</v>
       </c>
       <c r="K53" s="39">
         <f t="shared" si="15"/>
-        <v>137916.40349826307</v>
+        <v>13791.64034982631</v>
       </c>
       <c r="L53" s="39">
         <f t="shared" si="15"/>
-        <v>146053.47130466058</v>
+        <v>14605.347130466062</v>
       </c>
       <c r="M53" s="39">
         <f t="shared" si="15"/>
-        <v>154670.62611163553</v>
+        <v>15467.062611163557</v>
       </c>
       <c r="N53" s="40">
         <f t="shared" si="15"/>
-        <v>163796.19305222202</v>
+        <v>16379.619305222206</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3766,47 +3766,47 @@
       </c>
       <c r="D55" s="43">
         <f t="shared" ref="D55:N55" si="16">SUM(D49:D54)</f>
-        <v>-2180000</v>
+        <v>-218000</v>
       </c>
       <c r="E55" s="43">
         <f t="shared" si="16"/>
-        <v>243177.77777777775</v>
+        <v>23777.777777777774</v>
       </c>
       <c r="F55" s="43">
         <f t="shared" si="16"/>
-        <v>259604.66666666663</v>
+        <v>25420.466666666667</v>
       </c>
       <c r="G55" s="43">
         <f t="shared" si="16"/>
-        <v>277149.95399999997</v>
+        <v>27174.9954</v>
       </c>
       <c r="H55" s="43">
         <f t="shared" si="16"/>
-        <v>295890.51776199997</v>
+        <v>29049.051776199994</v>
       </c>
       <c r="I55" s="44">
         <f t="shared" si="16"/>
-        <v>315908.56688870594</v>
+        <v>31050.856688870597</v>
       </c>
       <c r="J55" s="43">
         <f t="shared" si="16"/>
-        <v>337292.01384013618</v>
+        <v>33189.201384013621</v>
       </c>
       <c r="K55" s="43">
         <f t="shared" si="16"/>
-        <v>360134.87339156552</v>
+        <v>35473.487339156563</v>
       </c>
       <c r="L55" s="43">
         <f t="shared" si="16"/>
-        <v>384537.68950017414</v>
+        <v>37913.768950017417</v>
       </c>
       <c r="M55" s="43">
         <f t="shared" si="16"/>
-        <v>410607.99223542155</v>
+        <v>40520.79922354217</v>
       </c>
       <c r="N55" s="44">
         <f t="shared" si="16"/>
-        <v>438460.78690304444</v>
+        <v>43306.078690304457</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,43 +3818,43 @@
       <c r="D56" s="39"/>
       <c r="E56" s="45">
         <f t="shared" ref="E56:N56" si="17">SUM(E50:E51,E53:E54)/12</f>
-        <v>8098.1481481481469</v>
+        <v>764.81481481481478</v>
       </c>
       <c r="F56" s="45">
         <f t="shared" si="17"/>
-        <v>8578.8888888888869</v>
+        <v>812.8888888888888</v>
       </c>
       <c r="G56" s="45">
         <f t="shared" si="17"/>
-        <v>9087.9933333333302</v>
+        <v>863.79933333333327</v>
       </c>
       <c r="H56" s="45">
         <f t="shared" si="17"/>
-        <v>9627.1349399999963</v>
+        <v>917.71349399999974</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" si="17"/>
-        <v>10198.085901459996</v>
+        <v>974.8085901459998</v>
       </c>
       <c r="J56" s="45">
         <f t="shared" si="17"/>
-        <v>10802.722969646135</v>
+        <v>1035.2722969646136</v>
       </c>
       <c r="K56" s="45">
         <f t="shared" si="17"/>
-        <v>11443.033624855256</v>
+        <v>1099.3033624855259</v>
       </c>
       <c r="L56" s="45">
         <f t="shared" si="17"/>
-        <v>12121.122608721715</v>
+        <v>1167.1122608721719</v>
       </c>
       <c r="M56" s="45">
         <f t="shared" si="17"/>
-        <v>12839.218842636294</v>
+        <v>1238.9218842636299</v>
       </c>
       <c r="N56" s="46">
         <f t="shared" si="17"/>
-        <v>13599.682754351836</v>
+        <v>1314.9682754351838</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3866,43 +3866,43 @@
       <c r="D57" s="39"/>
       <c r="E57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:E55)</f>
-        <v>2243177.777777778</v>
+        <v>223777.77777777778</v>
       </c>
       <c r="F57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:F55)</f>
-        <v>2502782.4444444445</v>
+        <v>249198.24444444443</v>
       </c>
       <c r="G57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:G55)</f>
-        <v>2779932.3984444444</v>
+        <v>276373.23984444444</v>
       </c>
       <c r="H57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:H55)</f>
-        <v>3075822.9162064446</v>
+        <v>305422.29162064445</v>
       </c>
       <c r="I57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:I55)</f>
-        <v>3391731.4830951504</v>
+        <v>336473.14830951503</v>
       </c>
       <c r="J57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:J55)</f>
-        <v>3729023.4969352866</v>
+        <v>369662.34969352867</v>
       </c>
       <c r="K57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:K55)</f>
-        <v>4089158.370326852</v>
+        <v>405135.83703268523</v>
       </c>
       <c r="L57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:L55)</f>
-        <v>4473696.059827026</v>
+        <v>443049.60598270263</v>
       </c>
       <c r="M57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:M55)</f>
-        <v>4884304.0520624481</v>
+        <v>483570.40520624479</v>
       </c>
       <c r="N57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:N55)</f>
-        <v>5322764.8389654923</v>
+        <v>526876.48389654933</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
@@ -3917,43 +3917,43 @@
       <c r="D58" s="39"/>
       <c r="E58" s="55">
         <f>-$D$49+SUM($E$52:E52)</f>
-        <v>2146000</v>
+        <v>214600</v>
       </c>
       <c r="F58" s="55">
         <f>-$D$49+SUM($E$52:F52)</f>
-        <v>2302658</v>
+        <v>230265.8</v>
       </c>
       <c r="G58" s="55">
         <f>-$D$49+SUM($E$52:G52)</f>
-        <v>2470752.034</v>
+        <v>247075.2034</v>
       </c>
       <c r="H58" s="55">
         <f>-$D$49+SUM($E$52:H52)</f>
-        <v>2651116.932482</v>
+        <v>265111.6932482</v>
       </c>
       <c r="I58" s="56">
         <f>-$D$49+SUM($E$52:I52)</f>
-        <v>2844648.4685531859</v>
+        <v>284464.84685531858</v>
       </c>
       <c r="J58" s="48">
         <f>-$D$49+SUM($E$52:J52)</f>
-        <v>3052307.8067575684</v>
+        <v>305230.78067575686</v>
       </c>
       <c r="K58" s="48">
         <f>-$D$49+SUM($E$52:K52)</f>
-        <v>3275126.2766508712</v>
+        <v>327512.62766508712</v>
       </c>
       <c r="L58" s="48">
         <f>-$D$49+SUM($E$52:L52)</f>
-        <v>3514210.4948463845</v>
+        <v>351421.0494846385</v>
       </c>
       <c r="M58" s="48">
         <f>-$D$49+SUM($E$52:M52)</f>
-        <v>3770747.8609701702</v>
+        <v>377074.78609701712</v>
       </c>
       <c r="N58" s="56">
         <f>-D49+SUM(E52:N52)</f>
-        <v>4046012.4548209929</v>
+        <v>404601.24548209936</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -3972,7 +3972,7 @@
       <c r="H59" s="43"/>
       <c r="I59" s="44">
         <f>I57+SUM(D49:D54)</f>
-        <v>1211731.4830951504</v>
+        <v>118473.14830951503</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="43"/>
@@ -3980,7 +3980,7 @@
       <c r="M59" s="43"/>
       <c r="N59" s="44">
         <f>N57+SUM(D49:D54)</f>
-        <v>3142764.8389654923</v>
+        <v>308876.48389654933</v>
       </c>
       <c r="P59" t="s">
         <v>49</v>
@@ -3999,7 +3999,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="32">
         <f>(I57+$D$18)/-$D$18</f>
-        <v>0.55584012986016074</v>
+        <v>0.54345480875924324</v>
       </c>
       <c r="J60" s="51"/>
       <c r="K60" s="51"/>
@@ -4007,7 +4007,7 @@
       <c r="M60" s="51"/>
       <c r="N60" s="32">
         <f>(N57+$D$18)/-$D$18</f>
-        <v>1.4416352472318772</v>
+        <v>1.4168646050300429</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D64" s="39">
         <f>D12</f>
-        <v>-2000000</v>
+        <v>-200000</v>
       </c>
       <c r="E64" s="39">
         <v>0</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D65" s="39">
         <f>D13</f>
-        <v>-180000</v>
+        <v>-18000</v>
       </c>
       <c r="E65" s="39">
         <f>-L2</f>
@@ -4196,43 +4196,43 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39">
         <f>-D64*E7</f>
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F67" s="39">
         <f>(-$D$64+SUM($E$67:E67))*$E$7</f>
-        <v>105000</v>
+        <v>10500</v>
       </c>
       <c r="G67" s="39">
         <f>(-$D$64+SUM($E$67:F67))*$E$7</f>
-        <v>110250</v>
+        <v>11025</v>
       </c>
       <c r="H67" s="39">
         <f>(-$D$64+SUM($E$67:G67))*$E$7</f>
-        <v>115762.5</v>
+        <v>11576.25</v>
       </c>
       <c r="I67" s="40">
         <f>(-$D$64+SUM($E$67:H67))*$E$7</f>
-        <v>121550.625</v>
+        <v>12155.0625</v>
       </c>
       <c r="J67" s="39">
         <f>(-$D$64+SUM($E$67:I67))*$E$7</f>
-        <v>127628.15625</v>
+        <v>12762.815625000001</v>
       </c>
       <c r="K67" s="39">
         <f>(-$D$64+SUM($E$67:J67))*$E$7</f>
-        <v>134009.56406249999</v>
+        <v>13400.956406249999</v>
       </c>
       <c r="L67" s="39">
         <f>(-$D$64+SUM($E$67:K67))*$E$7</f>
-        <v>140710.042265625</v>
+        <v>14071.004226562502</v>
       </c>
       <c r="M67" s="39">
         <f>(-$D$64+SUM($E$67:L67))*$E$7</f>
-        <v>147745.54437890626</v>
+        <v>14774.554437890627</v>
       </c>
       <c r="N67" s="40">
         <f>(-$D$64+SUM($E$67:M67))*$E$7</f>
-        <v>155132.82159785155</v>
+        <v>15513.282159785158</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4244,43 +4244,43 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39">
         <f>-D64*L4</f>
-        <v>62222.222222222219</v>
+        <v>6222.2222222222217</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" ref="F68:N68" si="19">E68*(1+$D$8)</f>
-        <v>65893.333333333328</v>
+        <v>6589.3333333333321</v>
       </c>
       <c r="G68" s="39">
         <f t="shared" si="19"/>
-        <v>69781.039999999994</v>
+        <v>6978.1039999999985</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="19"/>
-        <v>73898.12135999999</v>
+        <v>7389.8121359999977</v>
       </c>
       <c r="I68" s="40">
         <f t="shared" si="19"/>
-        <v>78258.110520239992</v>
+        <v>7825.811052023997</v>
       </c>
       <c r="J68" s="39">
         <f t="shared" si="19"/>
-        <v>82875.339040934152</v>
+        <v>8287.5339040934123</v>
       </c>
       <c r="K68" s="39">
         <f t="shared" si="19"/>
-        <v>87764.984044349258</v>
+        <v>8776.4984044349239</v>
       </c>
       <c r="L68" s="39">
         <f t="shared" si="19"/>
-        <v>92943.118102965862</v>
+        <v>9294.3118102965836</v>
       </c>
       <c r="M68" s="39">
         <f t="shared" si="19"/>
-        <v>98426.762071040837</v>
+        <v>9842.6762071040812</v>
       </c>
       <c r="N68" s="40">
         <f t="shared" si="19"/>
-        <v>104233.94103323224</v>
+        <v>10423.394103323222</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4329,47 +4329,47 @@
       </c>
       <c r="D70" s="43">
         <f t="shared" ref="D70:N70" si="20">SUM(D64:D69)</f>
-        <v>-2180000</v>
+        <v>-218000</v>
       </c>
       <c r="E70" s="43">
         <f t="shared" si="20"/>
-        <v>161622.22222222222</v>
+        <v>15622.222222222223</v>
       </c>
       <c r="F70" s="43">
         <f t="shared" si="20"/>
-        <v>170293.33333333331</v>
+        <v>16489.333333333332</v>
       </c>
       <c r="G70" s="43">
         <f t="shared" si="20"/>
-        <v>179431.03999999998</v>
+        <v>17403.103999999999</v>
       </c>
       <c r="H70" s="43">
         <f t="shared" si="20"/>
-        <v>189060.62135999999</v>
+        <v>18366.062135999997</v>
       </c>
       <c r="I70" s="44">
         <f t="shared" si="20"/>
-        <v>199208.73552023998</v>
+        <v>19380.873552023997</v>
       </c>
       <c r="J70" s="43">
         <f t="shared" si="20"/>
-        <v>209903.49529093417</v>
+        <v>20450.349529093415</v>
       </c>
       <c r="K70" s="43">
         <f t="shared" si="20"/>
-        <v>221174.54810684925</v>
+        <v>21577.454810684925</v>
       </c>
       <c r="L70" s="43">
         <f t="shared" si="20"/>
-        <v>233053.16036859085</v>
+        <v>22765.316036859083</v>
       </c>
       <c r="M70" s="43">
         <f t="shared" si="20"/>
-        <v>245572.30644994709</v>
+        <v>24017.230644994706</v>
       </c>
       <c r="N70" s="44">
         <f t="shared" si="20"/>
-        <v>258766.76263108378</v>
+        <v>25336.67626310838</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4381,43 +4381,43 @@
       <c r="D71" s="39"/>
       <c r="E71" s="45">
         <f t="shared" ref="E71:N71" si="21">SUM(E65:E66,E68:E69)/12</f>
-        <v>5135.1851851851852</v>
+        <v>468.51851851851848</v>
       </c>
       <c r="F71" s="45">
         <f t="shared" si="21"/>
-        <v>5441.1111111111104</v>
+        <v>499.11111111111103</v>
       </c>
       <c r="G71" s="45">
         <f t="shared" si="21"/>
-        <v>5765.0866666666661</v>
+        <v>531.5086666666665</v>
       </c>
       <c r="H71" s="45">
         <f t="shared" si="21"/>
-        <v>6108.1767799999989</v>
+        <v>565.81767799999977</v>
       </c>
       <c r="I71" s="46">
         <f t="shared" si="21"/>
-        <v>6471.509210019999</v>
+        <v>602.15092100199979</v>
       </c>
       <c r="J71" s="45">
         <f t="shared" si="21"/>
-        <v>6856.2782534111793</v>
+        <v>640.62782534111773</v>
       </c>
       <c r="K71" s="45">
         <f t="shared" si="21"/>
-        <v>7263.7486703624381</v>
+        <v>681.3748670362437</v>
       </c>
       <c r="L71" s="45">
         <f t="shared" si="21"/>
-        <v>7695.2598419138221</v>
+        <v>724.52598419138201</v>
       </c>
       <c r="M71" s="45">
         <f t="shared" si="21"/>
-        <v>8152.2301725867364</v>
+        <v>770.22301725867339</v>
       </c>
       <c r="N71" s="46">
         <f t="shared" si="21"/>
-        <v>8636.1617527693543</v>
+        <v>818.61617527693522</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4429,43 +4429,43 @@
       <c r="D72" s="39"/>
       <c r="E72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:E70)</f>
-        <v>2161622.222222222</v>
+        <v>215622.22222222222</v>
       </c>
       <c r="F72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:F70)</f>
-        <v>2331915.5555555555</v>
+        <v>232111.55555555556</v>
       </c>
       <c r="G72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:G70)</f>
-        <v>2511346.5955555555</v>
+        <v>249514.65955555555</v>
       </c>
       <c r="H72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:H70)</f>
-        <v>2700407.2169155553</v>
+        <v>267880.72169155558</v>
       </c>
       <c r="I72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:I70)</f>
-        <v>2899615.9524357952</v>
+        <v>287261.59524357953</v>
       </c>
       <c r="J72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:J70)</f>
-        <v>3109519.4477267293</v>
+        <v>307711.94477267296</v>
       </c>
       <c r="K72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:K70)</f>
-        <v>3330693.9958335785</v>
+        <v>329289.39958335785</v>
       </c>
       <c r="L72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:L70)</f>
-        <v>3563747.1562021696</v>
+        <v>352054.71562021697</v>
       </c>
       <c r="M72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:M70)</f>
-        <v>3809319.462652117</v>
+        <v>376071.94626521168</v>
       </c>
       <c r="N72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:N70)</f>
-        <v>4068086.2252832009</v>
+        <v>401408.62252832006</v>
       </c>
       <c r="P72" t="s">
         <v>47</v>
@@ -4480,43 +4480,43 @@
       <c r="D73" s="39"/>
       <c r="E73" s="55">
         <f>-$D$64+SUM($E$67:E67)</f>
-        <v>2100000</v>
+        <v>210000</v>
       </c>
       <c r="F73" s="55">
         <f>-$D$64+SUM($E$67:F67)</f>
-        <v>2205000</v>
+        <v>220500</v>
       </c>
       <c r="G73" s="55">
         <f>-$D$64+SUM($E$67:G67)</f>
-        <v>2315250</v>
+        <v>231525</v>
       </c>
       <c r="H73" s="55">
         <f>-$D$64+SUM($E$67:H67)</f>
-        <v>2431012.5</v>
+        <v>243101.25</v>
       </c>
       <c r="I73" s="56">
         <f>-$D$64+SUM($E$67:I67)</f>
-        <v>2552563.125</v>
+        <v>255256.3125</v>
       </c>
       <c r="J73" s="48">
         <f>-$D$64+SUM($E$67:J67)</f>
-        <v>2680191.28125</v>
+        <v>268019.12812499999</v>
       </c>
       <c r="K73" s="48">
         <f>-$D$64+SUM($E$67:K67)</f>
-        <v>2814200.8453124999</v>
+        <v>281420.08453125</v>
       </c>
       <c r="L73" s="48">
         <f>-$D$64+SUM($E$67:L67)</f>
-        <v>2954910.8875781251</v>
+        <v>295491.08875781251</v>
       </c>
       <c r="M73" s="48">
         <f>-$D$64+SUM($E$67:M67)</f>
-        <v>3102656.4319570311</v>
+        <v>310265.64319570316</v>
       </c>
       <c r="N73" s="56">
         <f>-D64+SUM(E67:N67)</f>
-        <v>3257789.2535548825</v>
+        <v>325778.92535548832</v>
       </c>
       <c r="P73" t="s">
         <v>48</v>
@@ -4535,7 +4535,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44">
         <f>I72+SUM(D64:D69)</f>
-        <v>719615.95243579522</v>
+        <v>69261.595243579533</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -4543,7 +4543,7 @@
       <c r="M74" s="43"/>
       <c r="N74" s="44">
         <f>N72+SUM(D64:D69)</f>
-        <v>1888086.2252832009</v>
+        <v>183408.62252832006</v>
       </c>
       <c r="P74" t="s">
         <v>49</v>
@@ -4562,7 +4562,7 @@
       <c r="H75" s="51"/>
       <c r="I75" s="32">
         <f>(I72+$D$18)/-$D$18</f>
-        <v>0.33009906075036477</v>
+        <v>0.31771373964944738</v>
       </c>
       <c r="J75" s="51"/>
       <c r="K75" s="51"/>
@@ -4570,7 +4570,7 @@
       <c r="M75" s="51"/>
       <c r="N75" s="32">
         <f>(N72+$D$18)/-$D$18</f>
-        <v>0.86609459875376182</v>
+        <v>0.84132395655192693</v>
       </c>
       <c r="P75" t="s">
         <v>49</v>
@@ -4784,8 +4784,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="38" width="9" style="12" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="12"/>
+    <col min="10" max="43" width="9" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="14">
-        <f>SmartInvest!$D$5</f>
+        <f>Sheet1!$D$5</f>
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="E5" s="12"/>
@@ -15830,8 +15830,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="38" width="9" style="12" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="12"/>
+    <col min="10" max="43" width="9" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="14">
-        <f>SmartInvest!E5</f>
+        <f>Sheet1!E5</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E5" s="12"/>

--- a/media/yield.xlsx
+++ b/media/yield.xlsx
@@ -842,11 +842,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1776,8 +1776,8 @@
   <dimension ref="A1:AB82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,11 +1822,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="21">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="24">
         <f>D2</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>3</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="D3" s="24">
         <f>D2*80%</f>
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="E3" s="24">
         <f>D3</f>
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L3" s="24">
         <f>D3*0.3%</f>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>9</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="D4" s="24">
         <f>D2+D3</f>
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="E4" s="24">
         <f>D4</f>
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -1938,11 +1938,11 @@
         <v>16</v>
       </c>
       <c r="D6" s="23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="22">
         <f>D6</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>17</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D12" s="39">
         <f>-D2</f>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="E12" s="39">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="D13" s="39">
         <f>-(D2+D3)*5%</f>
-        <v>-18000</v>
+        <v>-9000</v>
       </c>
       <c r="E13" s="39">
         <f>-$K$2</f>
@@ -2190,43 +2190,43 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39">
         <f>(D4)*D7</f>
-        <v>26280</v>
+        <v>13140</v>
       </c>
       <c r="F15" s="39">
         <f>(D4+SUM($E$15:E15))*$D$7</f>
-        <v>28198.44</v>
+        <v>14099.22</v>
       </c>
       <c r="G15" s="39">
         <f>(D4+SUM($E$15:F15))*$D$7</f>
-        <v>30256.92612</v>
+        <v>15128.46306</v>
       </c>
       <c r="H15" s="39">
         <f>(D4+SUM($E$15:G15))*$D$7</f>
-        <v>32465.681726759998</v>
+        <v>16232.840863379999</v>
       </c>
       <c r="I15" s="40">
         <f>(D4+SUM($E$15:H15))*$D$7</f>
-        <v>34835.67649281348</v>
+        <v>17417.83824640674</v>
       </c>
       <c r="J15" s="39">
         <f>(D4+SUM($E$15:I15))*$D$7</f>
-        <v>37378.680876788858</v>
+        <v>18689.340438394429</v>
       </c>
       <c r="K15" s="39">
         <f>(D4+SUM($E$15:J15))*$D$7</f>
-        <v>40107.324580794448</v>
+        <v>20053.662290397224</v>
       </c>
       <c r="L15" s="39">
         <f>(D4+SUM($E$15:K15))*$D$7</f>
-        <v>43035.15927519244</v>
+        <v>21517.57963759622</v>
       </c>
       <c r="M15" s="39">
         <f>(D4+SUM($E$15:L15))*$D$7</f>
-        <v>46176.725902281491</v>
+        <v>23088.362951140745</v>
       </c>
       <c r="N15" s="40">
         <f>(D4+SUM($E$15:M15))*$D$7</f>
-        <v>49547.626893148037</v>
+        <v>24773.813446574019</v>
       </c>
       <c r="O15" s="42"/>
     </row>
@@ -2239,43 +2239,43 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39">
         <f>D4*K4</f>
-        <v>17600</v>
+        <v>8800</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ref="F16:N16" si="2">ROUND(E16*(1+$D$8),0)</f>
-        <v>18638</v>
+        <v>9319</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>19738</v>
+        <v>9869</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>20903</v>
+        <v>10451</v>
       </c>
       <c r="I16" s="40">
         <f t="shared" si="2"/>
-        <v>22136</v>
+        <v>11068</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>23442</v>
+        <v>11721</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>24825</v>
+        <v>12413</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>26290</v>
+        <v>13145</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="2"/>
-        <v>27841</v>
+        <v>13921</v>
       </c>
       <c r="N16" s="40">
         <f t="shared" si="2"/>
-        <v>29484</v>
+        <v>14742</v>
       </c>
       <c r="O16" s="41"/>
     </row>
@@ -2336,47 +2336,47 @@
       </c>
       <c r="D18" s="43">
         <f t="shared" ref="D18:N18" si="4">SUM(D12:D17)</f>
-        <v>-218000</v>
+        <v>-109000</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>34770.472976603996</v>
+        <v>12830.472976604</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>37726.912976603999</v>
+        <v>14308.692976604001</v>
       </c>
       <c r="G18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>40885.399096604</v>
+        <v>15887.936036604002</v>
       </c>
       <c r="H18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>44259.154703363994</v>
+        <v>17574.313839983999</v>
       </c>
       <c r="I18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>47862.149469417476</v>
+        <v>19376.31122301074</v>
       </c>
       <c r="J18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>51711.153853392854</v>
+        <v>21300.813414998429</v>
       </c>
       <c r="K18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>55822.797557398444</v>
+        <v>23357.135267001224</v>
       </c>
       <c r="L18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>60215.632251796444</v>
+        <v>25553.052614200224</v>
       </c>
       <c r="M18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>64908.198878885494</v>
+        <v>27899.835927744749</v>
       </c>
       <c r="N18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>69922.099869752026</v>
+        <v>30406.286423178015</v>
       </c>
       <c r="O18" s="41"/>
     </row>
@@ -2389,43 +2389,43 @@
       <c r="D19" s="43"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:N19" ca="1" si="5">SUM(E13:E14,E16:E17)/12</f>
-        <v>707.539414717</v>
+        <v>-25.793918616333332</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>794.039414717</v>
+        <v>17.456081383666668</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>885.70608138366663</v>
+        <v>63.289414717</v>
       </c>
       <c r="H19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>982.789414717</v>
+        <v>111.789414717</v>
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>1085.539414717</v>
+        <v>163.20608138366666</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>1194.3727480503333</v>
+        <v>217.62274805033334</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>1309.6227480503333</v>
+        <v>275.289414717</v>
       </c>
       <c r="L19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>1431.7060813836667</v>
+        <v>336.289414717</v>
       </c>
       <c r="M19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>1560.9560813836667</v>
+        <v>400.95608138366669</v>
       </c>
       <c r="N19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>1697.8727480503333</v>
+        <v>469.37274805033331</v>
       </c>
       <c r="O19" s="41"/>
     </row>
@@ -2438,43 +2438,43 @@
       <c r="D20" s="39"/>
       <c r="E20" s="43">
         <f ca="1">D4+SUM(F17:$O$17)+SUM($E$18:E18)</f>
-        <v>319264.72976603999</v>
+        <v>117324.72976603998</v>
       </c>
       <c r="F20" s="47">
         <f ca="1">D4+SUM(G17:$O$17)+SUM($E$18:F18)</f>
-        <v>365381.16976603994</v>
+        <v>140022.94976603999</v>
       </c>
       <c r="G20" s="43">
         <f ca="1">D4+SUM(H17:$O$17)+SUM($E$18:G18)</f>
-        <v>414656.09588603996</v>
+        <v>164300.41282604</v>
       </c>
       <c r="H20" s="43">
         <f ca="1">D4+SUM(I17:$O$17)+SUM($E$18:H18)</f>
-        <v>467304.77761280001</v>
+        <v>190264.25368942</v>
       </c>
       <c r="I20" s="44">
         <f ca="1">D4+SUM(J17:$O$17)+SUM($E$18:I18)</f>
-        <v>523556.45410561346</v>
+        <v>218030.09193582673</v>
       </c>
       <c r="J20" s="43">
         <f ca="1">D4+SUM(K17:$O$17)+SUM($E$18:J18)</f>
-        <v>583657.13498240232</v>
+        <v>247720.43237422116</v>
       </c>
       <c r="K20" s="43">
         <f ca="1">D4+SUM(L17:$O$17)+SUM($E$18:K18)</f>
-        <v>647869.45956319675</v>
+        <v>279467.09466461837</v>
       </c>
       <c r="L20" s="43">
         <f ca="1">D4+SUM(M17:$O$17)+SUM($E$18:L18)</f>
-        <v>716474.61883838917</v>
+        <v>313409.67430221464</v>
       </c>
       <c r="M20" s="43">
         <f ca="1">D4+SUM(N17:$O$17)+SUM($E$18:M18)</f>
-        <v>789772.34474067064</v>
+        <v>349699.03725335537</v>
       </c>
       <c r="N20" s="44">
         <f ca="1">D4+SUM(O17:$O$17)+SUM($E$18:N18)</f>
-        <v>868083.9716338187</v>
+        <v>388494.8506999294</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" t="s">
@@ -2490,43 +2490,43 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48">
         <f>$D$4+SUM($E$15:E15)</f>
-        <v>386280</v>
+        <v>193140</v>
       </c>
       <c r="F21" s="49">
         <f>$D$4+SUM($E$15:F15)</f>
-        <v>414478.44</v>
+        <v>207239.22</v>
       </c>
       <c r="G21" s="48">
         <f>$D$4+SUM($E$15:G15)</f>
-        <v>444735.36612000002</v>
+        <v>222367.68306000001</v>
       </c>
       <c r="H21" s="48">
         <f>$D$4+SUM($E$15:H15)</f>
-        <v>477201.04784676002</v>
+        <v>238600.52392338001</v>
       </c>
       <c r="I21" s="50">
         <f>$D$4+SUM($E$15:I15)</f>
-        <v>512036.72433957347</v>
+        <v>256018.36216978673</v>
       </c>
       <c r="J21" s="48">
         <f>$D$4+SUM($E$15:J15)</f>
-        <v>549415.40521636233</v>
+        <v>274707.70260818116</v>
       </c>
       <c r="K21" s="48">
         <f>$D$4+SUM($E$15:K15)</f>
-        <v>589522.72979715676</v>
+        <v>294761.36489857838</v>
       </c>
       <c r="L21" s="48">
         <f>$D$4+SUM($E$15:L15)</f>
-        <v>632557.88907234918</v>
+        <v>316278.94453617459</v>
       </c>
       <c r="M21" s="48">
         <f>$D$4+SUM($E$15:M15)</f>
-        <v>678734.61497463065</v>
+        <v>339367.30748731532</v>
       </c>
       <c r="N21" s="50">
         <f>$D$4+SUM($E$15:N15)</f>
-        <v>728282.24186777871</v>
+        <v>364141.12093388935</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" t="s">
@@ -2546,7 +2546,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="44">
         <f ca="1">I20+SUM(D12:D17)</f>
-        <v>305556.45410561346</v>
+        <v>109030.09193582673</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -2554,7 +2554,7 @@
       <c r="M22" s="43"/>
       <c r="N22" s="44">
         <f ca="1">N20+SUM(D12:D17)</f>
-        <v>650083.9716338187</v>
+        <v>279494.8506999294</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="32">
         <f ca="1">(I20+$D$18)/-$D$18</f>
-        <v>1.4016351105762086</v>
+        <v>1.0002760728057498</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -2578,7 +2578,7 @@
       <c r="M23" s="51"/>
       <c r="N23" s="32">
         <f ca="1">(N20+$D$18)/-$D$18</f>
-        <v>2.9820365671276088</v>
+        <v>2.5641729422011874</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D27" s="39">
         <f>D12</f>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="E27" s="39">
         <f>E12</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D28" s="39">
         <f>D13</f>
-        <v>-18000</v>
+        <v>-9000</v>
       </c>
       <c r="E28" s="39">
         <f>-L2</f>
@@ -2757,43 +2757,43 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39">
         <f>-$L$3</f>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ref="F29:N29" si="7">E29</f>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="G29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="I29" s="40">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="K29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="M29" s="39">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
       <c r="N29" s="40">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,43 +2805,43 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39">
         <f>(D4+D30)*$E$7</f>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="F30" s="39">
         <f>(D4+SUM($D$30:E30))*$E$7</f>
-        <v>18900</v>
+        <v>9450</v>
       </c>
       <c r="G30" s="39">
         <f>(D4+SUM($D$30:F30))*$E$7</f>
-        <v>19845</v>
+        <v>9922.5</v>
       </c>
       <c r="H30" s="39">
         <f>(D4+SUM($D$30:G30))*$E$7</f>
-        <v>20837.25</v>
+        <v>10418.625</v>
       </c>
       <c r="I30" s="40">
         <f>(D4+SUM($D$30:H30))*$E$7</f>
-        <v>21879.112500000003</v>
+        <v>10939.556250000001</v>
       </c>
       <c r="J30" s="39">
         <f>(D4+SUM($D$30:I30))*$E$7</f>
-        <v>22973.068125000002</v>
+        <v>11486.534062500001</v>
       </c>
       <c r="K30" s="39">
         <f>(D4+SUM($D$30:J30))*$E$7</f>
-        <v>24121.721531250005</v>
+        <v>12060.860765625002</v>
       </c>
       <c r="L30" s="39">
         <f>(D4+SUM($D$30:K30))*$E$7</f>
-        <v>25327.807607812501</v>
+        <v>12663.903803906251</v>
       </c>
       <c r="M30" s="39">
         <f>(D4+SUM($D$30:L30))*$E$7</f>
-        <v>26594.19798820313</v>
+        <v>13297.098994101565</v>
       </c>
       <c r="N30" s="40">
         <f>(D4+SUM($D$30:M30))*$E$7</f>
-        <v>27923.907887613284</v>
+        <v>13961.953943806642</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2853,43 +2853,43 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39">
         <f>D4*L4</f>
-        <v>11200</v>
+        <v>5600</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ref="F31:N31" si="8">E31*(1+$E$8)</f>
-        <v>11648</v>
+        <v>5824</v>
       </c>
       <c r="G31" s="39">
         <f t="shared" si="8"/>
-        <v>12113.92</v>
+        <v>6056.96</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="8"/>
-        <v>12598.4768</v>
+        <v>6299.2384000000002</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="8"/>
-        <v>13102.415872000001</v>
+        <v>6551.2079360000007</v>
       </c>
       <c r="J31" s="39">
         <f t="shared" si="8"/>
-        <v>13626.512506880003</v>
+        <v>6813.2562534400013</v>
       </c>
       <c r="K31" s="39">
         <f t="shared" si="8"/>
-        <v>14171.573007155203</v>
+        <v>7085.7865035776013</v>
       </c>
       <c r="L31" s="39">
         <f t="shared" si="8"/>
-        <v>14738.435927441411</v>
+        <v>7369.2179637207055</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="8"/>
-        <v>15327.973364539068</v>
+        <v>7663.986682269534</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="8"/>
-        <v>15941.092299120632</v>
+        <v>7970.5461495603158</v>
       </c>
       <c r="O31" s="3"/>
     </row>
@@ -2949,47 +2949,47 @@
       </c>
       <c r="D33" s="43">
         <f>SUM(D27:D32)</f>
-        <v>-218000</v>
+        <v>-109000</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" ref="E33:N33" ca="1" si="10">$E$12+SUM(E27:E32)</f>
-        <v>19944.545640158129</v>
+        <v>5584.5456401581278</v>
       </c>
       <c r="F33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>21292.545640158129</v>
+        <v>6258.5456401581278</v>
       </c>
       <c r="G33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>22703.465640158127</v>
+        <v>6964.0056401581269</v>
       </c>
       <c r="H33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>24180.272440158129</v>
+        <v>7702.4090401581279</v>
       </c>
       <c r="I33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>25726.074012158129</v>
+        <v>8475.309826158129</v>
       </c>
       <c r="J33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>27344.126272038131</v>
+        <v>9284.3359560981298</v>
       </c>
       <c r="K33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>29037.840178563336</v>
+        <v>10131.192909360732</v>
       </c>
       <c r="L33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>30810.789175412039</v>
+        <v>11017.667407785084</v>
       </c>
       <c r="M33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>32666.716992900325</v>
+        <v>11945.631316529227</v>
       </c>
       <c r="N33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>34609.545826892041</v>
+        <v>12917.045733525087</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3001,43 +3001,43 @@
       <c r="D34" s="43"/>
       <c r="E34" s="45">
         <f t="shared" ref="E34:N34" ca="1" si="11">SUM(E28:E29,E31:E32)/12</f>
-        <v>162.04547001317732</v>
+        <v>-284.62119665348933</v>
       </c>
       <c r="F34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>199.37880334651064</v>
+        <v>-265.95452998682271</v>
       </c>
       <c r="G34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>238.20547001317732</v>
+        <v>-246.54119665348935</v>
       </c>
       <c r="H34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>278.5852033465107</v>
+        <v>-226.35132998682266</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>320.58012601317745</v>
+        <v>-205.35386865348929</v>
       </c>
       <c r="J34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>364.25484558651084</v>
+        <v>-183.51650886682259</v>
       </c>
       <c r="K34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>409.6765539427775</v>
+        <v>-160.80565468868926</v>
       </c>
       <c r="L34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>456.91513063329489</v>
+        <v>-137.18636634343056</v>
       </c>
       <c r="M34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>506.04325039143299</v>
+        <v>-112.62230646436153</v>
       </c>
       <c r="N34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>557.13649493989658</v>
+        <v>-87.075684190129707</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3049,43 +3049,43 @@
       <c r="D35" s="39"/>
       <c r="E35" s="43">
         <f ca="1">D4+SUM(F32:$O$32)+SUM($E$33:E33)</f>
-        <v>306365.45640158129</v>
+        <v>112005.45640158128</v>
       </c>
       <c r="F35" s="43">
         <f ca="1">D4+SUM(G32:$O$32)+SUM($E$33:F33)</f>
-        <v>335833.45640158124</v>
+        <v>126439.45640158126</v>
       </c>
       <c r="G35" s="47">
         <f ca="1">D4+SUM(H32:$O$32)+SUM($E$33:G33)</f>
-        <v>366712.37640158128</v>
+        <v>141578.91640158126</v>
       </c>
       <c r="H35" s="43">
         <f ca="1">D4+SUM(I32:$O$32)+SUM($E$33:H33)</f>
-        <v>399068.10320158128</v>
+        <v>157456.77980158129</v>
       </c>
       <c r="I35" s="44">
         <f ca="1">D4+SUM(J32:$O$32)+SUM($E$33:I33)</f>
-        <v>432969.63157358131</v>
+        <v>174107.54398758127</v>
       </c>
       <c r="J35" s="43">
         <f ca="1">D4+SUM(K32:$O$32)+SUM($E$33:J33)</f>
-        <v>468489.21220546134</v>
+        <v>191567.33430352126</v>
       </c>
       <c r="K35" s="43">
         <f ca="1">D4+SUM(L32:$O$32)+SUM($E$33:K33)</f>
-        <v>505702.50674386648</v>
+        <v>209873.98157272389</v>
       </c>
       <c r="L35" s="43">
         <f ca="1">D4+SUM(M32:$O$32)+SUM($E$33:L33)</f>
-        <v>544688.7502791204</v>
+        <v>229067.10334035085</v>
       </c>
       <c r="M35" s="43">
         <f ca="1">D4+SUM(N32:$O$32)+SUM($E$33:M33)</f>
-        <v>585530.92163186264</v>
+        <v>249188.18901672194</v>
       </c>
       <c r="N35" s="44">
         <f ca="1">D4+SUM(O32:$O$32)+SUM($E$33:N33)</f>
-        <v>628315.92181859654</v>
+        <v>270280.68911008892</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
@@ -3100,43 +3100,43 @@
       <c r="D36" s="39"/>
       <c r="E36" s="55">
         <f>$D$4+SUM($E$30:E30)</f>
-        <v>378000</v>
+        <v>189000</v>
       </c>
       <c r="F36" s="55">
         <f>$D$4+SUM($E$30:F30)</f>
-        <v>396900</v>
+        <v>198450</v>
       </c>
       <c r="G36" s="55">
         <f>$D$4+SUM($E$30:G30)</f>
-        <v>416745</v>
+        <v>208372.5</v>
       </c>
       <c r="H36" s="55">
         <f>$D$4+SUM($E$30:H30)</f>
-        <v>437582.25</v>
+        <v>218791.125</v>
       </c>
       <c r="I36" s="56">
         <f>$D$4+SUM($E$30:I30)</f>
-        <v>459461.36249999999</v>
+        <v>229730.68124999999</v>
       </c>
       <c r="J36" s="48">
         <f>$D$4+SUM($E$30:J30)</f>
-        <v>482434.43062500004</v>
+        <v>241217.21531250002</v>
       </c>
       <c r="K36" s="48">
         <f>$D$4+SUM($E$30:K30)</f>
-        <v>506556.15215625003</v>
+        <v>253278.07607812501</v>
       </c>
       <c r="L36" s="48">
         <f>$D$4+SUM($E$30:L30)</f>
-        <v>531883.95976406254</v>
+        <v>265941.97988203127</v>
       </c>
       <c r="M36" s="48">
         <f>$D$4+SUM($E$30:M30)</f>
-        <v>558478.15775226569</v>
+        <v>279239.07887613284</v>
       </c>
       <c r="N36" s="56">
         <f>D4+SUM(E30:N30)</f>
-        <v>586402.06563987897</v>
+        <v>293201.03281993949</v>
       </c>
       <c r="P36" t="s">
         <v>34</v>
@@ -3155,7 +3155,7 @@
       <c r="H37" s="43"/>
       <c r="I37" s="44">
         <f ca="1">I35+SUM(D27:D32)</f>
-        <v>214969.63157358131</v>
+        <v>65107.543987581274</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
@@ -3163,7 +3163,7 @@
       <c r="M37" s="43"/>
       <c r="N37" s="44">
         <f ca="1">N35+SUM(D27:D32)</f>
-        <v>410315.92181859654</v>
+        <v>161280.68911008892</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -3182,7 +3182,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="32">
         <f ca="1">(I35+$D$33)/-$D$33</f>
-        <v>0.98609922740174916</v>
+        <v>0.59731691731725944</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -3190,7 +3190,7 @@
       <c r="M38" s="51"/>
       <c r="N38" s="32">
         <f ca="1">(N35+$D$33)/-$D$33</f>
-        <v>1.882183127608241</v>
+        <v>1.4796393496338434</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -3267,10 +3267,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>3</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="70" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3278,47 +3278,47 @@
       </c>
       <c r="D42" s="43">
         <f>-D2</f>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="E42" s="43">
         <f>-$D$42*E9</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F42" s="43">
         <f>(-$D$42+E42)*E9</f>
-        <v>6180</v>
+        <v>3090</v>
       </c>
       <c r="G42" s="43">
         <f>(-$D$42+SUM($E$42:F42))*3.5%</f>
-        <v>7426.3000000000011</v>
+        <v>3713.1500000000005</v>
       </c>
       <c r="H42" s="43">
         <f>(-$D$42+SUM($E$42:G42))*3.5%</f>
-        <v>7686.2205000000004</v>
+        <v>3843.1102500000002</v>
       </c>
       <c r="I42" s="44">
         <f>(-$D$42+SUM($E$42:H42))*3.5%</f>
-        <v>7955.2382175000012</v>
+        <v>3977.6191087500006</v>
       </c>
       <c r="J42" s="43">
         <f>(-$D$42+SUM($E$42:I42))*3.5%</f>
-        <v>8233.6715551124998</v>
+        <v>4116.8357775562499</v>
       </c>
       <c r="K42" s="43">
         <f>(-$D$42+SUM($E$42:J42))*3.5%</f>
-        <v>8521.8500595414371</v>
+        <v>4260.9250297707185</v>
       </c>
       <c r="L42" s="43">
         <f>(-$D$42+SUM($E$42:K42))*3.5%</f>
-        <v>8820.1148116253898</v>
+        <v>4410.0574058126949</v>
       </c>
       <c r="M42" s="43">
         <f>(-$D$42+SUM($E$42:L42))*3.5%</f>
-        <v>9128.8188300322781</v>
+        <v>4564.4094150161391</v>
       </c>
       <c r="N42" s="44">
         <f>(-$D$42+SUM($E$42:M42))*3.5%</f>
-        <v>9448.3274890834073</v>
+        <v>4724.1637445417036</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3330,43 +3330,43 @@
       <c r="D43" s="39"/>
       <c r="E43" s="39">
         <f>-D42+E42</f>
-        <v>206000</v>
+        <v>103000</v>
       </c>
       <c r="F43" s="39">
         <f t="shared" ref="F43:N43" si="12">E43+F42</f>
-        <v>212180</v>
+        <v>106090</v>
       </c>
       <c r="G43" s="39">
         <f t="shared" si="12"/>
-        <v>219606.3</v>
+        <v>109803.15</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="12"/>
-        <v>227292.52049999998</v>
+        <v>113646.26024999999</v>
       </c>
       <c r="I43" s="40">
         <f t="shared" si="12"/>
-        <v>235247.75871749999</v>
+        <v>117623.87935875</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="12"/>
-        <v>243481.43027261249</v>
+        <v>121740.71513630624</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="12"/>
-        <v>252003.28033215392</v>
+        <v>126001.64016607696</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="12"/>
-        <v>260823.39514377931</v>
+        <v>130411.69757188966</v>
       </c>
       <c r="M43" s="39">
         <f t="shared" si="12"/>
-        <v>269952.21397381159</v>
+        <v>134976.1069869058</v>
       </c>
       <c r="N43" s="40">
         <f t="shared" si="12"/>
-        <v>279400.54146289499</v>
+        <v>139700.2707314475</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D49" s="39">
         <f>D27</f>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="E49" s="39">
         <v>0</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D50" s="39">
         <f>D28</f>
-        <v>-18000</v>
+        <v>-9000</v>
       </c>
       <c r="E50" s="39">
         <f>-K2</f>
@@ -3633,43 +3633,43 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39">
         <f>-D49*D7</f>
-        <v>14599.999999999998</v>
+        <v>7299.9999999999991</v>
       </c>
       <c r="F52" s="39">
         <f>(-$D$49+SUM($E$52:E52))*$D$7</f>
-        <v>15665.8</v>
+        <v>7832.9</v>
       </c>
       <c r="G52" s="39">
         <f>(-$D$49+SUM($E$52:F52))*$D$7</f>
-        <v>16809.403399999999</v>
+        <v>8404.7016999999996</v>
       </c>
       <c r="H52" s="39">
         <f>(-$D$49+SUM($E$52:G52))*$D$7</f>
-        <v>18036.489848199999</v>
+        <v>9018.2449240999995</v>
       </c>
       <c r="I52" s="40">
         <f>(-$D$49+SUM($E$52:H52))*$D$7</f>
-        <v>19353.153607118598</v>
+        <v>9676.5768035592992</v>
       </c>
       <c r="J52" s="39">
         <f>(-$D$49+SUM($E$52:I52))*$D$7</f>
-        <v>20765.933820438255</v>
+        <v>10382.966910219127</v>
       </c>
       <c r="K52" s="39">
         <f>(-$D$49+SUM($E$52:J52))*$D$7</f>
-        <v>22281.84698933025</v>
+        <v>11140.923494665125</v>
       </c>
       <c r="L52" s="39">
         <f>(-$D$49+SUM($E$52:K52))*$D$7</f>
-        <v>23908.421819551357</v>
+        <v>11954.210909775678</v>
       </c>
       <c r="M52" s="39">
         <f>(-$D$49+SUM($E$52:L52))*$D$7</f>
-        <v>25653.736612378609</v>
+        <v>12826.868306189304</v>
       </c>
       <c r="N52" s="40">
         <f>(-$D$49+SUM($E$52:M52))*$D$7</f>
-        <v>27526.459385082249</v>
+        <v>13763.229692541125</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3681,43 +3681,43 @@
       <c r="D53" s="39"/>
       <c r="E53" s="39">
         <f>-D49*K4</f>
-        <v>9777.7777777777774</v>
+        <v>4888.8888888888887</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" ref="F53:N53" si="15">E53*(1+$D$8)</f>
-        <v>10354.666666666666</v>
+        <v>5177.333333333333</v>
       </c>
       <c r="G53" s="39">
         <f t="shared" si="15"/>
-        <v>10965.591999999999</v>
+        <v>5482.7959999999994</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="15"/>
-        <v>11612.561927999997</v>
+        <v>5806.2809639999987</v>
       </c>
       <c r="I53" s="40">
         <f t="shared" si="15"/>
-        <v>12297.703081751997</v>
+        <v>6148.8515408759986</v>
       </c>
       <c r="J53" s="39">
         <f t="shared" si="15"/>
-        <v>13023.267563575364</v>
+        <v>6511.633781787682</v>
       </c>
       <c r="K53" s="39">
         <f t="shared" si="15"/>
-        <v>13791.64034982631</v>
+        <v>6895.8201749131549</v>
       </c>
       <c r="L53" s="39">
         <f t="shared" si="15"/>
-        <v>14605.347130466062</v>
+        <v>7302.6735652330308</v>
       </c>
       <c r="M53" s="39">
         <f t="shared" si="15"/>
-        <v>15467.062611163557</v>
+        <v>7733.5313055817787</v>
       </c>
       <c r="N53" s="40">
         <f t="shared" si="15"/>
-        <v>16379.619305222206</v>
+        <v>8189.809652611103</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3766,47 +3766,47 @@
       </c>
       <c r="D55" s="43">
         <f t="shared" ref="D55:N55" si="16">SUM(D49:D54)</f>
-        <v>-218000</v>
+        <v>-109000</v>
       </c>
       <c r="E55" s="43">
         <f t="shared" si="16"/>
-        <v>23777.777777777774</v>
+        <v>11588.888888888887</v>
       </c>
       <c r="F55" s="43">
         <f t="shared" si="16"/>
-        <v>25420.466666666667</v>
+        <v>12410.233333333334</v>
       </c>
       <c r="G55" s="43">
         <f t="shared" si="16"/>
-        <v>27174.9954</v>
+        <v>13287.4977</v>
       </c>
       <c r="H55" s="43">
         <f t="shared" si="16"/>
-        <v>29049.051776199994</v>
+        <v>14224.525888099997</v>
       </c>
       <c r="I55" s="44">
         <f t="shared" si="16"/>
-        <v>31050.856688870597</v>
+        <v>15225.428344435299</v>
       </c>
       <c r="J55" s="43">
         <f t="shared" si="16"/>
-        <v>33189.201384013621</v>
+        <v>16294.60069200681</v>
       </c>
       <c r="K55" s="43">
         <f t="shared" si="16"/>
-        <v>35473.487339156563</v>
+        <v>17436.743669578282</v>
       </c>
       <c r="L55" s="43">
         <f t="shared" si="16"/>
-        <v>37913.768950017417</v>
+        <v>18656.884475008708</v>
       </c>
       <c r="M55" s="43">
         <f t="shared" si="16"/>
-        <v>40520.79922354217</v>
+        <v>19960.399611771085</v>
       </c>
       <c r="N55" s="44">
         <f t="shared" si="16"/>
-        <v>43306.078690304457</v>
+        <v>21353.039345152229</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,43 +3818,43 @@
       <c r="D56" s="39"/>
       <c r="E56" s="45">
         <f t="shared" ref="E56:N56" si="17">SUM(E50:E51,E53:E54)/12</f>
-        <v>764.81481481481478</v>
+        <v>357.40740740740739</v>
       </c>
       <c r="F56" s="45">
         <f t="shared" si="17"/>
-        <v>812.8888888888888</v>
+        <v>381.4444444444444</v>
       </c>
       <c r="G56" s="45">
         <f t="shared" si="17"/>
-        <v>863.79933333333327</v>
+        <v>406.89966666666663</v>
       </c>
       <c r="H56" s="45">
         <f t="shared" si="17"/>
-        <v>917.71349399999974</v>
+        <v>433.85674699999987</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" si="17"/>
-        <v>974.8085901459998</v>
+        <v>462.4042950729999</v>
       </c>
       <c r="J56" s="45">
         <f t="shared" si="17"/>
-        <v>1035.2722969646136</v>
+        <v>492.63614848230685</v>
       </c>
       <c r="K56" s="45">
         <f t="shared" si="17"/>
-        <v>1099.3033624855259</v>
+        <v>524.65168124276295</v>
       </c>
       <c r="L56" s="45">
         <f t="shared" si="17"/>
-        <v>1167.1122608721719</v>
+        <v>558.55613043608594</v>
       </c>
       <c r="M56" s="45">
         <f t="shared" si="17"/>
-        <v>1238.9218842636299</v>
+        <v>594.46094213181493</v>
       </c>
       <c r="N56" s="46">
         <f t="shared" si="17"/>
-        <v>1314.9682754351838</v>
+        <v>632.48413771759192</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3866,43 +3866,43 @@
       <c r="D57" s="39"/>
       <c r="E57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:E55)</f>
-        <v>223777.77777777778</v>
+        <v>111588.88888888889</v>
       </c>
       <c r="F57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:F55)</f>
-        <v>249198.24444444443</v>
+        <v>123999.12222222221</v>
       </c>
       <c r="G57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:G55)</f>
-        <v>276373.23984444444</v>
+        <v>137286.61992222222</v>
       </c>
       <c r="H57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:H55)</f>
-        <v>305422.29162064445</v>
+        <v>151511.14581032222</v>
       </c>
       <c r="I57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:I55)</f>
-        <v>336473.14830951503</v>
+        <v>166736.57415475752</v>
       </c>
       <c r="J57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:J55)</f>
-        <v>369662.34969352867</v>
+        <v>183031.17484676433</v>
       </c>
       <c r="K57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:K55)</f>
-        <v>405135.83703268523</v>
+        <v>200467.91851634262</v>
       </c>
       <c r="L57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:L55)</f>
-        <v>443049.60598270263</v>
+        <v>219124.80299135132</v>
       </c>
       <c r="M57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:M55)</f>
-        <v>483570.40520624479</v>
+        <v>239085.20260312239</v>
       </c>
       <c r="N57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:N55)</f>
-        <v>526876.48389654933</v>
+        <v>260438.24194827463</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
@@ -3917,43 +3917,43 @@
       <c r="D58" s="39"/>
       <c r="E58" s="55">
         <f>-$D$49+SUM($E$52:E52)</f>
-        <v>214600</v>
+        <v>107300</v>
       </c>
       <c r="F58" s="55">
         <f>-$D$49+SUM($E$52:F52)</f>
-        <v>230265.8</v>
+        <v>115132.9</v>
       </c>
       <c r="G58" s="55">
         <f>-$D$49+SUM($E$52:G52)</f>
-        <v>247075.2034</v>
+        <v>123537.6017</v>
       </c>
       <c r="H58" s="55">
         <f>-$D$49+SUM($E$52:H52)</f>
-        <v>265111.6932482</v>
+        <v>132555.8466241</v>
       </c>
       <c r="I58" s="56">
         <f>-$D$49+SUM($E$52:I52)</f>
-        <v>284464.84685531858</v>
+        <v>142232.42342765929</v>
       </c>
       <c r="J58" s="48">
         <f>-$D$49+SUM($E$52:J52)</f>
-        <v>305230.78067575686</v>
+        <v>152615.39033787843</v>
       </c>
       <c r="K58" s="48">
         <f>-$D$49+SUM($E$52:K52)</f>
-        <v>327512.62766508712</v>
+        <v>163756.31383254356</v>
       </c>
       <c r="L58" s="48">
         <f>-$D$49+SUM($E$52:L52)</f>
-        <v>351421.0494846385</v>
+        <v>175710.52474231925</v>
       </c>
       <c r="M58" s="48">
         <f>-$D$49+SUM($E$52:M52)</f>
-        <v>377074.78609701712</v>
+        <v>188537.39304850856</v>
       </c>
       <c r="N58" s="56">
         <f>-D49+SUM(E52:N52)</f>
-        <v>404601.24548209936</v>
+        <v>202300.62274104968</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -3972,7 +3972,7 @@
       <c r="H59" s="43"/>
       <c r="I59" s="44">
         <f>I57+SUM(D49:D54)</f>
-        <v>118473.14830951503</v>
+        <v>57736.574154757516</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="43"/>
@@ -3980,7 +3980,7 @@
       <c r="M59" s="43"/>
       <c r="N59" s="44">
         <f>N57+SUM(D49:D54)</f>
-        <v>308876.48389654933</v>
+        <v>151438.24194827463</v>
       </c>
       <c r="P59" t="s">
         <v>49</v>
@@ -3999,7 +3999,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="32">
         <f>(I57+$D$18)/-$D$18</f>
-        <v>0.54345480875924324</v>
+        <v>0.52969334086933506</v>
       </c>
       <c r="J60" s="51"/>
       <c r="K60" s="51"/>
@@ -4007,7 +4007,7 @@
       <c r="M60" s="51"/>
       <c r="N60" s="32">
         <f>(N57+$D$18)/-$D$18</f>
-        <v>1.4168646050300429</v>
+        <v>1.3893416692502261</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D64" s="39">
         <f>D12</f>
-        <v>-200000</v>
+        <v>-100000</v>
       </c>
       <c r="E64" s="39">
         <v>0</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D65" s="39">
         <f>D13</f>
-        <v>-18000</v>
+        <v>-9000</v>
       </c>
       <c r="E65" s="39">
         <f>-L2</f>
@@ -4196,43 +4196,43 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39">
         <f>-D64*E7</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F67" s="39">
         <f>(-$D$64+SUM($E$67:E67))*$E$7</f>
-        <v>10500</v>
+        <v>5250</v>
       </c>
       <c r="G67" s="39">
         <f>(-$D$64+SUM($E$67:F67))*$E$7</f>
-        <v>11025</v>
+        <v>5512.5</v>
       </c>
       <c r="H67" s="39">
         <f>(-$D$64+SUM($E$67:G67))*$E$7</f>
-        <v>11576.25</v>
+        <v>5788.125</v>
       </c>
       <c r="I67" s="40">
         <f>(-$D$64+SUM($E$67:H67))*$E$7</f>
-        <v>12155.0625</v>
+        <v>6077.53125</v>
       </c>
       <c r="J67" s="39">
         <f>(-$D$64+SUM($E$67:I67))*$E$7</f>
-        <v>12762.815625000001</v>
+        <v>6381.4078125000005</v>
       </c>
       <c r="K67" s="39">
         <f>(-$D$64+SUM($E$67:J67))*$E$7</f>
-        <v>13400.956406249999</v>
+        <v>6700.4782031249997</v>
       </c>
       <c r="L67" s="39">
         <f>(-$D$64+SUM($E$67:K67))*$E$7</f>
-        <v>14071.004226562502</v>
+        <v>7035.5021132812508</v>
       </c>
       <c r="M67" s="39">
         <f>(-$D$64+SUM($E$67:L67))*$E$7</f>
-        <v>14774.554437890627</v>
+        <v>7387.2772189453135</v>
       </c>
       <c r="N67" s="40">
         <f>(-$D$64+SUM($E$67:M67))*$E$7</f>
-        <v>15513.282159785158</v>
+        <v>7756.641079892579</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4244,43 +4244,43 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39">
         <f>-D64*L4</f>
-        <v>6222.2222222222217</v>
+        <v>3111.1111111111109</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" ref="F68:N68" si="19">E68*(1+$D$8)</f>
-        <v>6589.3333333333321</v>
+        <v>3294.6666666666661</v>
       </c>
       <c r="G68" s="39">
         <f t="shared" si="19"/>
-        <v>6978.1039999999985</v>
+        <v>3489.0519999999992</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="19"/>
-        <v>7389.8121359999977</v>
+        <v>3694.9060679999989</v>
       </c>
       <c r="I68" s="40">
         <f t="shared" si="19"/>
-        <v>7825.811052023997</v>
+        <v>3912.9055260119985</v>
       </c>
       <c r="J68" s="39">
         <f t="shared" si="19"/>
-        <v>8287.5339040934123</v>
+        <v>4143.7669520467061</v>
       </c>
       <c r="K68" s="39">
         <f t="shared" si="19"/>
-        <v>8776.4984044349239</v>
+        <v>4388.249202217462</v>
       </c>
       <c r="L68" s="39">
         <f t="shared" si="19"/>
-        <v>9294.3118102965836</v>
+        <v>4647.1559051482918</v>
       </c>
       <c r="M68" s="39">
         <f t="shared" si="19"/>
-        <v>9842.6762071040812</v>
+        <v>4921.3381035520406</v>
       </c>
       <c r="N68" s="40">
         <f t="shared" si="19"/>
-        <v>10423.394103323222</v>
+        <v>5211.6970516616111</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4329,47 +4329,47 @@
       </c>
       <c r="D70" s="43">
         <f t="shared" ref="D70:N70" si="20">SUM(D64:D69)</f>
-        <v>-218000</v>
+        <v>-109000</v>
       </c>
       <c r="E70" s="43">
         <f t="shared" si="20"/>
-        <v>15622.222222222223</v>
+        <v>7511.1111111111113</v>
       </c>
       <c r="F70" s="43">
         <f t="shared" si="20"/>
-        <v>16489.333333333332</v>
+        <v>7944.6666666666661</v>
       </c>
       <c r="G70" s="43">
         <f t="shared" si="20"/>
-        <v>17403.103999999999</v>
+        <v>8401.5519999999997</v>
       </c>
       <c r="H70" s="43">
         <f t="shared" si="20"/>
-        <v>18366.062135999997</v>
+        <v>8883.0310679999984</v>
       </c>
       <c r="I70" s="44">
         <f t="shared" si="20"/>
-        <v>19380.873552023997</v>
+        <v>9390.4367760119985</v>
       </c>
       <c r="J70" s="43">
         <f t="shared" si="20"/>
-        <v>20450.349529093415</v>
+        <v>9925.1747645467076</v>
       </c>
       <c r="K70" s="43">
         <f t="shared" si="20"/>
-        <v>21577.454810684925</v>
+        <v>10488.727405342463</v>
       </c>
       <c r="L70" s="43">
         <f t="shared" si="20"/>
-        <v>22765.316036859083</v>
+        <v>11082.658018429542</v>
       </c>
       <c r="M70" s="43">
         <f t="shared" si="20"/>
-        <v>24017.230644994706</v>
+        <v>11708.615322497353</v>
       </c>
       <c r="N70" s="44">
         <f t="shared" si="20"/>
-        <v>25336.67626310838</v>
+        <v>12368.33813155419</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4381,43 +4381,43 @@
       <c r="D71" s="39"/>
       <c r="E71" s="45">
         <f t="shared" ref="E71:N71" si="21">SUM(E65:E66,E68:E69)/12</f>
-        <v>468.51851851851848</v>
+        <v>209.25925925925924</v>
       </c>
       <c r="F71" s="45">
         <f t="shared" si="21"/>
-        <v>499.11111111111103</v>
+        <v>224.55555555555551</v>
       </c>
       <c r="G71" s="45">
         <f t="shared" si="21"/>
-        <v>531.5086666666665</v>
+        <v>240.75433333333328</v>
       </c>
       <c r="H71" s="45">
         <f t="shared" si="21"/>
-        <v>565.81767799999977</v>
+        <v>257.90883899999989</v>
       </c>
       <c r="I71" s="46">
         <f t="shared" si="21"/>
-        <v>602.15092100199979</v>
+        <v>276.0754605009999</v>
       </c>
       <c r="J71" s="45">
         <f t="shared" si="21"/>
-        <v>640.62782534111773</v>
+        <v>295.31391267055886</v>
       </c>
       <c r="K71" s="45">
         <f t="shared" si="21"/>
-        <v>681.3748670362437</v>
+        <v>315.68743351812185</v>
       </c>
       <c r="L71" s="45">
         <f t="shared" si="21"/>
-        <v>724.52598419138201</v>
+        <v>337.262992095691</v>
       </c>
       <c r="M71" s="45">
         <f t="shared" si="21"/>
-        <v>770.22301725867339</v>
+        <v>360.1115086293367</v>
       </c>
       <c r="N71" s="46">
         <f t="shared" si="21"/>
-        <v>818.61617527693522</v>
+        <v>384.30808763846761</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4429,43 +4429,43 @@
       <c r="D72" s="39"/>
       <c r="E72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:E70)</f>
-        <v>215622.22222222222</v>
+        <v>107511.11111111111</v>
       </c>
       <c r="F72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:F70)</f>
-        <v>232111.55555555556</v>
+        <v>115455.77777777778</v>
       </c>
       <c r="G72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:G70)</f>
-        <v>249514.65955555555</v>
+        <v>123857.32977777778</v>
       </c>
       <c r="H72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:H70)</f>
-        <v>267880.72169155558</v>
+        <v>132740.36084577779</v>
       </c>
       <c r="I72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:I70)</f>
-        <v>287261.59524357953</v>
+        <v>142130.79762178977</v>
       </c>
       <c r="J72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:J70)</f>
-        <v>307711.94477267296</v>
+        <v>152055.97238633648</v>
       </c>
       <c r="K72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:K70)</f>
-        <v>329289.39958335785</v>
+        <v>162544.69979167893</v>
       </c>
       <c r="L72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:L70)</f>
-        <v>352054.71562021697</v>
+        <v>173627.35781010849</v>
       </c>
       <c r="M72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:M70)</f>
-        <v>376071.94626521168</v>
+        <v>185335.97313260584</v>
       </c>
       <c r="N72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:N70)</f>
-        <v>401408.62252832006</v>
+        <v>197704.31126416003</v>
       </c>
       <c r="P72" t="s">
         <v>47</v>
@@ -4480,43 +4480,43 @@
       <c r="D73" s="39"/>
       <c r="E73" s="55">
         <f>-$D$64+SUM($E$67:E67)</f>
-        <v>210000</v>
+        <v>105000</v>
       </c>
       <c r="F73" s="55">
         <f>-$D$64+SUM($E$67:F67)</f>
-        <v>220500</v>
+        <v>110250</v>
       </c>
       <c r="G73" s="55">
         <f>-$D$64+SUM($E$67:G67)</f>
-        <v>231525</v>
+        <v>115762.5</v>
       </c>
       <c r="H73" s="55">
         <f>-$D$64+SUM($E$67:H67)</f>
-        <v>243101.25</v>
+        <v>121550.625</v>
       </c>
       <c r="I73" s="56">
         <f>-$D$64+SUM($E$67:I67)</f>
-        <v>255256.3125</v>
+        <v>127628.15625</v>
       </c>
       <c r="J73" s="48">
         <f>-$D$64+SUM($E$67:J67)</f>
-        <v>268019.12812499999</v>
+        <v>134009.56406249999</v>
       </c>
       <c r="K73" s="48">
         <f>-$D$64+SUM($E$67:K67)</f>
-        <v>281420.08453125</v>
+        <v>140710.042265625</v>
       </c>
       <c r="L73" s="48">
         <f>-$D$64+SUM($E$67:L67)</f>
-        <v>295491.08875781251</v>
+        <v>147745.54437890626</v>
       </c>
       <c r="M73" s="48">
         <f>-$D$64+SUM($E$67:M67)</f>
-        <v>310265.64319570316</v>
+        <v>155132.82159785158</v>
       </c>
       <c r="N73" s="56">
         <f>-D64+SUM(E67:N67)</f>
-        <v>325778.92535548832</v>
+        <v>162889.46267774416</v>
       </c>
       <c r="P73" t="s">
         <v>48</v>
@@ -4535,7 +4535,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44">
         <f>I72+SUM(D64:D69)</f>
-        <v>69261.595243579533</v>
+        <v>33130.797621789767</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -4543,7 +4543,7 @@
       <c r="M74" s="43"/>
       <c r="N74" s="44">
         <f>N72+SUM(D64:D69)</f>
-        <v>183408.62252832006</v>
+        <v>88704.311264160031</v>
       </c>
       <c r="P74" t="s">
         <v>49</v>
@@ -4562,7 +4562,7 @@
       <c r="H75" s="51"/>
       <c r="I75" s="32">
         <f>(I72+$D$18)/-$D$18</f>
-        <v>0.31771373964944738</v>
+        <v>0.30395227175953915</v>
       </c>
       <c r="J75" s="51"/>
       <c r="K75" s="51"/>
@@ -4570,7 +4570,7 @@
       <c r="M75" s="51"/>
       <c r="N75" s="32">
         <f>(N72+$D$18)/-$D$18</f>
-        <v>0.84132395655192693</v>
+        <v>0.81380102077211036</v>
       </c>
       <c r="P75" t="s">
         <v>49</v>
@@ -4669,16 +4669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A12:A23"/>
     <mergeCell ref="B12:B23"/>
-    <mergeCell ref="A12:A23"/>
     <mergeCell ref="B27:B38"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A27:A38"/>
     <mergeCell ref="B49:B60"/>
     <mergeCell ref="A49:A60"/>
-    <mergeCell ref="B42:B44"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <conditionalFormatting sqref="E19:N19">
     <cfRule type="colorScale" priority="8">
@@ -4784,8 +4784,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="43" width="9" style="12" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="12"/>
+    <col min="10" max="50" width="9" style="12" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15830,8 +15830,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="43" width="9" style="12" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="12"/>
+    <col min="10" max="50" width="9" style="12" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/media/yield.xlsx
+++ b/media/yield.xlsx
@@ -834,13 +834,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,11 +1822,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="21">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="E2" s="24">
         <f>D2</f>
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>3</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="D3" s="24">
         <f>D2*80%</f>
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="E3" s="24">
         <f>D3</f>
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="L3" s="24">
         <f>D3*0.3%</f>
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>9</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="D4" s="24">
         <f>D2+D3</f>
-        <v>180000</v>
+        <v>900000</v>
       </c>
       <c r="E4" s="24">
         <f>D4</f>
-        <v>180000</v>
+        <v>900000</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -2035,10 +2035,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65">
+      <c r="A12" s="68">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D12" s="39">
         <f>-D2</f>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
       <c r="E12" s="39">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="D13" s="39">
         <f>-(D2+D3)*5%</f>
-        <v>-9000</v>
+        <v>-45000</v>
       </c>
       <c r="E13" s="39">
         <f>-$K$2</f>
@@ -2190,43 +2190,43 @@
       <c r="D15" s="39"/>
       <c r="E15" s="39">
         <f>(D4)*D7</f>
-        <v>13140</v>
+        <v>65700</v>
       </c>
       <c r="F15" s="39">
         <f>(D4+SUM($E$15:E15))*$D$7</f>
-        <v>14099.22</v>
+        <v>70496.099999999991</v>
       </c>
       <c r="G15" s="39">
         <f>(D4+SUM($E$15:F15))*$D$7</f>
-        <v>15128.46306</v>
+        <v>75642.315299999987</v>
       </c>
       <c r="H15" s="39">
         <f>(D4+SUM($E$15:G15))*$D$7</f>
-        <v>16232.840863379999</v>
+        <v>81164.204316899995</v>
       </c>
       <c r="I15" s="40">
         <f>(D4+SUM($E$15:H15))*$D$7</f>
-        <v>17417.83824640674</v>
+        <v>87089.1912320337</v>
       </c>
       <c r="J15" s="39">
         <f>(D4+SUM($E$15:I15))*$D$7</f>
-        <v>18689.340438394429</v>
+        <v>93446.702191972145</v>
       </c>
       <c r="K15" s="39">
         <f>(D4+SUM($E$15:J15))*$D$7</f>
-        <v>20053.662290397224</v>
+        <v>100268.31145198611</v>
       </c>
       <c r="L15" s="39">
         <f>(D4+SUM($E$15:K15))*$D$7</f>
-        <v>21517.57963759622</v>
+        <v>107587.89818798109</v>
       </c>
       <c r="M15" s="39">
         <f>(D4+SUM($E$15:L15))*$D$7</f>
-        <v>23088.362951140745</v>
+        <v>115441.81475570372</v>
       </c>
       <c r="N15" s="40">
         <f>(D4+SUM($E$15:M15))*$D$7</f>
-        <v>24773.813446574019</v>
+        <v>123869.06723287007</v>
       </c>
       <c r="O15" s="42"/>
     </row>
@@ -2239,43 +2239,43 @@
       <c r="D16" s="39"/>
       <c r="E16" s="39">
         <f>D4*K4</f>
-        <v>8800</v>
+        <v>43999.999999999993</v>
       </c>
       <c r="F16" s="39">
         <f t="shared" ref="F16:N16" si="2">ROUND(E16*(1+$D$8),0)</f>
-        <v>9319</v>
+        <v>46596</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="2"/>
-        <v>9869</v>
+        <v>49345</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
-        <v>10451</v>
+        <v>52256</v>
       </c>
       <c r="I16" s="40">
         <f t="shared" si="2"/>
-        <v>11068</v>
+        <v>55339</v>
       </c>
       <c r="J16" s="39">
         <f t="shared" si="2"/>
-        <v>11721</v>
+        <v>58604</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>12413</v>
+        <v>62062</v>
       </c>
       <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>13145</v>
+        <v>65724</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="2"/>
-        <v>13921</v>
+        <v>69602</v>
       </c>
       <c r="N16" s="40">
         <f t="shared" si="2"/>
-        <v>14742</v>
+        <v>73709</v>
       </c>
       <c r="O16" s="41"/>
     </row>
@@ -2336,47 +2336,47 @@
       </c>
       <c r="D18" s="43">
         <f t="shared" ref="D18:N18" si="4">SUM(D12:D17)</f>
-        <v>-109000</v>
+        <v>-545000</v>
       </c>
       <c r="E18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>12830.472976604</v>
+        <v>100590.472976604</v>
       </c>
       <c r="F18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>14308.692976604001</v>
+        <v>107982.57297660399</v>
       </c>
       <c r="G18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>15887.936036604002</v>
+        <v>115877.78827660398</v>
       </c>
       <c r="H18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>17574.313839983999</v>
+        <v>124310.67729350399</v>
       </c>
       <c r="I18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>19376.31122301074</v>
+        <v>133318.66420863773</v>
       </c>
       <c r="J18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>21300.813414998429</v>
+        <v>142941.17516857616</v>
       </c>
       <c r="K18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>23357.135267001224</v>
+        <v>153220.78442859012</v>
       </c>
       <c r="L18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>25553.052614200224</v>
+        <v>164202.37116458511</v>
       </c>
       <c r="M18" s="43">
         <f t="shared" ca="1" si="4"/>
-        <v>27899.835927744749</v>
+        <v>175934.28773230774</v>
       </c>
       <c r="N18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>30406.286423178015</v>
+        <v>188468.5402094741</v>
       </c>
       <c r="O18" s="41"/>
     </row>
@@ -2389,43 +2389,43 @@
       <c r="D19" s="43"/>
       <c r="E19" s="45">
         <f t="shared" ref="E19:N19" ca="1" si="5">SUM(E13:E14,E16:E17)/12</f>
-        <v>-25.793918616333332</v>
+        <v>2907.5394147169995</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>17.456081383666668</v>
+        <v>3123.872748050333</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>63.289414717</v>
+        <v>3352.9560813836665</v>
       </c>
       <c r="H19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>111.789414717</v>
+        <v>3595.5394147169995</v>
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>163.20608138366666</v>
+        <v>3852.4560813836665</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>217.62274805033334</v>
+        <v>4124.539414717</v>
       </c>
       <c r="K19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>275.289414717</v>
+        <v>4412.7060813836661</v>
       </c>
       <c r="L19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>336.289414717</v>
+        <v>4717.872748050333</v>
       </c>
       <c r="M19" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>400.95608138366669</v>
+        <v>5041.039414717</v>
       </c>
       <c r="N19" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>469.37274805033331</v>
+        <v>5383.289414717</v>
       </c>
       <c r="O19" s="41"/>
     </row>
@@ -2438,43 +2438,43 @@
       <c r="D20" s="39"/>
       <c r="E20" s="43">
         <f ca="1">D4+SUM(F17:$O$17)+SUM($E$18:E18)</f>
-        <v>117324.72976603998</v>
+        <v>925084.72976603999</v>
       </c>
       <c r="F20" s="47">
         <f ca="1">D4+SUM(G17:$O$17)+SUM($E$18:F18)</f>
-        <v>140022.94976603999</v>
+        <v>1041456.82976604</v>
       </c>
       <c r="G20" s="43">
         <f ca="1">D4+SUM(H17:$O$17)+SUM($E$18:G18)</f>
-        <v>164300.41282604</v>
+        <v>1165724.1450660399</v>
       </c>
       <c r="H20" s="43">
         <f ca="1">D4+SUM(I17:$O$17)+SUM($E$18:H18)</f>
-        <v>190264.25368942</v>
+        <v>1298424.34938294</v>
       </c>
       <c r="I20" s="44">
         <f ca="1">D4+SUM(J17:$O$17)+SUM($E$18:I18)</f>
-        <v>218030.09193582673</v>
+        <v>1440132.5406149738</v>
       </c>
       <c r="J20" s="43">
         <f ca="1">D4+SUM(K17:$O$17)+SUM($E$18:J18)</f>
-        <v>247720.43237422116</v>
+        <v>1591463.2428069459</v>
       </c>
       <c r="K20" s="43">
         <f ca="1">D4+SUM(L17:$O$17)+SUM($E$18:K18)</f>
-        <v>279467.09466461837</v>
+        <v>1753073.5542589319</v>
       </c>
       <c r="L20" s="43">
         <f ca="1">D4+SUM(M17:$O$17)+SUM($E$18:L18)</f>
-        <v>313409.67430221464</v>
+        <v>1925665.4524469131</v>
       </c>
       <c r="M20" s="43">
         <f ca="1">D4+SUM(N17:$O$17)+SUM($E$18:M18)</f>
-        <v>349699.03725335537</v>
+        <v>2109989.2672026167</v>
       </c>
       <c r="N20" s="44">
         <f ca="1">D4+SUM(O17:$O$17)+SUM($E$18:N18)</f>
-        <v>388494.8506999294</v>
+        <v>2306847.3344354872</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" t="s">
@@ -2490,43 +2490,43 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48">
         <f>$D$4+SUM($E$15:E15)</f>
-        <v>193140</v>
+        <v>965700</v>
       </c>
       <c r="F21" s="49">
         <f>$D$4+SUM($E$15:F15)</f>
-        <v>207239.22</v>
+        <v>1036196.1</v>
       </c>
       <c r="G21" s="48">
         <f>$D$4+SUM($E$15:G15)</f>
-        <v>222367.68306000001</v>
+        <v>1111838.4153</v>
       </c>
       <c r="H21" s="48">
         <f>$D$4+SUM($E$15:H15)</f>
-        <v>238600.52392338001</v>
+        <v>1193002.6196169001</v>
       </c>
       <c r="I21" s="50">
         <f>$D$4+SUM($E$15:I15)</f>
-        <v>256018.36216978673</v>
+        <v>1280091.8108489336</v>
       </c>
       <c r="J21" s="48">
         <f>$D$4+SUM($E$15:J15)</f>
-        <v>274707.70260818116</v>
+        <v>1373538.5130409058</v>
       </c>
       <c r="K21" s="48">
         <f>$D$4+SUM($E$15:K15)</f>
-        <v>294761.36489857838</v>
+        <v>1473806.8244928918</v>
       </c>
       <c r="L21" s="48">
         <f>$D$4+SUM($E$15:L15)</f>
-        <v>316278.94453617459</v>
+        <v>1581394.722680873</v>
       </c>
       <c r="M21" s="48">
         <f>$D$4+SUM($E$15:M15)</f>
-        <v>339367.30748731532</v>
+        <v>1696836.5374365766</v>
       </c>
       <c r="N21" s="50">
         <f>$D$4+SUM($E$15:N15)</f>
-        <v>364141.12093388935</v>
+        <v>1820705.6046694466</v>
       </c>
       <c r="O21" s="41"/>
       <c r="P21" t="s">
@@ -2546,7 +2546,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="44">
         <f ca="1">I20+SUM(D12:D17)</f>
-        <v>109030.09193582673</v>
+        <v>895132.54061497375</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -2554,7 +2554,7 @@
       <c r="M22" s="43"/>
       <c r="N22" s="44">
         <f ca="1">N20+SUM(D12:D17)</f>
-        <v>279494.8506999294</v>
+        <v>1761847.3344354872</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2570,7 +2570,7 @@
       <c r="H23" s="51"/>
       <c r="I23" s="32">
         <f ca="1">(I20+$D$18)/-$D$18</f>
-        <v>1.0002760728057498</v>
+        <v>1.6424450286513279</v>
       </c>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -2578,7 +2578,7 @@
       <c r="M23" s="51"/>
       <c r="N23" s="32">
         <f ca="1">(N20+$D$18)/-$D$18</f>
-        <v>2.5641729422011874</v>
+        <v>3.2327474026339216</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65">
+      <c r="A27" s="68">
         <v>2</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D27" s="39">
         <f>D12</f>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
       <c r="E27" s="39">
         <f>E12</f>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D28" s="39">
         <f>D13</f>
-        <v>-9000</v>
+        <v>-45000</v>
       </c>
       <c r="E28" s="39">
         <f>-L2</f>
@@ -2757,43 +2757,43 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39">
         <f>-$L$3</f>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" ref="F29:N29" si="7">E29</f>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="G29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="I29" s="40">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="K29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="M29" s="39">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
       <c r="N29" s="40">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,43 +2805,43 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39">
         <f>(D4+D30)*$E$7</f>
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="F30" s="39">
         <f>(D4+SUM($D$30:E30))*$E$7</f>
-        <v>9450</v>
+        <v>47250</v>
       </c>
       <c r="G30" s="39">
         <f>(D4+SUM($D$30:F30))*$E$7</f>
-        <v>9922.5</v>
+        <v>49612.5</v>
       </c>
       <c r="H30" s="39">
         <f>(D4+SUM($D$30:G30))*$E$7</f>
-        <v>10418.625</v>
+        <v>52093.125</v>
       </c>
       <c r="I30" s="40">
         <f>(D4+SUM($D$30:H30))*$E$7</f>
-        <v>10939.556250000001</v>
+        <v>54697.78125</v>
       </c>
       <c r="J30" s="39">
         <f>(D4+SUM($D$30:I30))*$E$7</f>
-        <v>11486.534062500001</v>
+        <v>57432.670312500006</v>
       </c>
       <c r="K30" s="39">
         <f>(D4+SUM($D$30:J30))*$E$7</f>
-        <v>12060.860765625002</v>
+        <v>60304.303828125005</v>
       </c>
       <c r="L30" s="39">
         <f>(D4+SUM($D$30:K30))*$E$7</f>
-        <v>12663.903803906251</v>
+        <v>63319.519019531253</v>
       </c>
       <c r="M30" s="39">
         <f>(D4+SUM($D$30:L30))*$E$7</f>
-        <v>13297.098994101565</v>
+        <v>66485.494970507818</v>
       </c>
       <c r="N30" s="40">
         <f>(D4+SUM($D$30:M30))*$E$7</f>
-        <v>13961.953943806642</v>
+        <v>69809.769719033196</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2853,43 +2853,43 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39">
         <f>D4*L4</f>
-        <v>5600</v>
+        <v>28000</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" ref="F31:N31" si="8">E31*(1+$E$8)</f>
-        <v>5824</v>
+        <v>29120</v>
       </c>
       <c r="G31" s="39">
         <f t="shared" si="8"/>
-        <v>6056.96</v>
+        <v>30284.799999999999</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="8"/>
-        <v>6299.2384000000002</v>
+        <v>31496.191999999999</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="8"/>
-        <v>6551.2079360000007</v>
+        <v>32756.039680000002</v>
       </c>
       <c r="J31" s="39">
         <f t="shared" si="8"/>
-        <v>6813.2562534400013</v>
+        <v>34066.2812672</v>
       </c>
       <c r="K31" s="39">
         <f t="shared" si="8"/>
-        <v>7085.7865035776013</v>
+        <v>35428.932517888003</v>
       </c>
       <c r="L31" s="39">
         <f t="shared" si="8"/>
-        <v>7369.2179637207055</v>
+        <v>36846.089818603527</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="8"/>
-        <v>7663.986682269534</v>
+        <v>38319.933411347665</v>
       </c>
       <c r="N31" s="40">
         <f t="shared" si="8"/>
-        <v>7970.5461495603158</v>
+        <v>39852.730747801572</v>
       </c>
       <c r="O31" s="3"/>
     </row>
@@ -2949,47 +2949,47 @@
       </c>
       <c r="D33" s="43">
         <f>SUM(D27:D32)</f>
-        <v>-109000</v>
+        <v>-545000</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" ref="E33:N33" ca="1" si="10">$E$12+SUM(E27:E32)</f>
-        <v>5584.5456401581278</v>
+        <v>63024.545640158125</v>
       </c>
       <c r="F33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>6258.5456401581278</v>
+        <v>66394.545640158132</v>
       </c>
       <c r="G33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>6964.0056401581269</v>
+        <v>69921.845640158135</v>
       </c>
       <c r="H33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>7702.4090401581279</v>
+        <v>73613.862640158128</v>
       </c>
       <c r="I33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>8475.309826158129</v>
+        <v>77478.366570158134</v>
       </c>
       <c r="J33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>9284.3359560981298</v>
+        <v>81523.497219858138</v>
       </c>
       <c r="K33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>10131.192909360732</v>
+        <v>85757.781986171132</v>
       </c>
       <c r="L33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>11017.667407785084</v>
+        <v>90190.154478292912</v>
       </c>
       <c r="M33" s="43">
         <f t="shared" ca="1" si="10"/>
-        <v>11945.631316529227</v>
+        <v>94829.974022013615</v>
       </c>
       <c r="N33" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>12917.045733525087</v>
+        <v>99687.046106992901</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -3001,43 +3001,43 @@
       <c r="D34" s="43"/>
       <c r="E34" s="45">
         <f t="shared" ref="E34:N34" ca="1" si="11">SUM(E28:E29,E31:E32)/12</f>
-        <v>-284.62119665348933</v>
+        <v>1502.0454700131775</v>
       </c>
       <c r="F34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-265.95452998682271</v>
+        <v>1595.3788033465107</v>
       </c>
       <c r="G34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-246.54119665348935</v>
+        <v>1692.4454700131773</v>
       </c>
       <c r="H34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-226.35132998682266</v>
+        <v>1793.3948033465106</v>
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>-205.35386865348929</v>
+        <v>1898.3821100131775</v>
       </c>
       <c r="J34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-183.51650886682259</v>
+        <v>2007.5689089465106</v>
       </c>
       <c r="K34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-160.80565468868926</v>
+        <v>2121.1231798371778</v>
       </c>
       <c r="L34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-137.18636634343056</v>
+        <v>2239.2196215634713</v>
       </c>
       <c r="M34" s="45">
         <f t="shared" ca="1" si="11"/>
-        <v>-112.62230646436153</v>
+        <v>2362.0399209588163</v>
       </c>
       <c r="N34" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>-87.075684190129707</v>
+        <v>2489.7730323299752</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -3049,43 +3049,43 @@
       <c r="D35" s="39"/>
       <c r="E35" s="43">
         <f ca="1">D4+SUM(F32:$O$32)+SUM($E$33:E33)</f>
-        <v>112005.45640158128</v>
+        <v>889445.45640158129</v>
       </c>
       <c r="F35" s="43">
         <f ca="1">D4+SUM(G32:$O$32)+SUM($E$33:F33)</f>
-        <v>126439.45640158126</v>
+        <v>964015.45640158129</v>
       </c>
       <c r="G35" s="47">
         <f ca="1">D4+SUM(H32:$O$32)+SUM($E$33:G33)</f>
-        <v>141578.91640158126</v>
+        <v>1042112.7564015813</v>
       </c>
       <c r="H35" s="43">
         <f ca="1">D4+SUM(I32:$O$32)+SUM($E$33:H33)</f>
-        <v>157456.77980158129</v>
+        <v>1123902.0734015813</v>
       </c>
       <c r="I35" s="44">
         <f ca="1">D4+SUM(J32:$O$32)+SUM($E$33:I33)</f>
-        <v>174107.54398758127</v>
+        <v>1209555.8943315814</v>
       </c>
       <c r="J35" s="43">
         <f ca="1">D4+SUM(K32:$O$32)+SUM($E$33:J33)</f>
-        <v>191567.33430352126</v>
+        <v>1299254.8459112812</v>
       </c>
       <c r="K35" s="43">
         <f ca="1">D4+SUM(L32:$O$32)+SUM($E$33:K33)</f>
-        <v>209873.98157272389</v>
+        <v>1393188.0822572943</v>
       </c>
       <c r="L35" s="43">
         <f ca="1">D4+SUM(M32:$O$32)+SUM($E$33:L33)</f>
-        <v>229067.10334035085</v>
+        <v>1491553.691095429</v>
       </c>
       <c r="M35" s="43">
         <f ca="1">D4+SUM(N32:$O$32)+SUM($E$33:M33)</f>
-        <v>249188.18901672194</v>
+        <v>1594559.1194772846</v>
       </c>
       <c r="N35" s="44">
         <f ca="1">D4+SUM(O32:$O$32)+SUM($E$33:N33)</f>
-        <v>270280.68911008892</v>
+        <v>1702421.6199441194</v>
       </c>
       <c r="P35" t="s">
         <v>32</v>
@@ -3100,43 +3100,43 @@
       <c r="D36" s="39"/>
       <c r="E36" s="55">
         <f>$D$4+SUM($E$30:E30)</f>
-        <v>189000</v>
+        <v>945000</v>
       </c>
       <c r="F36" s="55">
         <f>$D$4+SUM($E$30:F30)</f>
-        <v>198450</v>
+        <v>992250</v>
       </c>
       <c r="G36" s="55">
         <f>$D$4+SUM($E$30:G30)</f>
-        <v>208372.5</v>
+        <v>1041862.5</v>
       </c>
       <c r="H36" s="55">
         <f>$D$4+SUM($E$30:H30)</f>
-        <v>218791.125</v>
+        <v>1093955.625</v>
       </c>
       <c r="I36" s="56">
         <f>$D$4+SUM($E$30:I30)</f>
-        <v>229730.68124999999</v>
+        <v>1148653.40625</v>
       </c>
       <c r="J36" s="48">
         <f>$D$4+SUM($E$30:J30)</f>
-        <v>241217.21531250002</v>
+        <v>1206086.0765625001</v>
       </c>
       <c r="K36" s="48">
         <f>$D$4+SUM($E$30:K30)</f>
-        <v>253278.07607812501</v>
+        <v>1266390.380390625</v>
       </c>
       <c r="L36" s="48">
         <f>$D$4+SUM($E$30:L30)</f>
-        <v>265941.97988203127</v>
+        <v>1329709.8994101563</v>
       </c>
       <c r="M36" s="48">
         <f>$D$4+SUM($E$30:M30)</f>
-        <v>279239.07887613284</v>
+        <v>1396195.394380664</v>
       </c>
       <c r="N36" s="56">
         <f>D4+SUM(E30:N30)</f>
-        <v>293201.03281993949</v>
+        <v>1466005.1640996973</v>
       </c>
       <c r="P36" t="s">
         <v>34</v>
@@ -3155,7 +3155,7 @@
       <c r="H37" s="43"/>
       <c r="I37" s="44">
         <f ca="1">I35+SUM(D27:D32)</f>
-        <v>65107.543987581274</v>
+        <v>664555.89433158142</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
@@ -3163,7 +3163,7 @@
       <c r="M37" s="43"/>
       <c r="N37" s="44">
         <f ca="1">N35+SUM(D27:D32)</f>
-        <v>161280.68911008892</v>
+        <v>1157421.6199441194</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -3182,7 +3182,7 @@
       <c r="H38" s="51"/>
       <c r="I38" s="32">
         <f ca="1">(I35+$D$33)/-$D$33</f>
-        <v>0.59731691731725944</v>
+        <v>1.2193686134524431</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -3190,7 +3190,7 @@
       <c r="M38" s="51"/>
       <c r="N38" s="32">
         <f ca="1">(N35+$D$33)/-$D$33</f>
-        <v>1.4796393496338434</v>
+        <v>2.1237093943928795</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -3278,47 +3278,47 @@
       </c>
       <c r="D42" s="43">
         <f>-D2</f>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
       <c r="E42" s="43">
         <f>-$D$42*E9</f>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="43">
         <f>(-$D$42+E42)*E9</f>
-        <v>3090</v>
+        <v>15450</v>
       </c>
       <c r="G42" s="43">
         <f>(-$D$42+SUM($E$42:F42))*3.5%</f>
-        <v>3713.1500000000005</v>
+        <v>18565.75</v>
       </c>
       <c r="H42" s="43">
         <f>(-$D$42+SUM($E$42:G42))*3.5%</f>
-        <v>3843.1102500000002</v>
+        <v>19215.55125</v>
       </c>
       <c r="I42" s="44">
         <f>(-$D$42+SUM($E$42:H42))*3.5%</f>
-        <v>3977.6191087500006</v>
+        <v>19888.095543750002</v>
       </c>
       <c r="J42" s="43">
         <f>(-$D$42+SUM($E$42:I42))*3.5%</f>
-        <v>4116.8357775562499</v>
+        <v>20584.178887781251</v>
       </c>
       <c r="K42" s="43">
         <f>(-$D$42+SUM($E$42:J42))*3.5%</f>
-        <v>4260.9250297707185</v>
+        <v>21304.625148853596</v>
       </c>
       <c r="L42" s="43">
         <f>(-$D$42+SUM($E$42:K42))*3.5%</f>
-        <v>4410.0574058126949</v>
+        <v>22050.287029063471</v>
       </c>
       <c r="M42" s="43">
         <f>(-$D$42+SUM($E$42:L42))*3.5%</f>
-        <v>4564.4094150161391</v>
+        <v>22822.047075080693</v>
       </c>
       <c r="N42" s="44">
         <f>(-$D$42+SUM($E$42:M42))*3.5%</f>
-        <v>4724.1637445417036</v>
+        <v>23620.818722708518</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3330,43 +3330,43 @@
       <c r="D43" s="39"/>
       <c r="E43" s="39">
         <f>-D42+E42</f>
-        <v>103000</v>
+        <v>515000</v>
       </c>
       <c r="F43" s="39">
         <f t="shared" ref="F43:N43" si="12">E43+F42</f>
-        <v>106090</v>
+        <v>530450</v>
       </c>
       <c r="G43" s="39">
         <f t="shared" si="12"/>
-        <v>109803.15</v>
+        <v>549015.75</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="12"/>
-        <v>113646.26024999999</v>
+        <v>568231.30125000002</v>
       </c>
       <c r="I43" s="40">
         <f t="shared" si="12"/>
-        <v>117623.87935875</v>
+        <v>588119.39679375</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="12"/>
-        <v>121740.71513630624</v>
+        <v>608703.57568153122</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="12"/>
-        <v>126001.64016607696</v>
+        <v>630008.20083038486</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="12"/>
-        <v>130411.69757188966</v>
+        <v>652058.4878594483</v>
       </c>
       <c r="M43" s="39">
         <f t="shared" si="12"/>
-        <v>134976.1069869058</v>
+        <v>674880.53493452899</v>
       </c>
       <c r="N43" s="40">
         <f t="shared" si="12"/>
-        <v>139700.2707314475</v>
+        <v>698501.35365723749</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
@@ -3389,15 +3389,15 @@
       </c>
       <c r="G44" s="57">
         <f t="shared" si="13"/>
-        <v>9.8031499999999938E-2</v>
+        <v>9.8031499999999994E-2</v>
       </c>
       <c r="H44" s="57">
         <f t="shared" si="13"/>
-        <v>0.13646260249999992</v>
+        <v>0.13646260250000003</v>
       </c>
       <c r="I44" s="58">
         <f t="shared" si="13"/>
-        <v>0.17623879358749997</v>
+        <v>0.1762387935875</v>
       </c>
       <c r="J44" s="57">
         <f t="shared" si="13"/>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="K44" s="57">
         <f t="shared" si="13"/>
-        <v>0.26001640166076961</v>
+        <v>0.26001640166076972</v>
       </c>
       <c r="L44" s="57">
         <f t="shared" si="13"/>
-        <v>0.30411697571889656</v>
+        <v>0.30411697571889662</v>
       </c>
       <c r="M44" s="57">
         <f t="shared" si="13"/>
@@ -3491,10 +3491,10 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="65">
+      <c r="A49" s="68">
         <v>4</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C49" t="s">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D49" s="39">
         <f>D27</f>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
       <c r="E49" s="39">
         <v>0</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="D50" s="39">
         <f>D28</f>
-        <v>-9000</v>
+        <v>-45000</v>
       </c>
       <c r="E50" s="39">
         <f>-K2</f>
@@ -3633,43 +3633,43 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39">
         <f>-D49*D7</f>
-        <v>7299.9999999999991</v>
+        <v>36500</v>
       </c>
       <c r="F52" s="39">
         <f>(-$D$49+SUM($E$52:E52))*$D$7</f>
-        <v>7832.9</v>
+        <v>39164.5</v>
       </c>
       <c r="G52" s="39">
         <f>(-$D$49+SUM($E$52:F52))*$D$7</f>
-        <v>8404.7016999999996</v>
+        <v>42023.508499999996</v>
       </c>
       <c r="H52" s="39">
         <f>(-$D$49+SUM($E$52:G52))*$D$7</f>
-        <v>9018.2449240999995</v>
+        <v>45091.224620499997</v>
       </c>
       <c r="I52" s="40">
         <f>(-$D$49+SUM($E$52:H52))*$D$7</f>
-        <v>9676.5768035592992</v>
+        <v>48382.884017796496</v>
       </c>
       <c r="J52" s="39">
         <f>(-$D$49+SUM($E$52:I52))*$D$7</f>
-        <v>10382.966910219127</v>
+        <v>51914.834551095642</v>
       </c>
       <c r="K52" s="39">
         <f>(-$D$49+SUM($E$52:J52))*$D$7</f>
-        <v>11140.923494665125</v>
+        <v>55704.617473325619</v>
       </c>
       <c r="L52" s="39">
         <f>(-$D$49+SUM($E$52:K52))*$D$7</f>
-        <v>11954.210909775678</v>
+        <v>59771.054548878397</v>
       </c>
       <c r="M52" s="39">
         <f>(-$D$49+SUM($E$52:L52))*$D$7</f>
-        <v>12826.868306189304</v>
+        <v>64134.341530946513</v>
       </c>
       <c r="N52" s="40">
         <f>(-$D$49+SUM($E$52:M52))*$D$7</f>
-        <v>13763.229692541125</v>
+        <v>68816.148462705605</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3681,43 +3681,43 @@
       <c r="D53" s="39"/>
       <c r="E53" s="39">
         <f>-D49*K4</f>
-        <v>4888.8888888888887</v>
+        <v>24444.444444444442</v>
       </c>
       <c r="F53" s="39">
         <f t="shared" ref="F53:N53" si="15">E53*(1+$D$8)</f>
-        <v>5177.333333333333</v>
+        <v>25886.666666666661</v>
       </c>
       <c r="G53" s="39">
         <f t="shared" si="15"/>
-        <v>5482.7959999999994</v>
+        <v>27413.979999999992</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="15"/>
-        <v>5806.2809639999987</v>
+        <v>29031.404819999989</v>
       </c>
       <c r="I53" s="40">
         <f t="shared" si="15"/>
-        <v>6148.8515408759986</v>
+        <v>30744.257704379987</v>
       </c>
       <c r="J53" s="39">
         <f t="shared" si="15"/>
-        <v>6511.633781787682</v>
+        <v>32558.168908938405</v>
       </c>
       <c r="K53" s="39">
         <f t="shared" si="15"/>
-        <v>6895.8201749131549</v>
+        <v>34479.100874565767</v>
       </c>
       <c r="L53" s="39">
         <f t="shared" si="15"/>
-        <v>7302.6735652330308</v>
+        <v>36513.367826165144</v>
       </c>
       <c r="M53" s="39">
         <f t="shared" si="15"/>
-        <v>7733.5313055817787</v>
+        <v>38667.656527908883</v>
       </c>
       <c r="N53" s="40">
         <f t="shared" si="15"/>
-        <v>8189.809652611103</v>
+        <v>40949.048263055505</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3766,47 +3766,47 @@
       </c>
       <c r="D55" s="43">
         <f t="shared" ref="D55:N55" si="16">SUM(D49:D54)</f>
-        <v>-109000</v>
+        <v>-545000</v>
       </c>
       <c r="E55" s="43">
         <f t="shared" si="16"/>
-        <v>11588.888888888887</v>
+        <v>60344.444444444438</v>
       </c>
       <c r="F55" s="43">
         <f t="shared" si="16"/>
-        <v>12410.233333333334</v>
+        <v>64451.166666666657</v>
       </c>
       <c r="G55" s="43">
         <f t="shared" si="16"/>
-        <v>13287.4977</v>
+        <v>68837.488499999992</v>
       </c>
       <c r="H55" s="43">
         <f t="shared" si="16"/>
-        <v>14224.525888099997</v>
+        <v>73522.629440499994</v>
       </c>
       <c r="I55" s="44">
         <f t="shared" si="16"/>
-        <v>15225.428344435299</v>
+        <v>78527.141722176486</v>
       </c>
       <c r="J55" s="43">
         <f t="shared" si="16"/>
-        <v>16294.60069200681</v>
+        <v>83873.003460034044</v>
       </c>
       <c r="K55" s="43">
         <f t="shared" si="16"/>
-        <v>17436.743669578282</v>
+        <v>89583.718347891379</v>
       </c>
       <c r="L55" s="43">
         <f t="shared" si="16"/>
-        <v>18656.884475008708</v>
+        <v>95684.422375043534</v>
       </c>
       <c r="M55" s="43">
         <f t="shared" si="16"/>
-        <v>19960.399611771085</v>
+        <v>102201.99805885539</v>
       </c>
       <c r="N55" s="44">
         <f t="shared" si="16"/>
-        <v>21353.039345152229</v>
+        <v>109165.19672576111</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,43 +3818,43 @@
       <c r="D56" s="39"/>
       <c r="E56" s="45">
         <f t="shared" ref="E56:N56" si="17">SUM(E50:E51,E53:E54)/12</f>
-        <v>357.40740740740739</v>
+        <v>1987.0370370370367</v>
       </c>
       <c r="F56" s="45">
         <f t="shared" si="17"/>
-        <v>381.4444444444444</v>
+        <v>2107.2222222222217</v>
       </c>
       <c r="G56" s="45">
         <f t="shared" si="17"/>
-        <v>406.89966666666663</v>
+        <v>2234.4983333333325</v>
       </c>
       <c r="H56" s="45">
         <f t="shared" si="17"/>
-        <v>433.85674699999987</v>
+        <v>2369.2837349999991</v>
       </c>
       <c r="I56" s="46">
         <f t="shared" si="17"/>
-        <v>462.4042950729999</v>
+        <v>2512.0214753649989</v>
       </c>
       <c r="J56" s="45">
         <f t="shared" si="17"/>
-        <v>492.63614848230685</v>
+        <v>2663.1807424115336</v>
       </c>
       <c r="K56" s="45">
         <f t="shared" si="17"/>
-        <v>524.65168124276295</v>
+        <v>2823.2584062138139</v>
       </c>
       <c r="L56" s="45">
         <f t="shared" si="17"/>
-        <v>558.55613043608594</v>
+        <v>2992.7806521804287</v>
       </c>
       <c r="M56" s="45">
         <f t="shared" si="17"/>
-        <v>594.46094213181493</v>
+        <v>3172.3047106590734</v>
       </c>
       <c r="N56" s="46">
         <f t="shared" si="17"/>
-        <v>632.48413771759192</v>
+        <v>3362.4206885879589</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3866,43 +3866,43 @@
       <c r="D57" s="39"/>
       <c r="E57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:E55)</f>
-        <v>111588.88888888889</v>
+        <v>560344.4444444445</v>
       </c>
       <c r="F57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:F55)</f>
-        <v>123999.12222222221</v>
+        <v>624795.61111111112</v>
       </c>
       <c r="G57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:G55)</f>
-        <v>137286.61992222222</v>
+        <v>693633.0996111111</v>
       </c>
       <c r="H57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:H55)</f>
-        <v>151511.14581032222</v>
+        <v>767155.72905161115</v>
       </c>
       <c r="I57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:I55)</f>
-        <v>166736.57415475752</v>
+        <v>845682.87077378761</v>
       </c>
       <c r="J57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:J55)</f>
-        <v>183031.17484676433</v>
+        <v>929555.87423382164</v>
       </c>
       <c r="K57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:K55)</f>
-        <v>200467.91851634262</v>
+        <v>1019139.592581713</v>
       </c>
       <c r="L57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:L55)</f>
-        <v>219124.80299135132</v>
+        <v>1114824.0149567565</v>
       </c>
       <c r="M57" s="43">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:M55)</f>
-        <v>239085.20260312239</v>
+        <v>1217026.013015612</v>
       </c>
       <c r="N57" s="44">
         <f>$D$2+SUM(O$53:$O53)+SUM($E$55:N55)</f>
-        <v>260438.24194827463</v>
+        <v>1326191.2097413731</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
@@ -3917,43 +3917,43 @@
       <c r="D58" s="39"/>
       <c r="E58" s="55">
         <f>-$D$49+SUM($E$52:E52)</f>
-        <v>107300</v>
+        <v>536500</v>
       </c>
       <c r="F58" s="55">
         <f>-$D$49+SUM($E$52:F52)</f>
-        <v>115132.9</v>
+        <v>575664.5</v>
       </c>
       <c r="G58" s="55">
         <f>-$D$49+SUM($E$52:G52)</f>
-        <v>123537.6017</v>
+        <v>617688.0085</v>
       </c>
       <c r="H58" s="55">
         <f>-$D$49+SUM($E$52:H52)</f>
-        <v>132555.8466241</v>
+        <v>662779.23312049999</v>
       </c>
       <c r="I58" s="56">
         <f>-$D$49+SUM($E$52:I52)</f>
-        <v>142232.42342765929</v>
+        <v>711162.11713829648</v>
       </c>
       <c r="J58" s="48">
         <f>-$D$49+SUM($E$52:J52)</f>
-        <v>152615.39033787843</v>
+        <v>763076.9516893921</v>
       </c>
       <c r="K58" s="48">
         <f>-$D$49+SUM($E$52:K52)</f>
-        <v>163756.31383254356</v>
+        <v>818781.56916271779</v>
       </c>
       <c r="L58" s="48">
         <f>-$D$49+SUM($E$52:L52)</f>
-        <v>175710.52474231925</v>
+        <v>878552.62371159613</v>
       </c>
       <c r="M58" s="48">
         <f>-$D$49+SUM($E$52:M52)</f>
-        <v>188537.39304850856</v>
+        <v>942686.96524254256</v>
       </c>
       <c r="N58" s="56">
         <f>-D49+SUM(E52:N52)</f>
-        <v>202300.62274104968</v>
+        <v>1011503.1137052482</v>
       </c>
       <c r="P58" t="s">
         <v>48</v>
@@ -3972,7 +3972,7 @@
       <c r="H59" s="43"/>
       <c r="I59" s="44">
         <f>I57+SUM(D49:D54)</f>
-        <v>57736.574154757516</v>
+        <v>300682.87077378761</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="43"/>
@@ -3980,7 +3980,7 @@
       <c r="M59" s="43"/>
       <c r="N59" s="44">
         <f>N57+SUM(D49:D54)</f>
-        <v>151438.24194827463</v>
+        <v>781191.20974137308</v>
       </c>
       <c r="P59" t="s">
         <v>49</v>
@@ -3999,7 +3999,7 @@
       <c r="H60" s="51"/>
       <c r="I60" s="32">
         <f>(I57+$D$18)/-$D$18</f>
-        <v>0.52969334086933506</v>
+        <v>0.55171168949318827</v>
       </c>
       <c r="J60" s="51"/>
       <c r="K60" s="51"/>
@@ -4007,7 +4007,7 @@
       <c r="M60" s="51"/>
       <c r="N60" s="32">
         <f>(N57+$D$18)/-$D$18</f>
-        <v>1.3893416692502261</v>
+        <v>1.4333783664979323</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
@@ -4054,10 +4054,10 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="65">
+      <c r="A64" s="68">
         <v>5</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D64" s="39">
         <f>D12</f>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
       <c r="E64" s="39">
         <v>0</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="D65" s="39">
         <f>D13</f>
-        <v>-9000</v>
+        <v>-45000</v>
       </c>
       <c r="E65" s="39">
         <f>-L2</f>
@@ -4196,43 +4196,43 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39">
         <f>-D64*E7</f>
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="F67" s="39">
         <f>(-$D$64+SUM($E$67:E67))*$E$7</f>
-        <v>5250</v>
+        <v>26250</v>
       </c>
       <c r="G67" s="39">
         <f>(-$D$64+SUM($E$67:F67))*$E$7</f>
-        <v>5512.5</v>
+        <v>27562.5</v>
       </c>
       <c r="H67" s="39">
         <f>(-$D$64+SUM($E$67:G67))*$E$7</f>
-        <v>5788.125</v>
+        <v>28940.625</v>
       </c>
       <c r="I67" s="40">
         <f>(-$D$64+SUM($E$67:H67))*$E$7</f>
-        <v>6077.53125</v>
+        <v>30387.65625</v>
       </c>
       <c r="J67" s="39">
         <f>(-$D$64+SUM($E$67:I67))*$E$7</f>
-        <v>6381.4078125000005</v>
+        <v>31907.0390625</v>
       </c>
       <c r="K67" s="39">
         <f>(-$D$64+SUM($E$67:J67))*$E$7</f>
-        <v>6700.4782031249997</v>
+        <v>33502.391015624999</v>
       </c>
       <c r="L67" s="39">
         <f>(-$D$64+SUM($E$67:K67))*$E$7</f>
-        <v>7035.5021132812508</v>
+        <v>35177.51056640625</v>
       </c>
       <c r="M67" s="39">
         <f>(-$D$64+SUM($E$67:L67))*$E$7</f>
-        <v>7387.2772189453135</v>
+        <v>36936.386094726564</v>
       </c>
       <c r="N67" s="40">
         <f>(-$D$64+SUM($E$67:M67))*$E$7</f>
-        <v>7756.641079892579</v>
+        <v>38783.205399462888</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4244,43 +4244,43 @@
       <c r="D68" s="39"/>
       <c r="E68" s="39">
         <f>-D64*L4</f>
-        <v>3111.1111111111109</v>
+        <v>15555.555555555555</v>
       </c>
       <c r="F68" s="39">
         <f t="shared" ref="F68:N68" si="19">E68*(1+$D$8)</f>
-        <v>3294.6666666666661</v>
+        <v>16473.333333333332</v>
       </c>
       <c r="G68" s="39">
         <f t="shared" si="19"/>
-        <v>3489.0519999999992</v>
+        <v>17445.259999999998</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="19"/>
-        <v>3694.9060679999989</v>
+        <v>18474.530339999998</v>
       </c>
       <c r="I68" s="40">
         <f t="shared" si="19"/>
-        <v>3912.9055260119985</v>
+        <v>19564.527630059998</v>
       </c>
       <c r="J68" s="39">
         <f t="shared" si="19"/>
-        <v>4143.7669520467061</v>
+        <v>20718.834760233538</v>
       </c>
       <c r="K68" s="39">
         <f t="shared" si="19"/>
-        <v>4388.249202217462</v>
+        <v>21941.246011087314</v>
       </c>
       <c r="L68" s="39">
         <f t="shared" si="19"/>
-        <v>4647.1559051482918</v>
+        <v>23235.779525741465</v>
       </c>
       <c r="M68" s="39">
         <f t="shared" si="19"/>
-        <v>4921.3381035520406</v>
+        <v>24606.690517760209</v>
       </c>
       <c r="N68" s="40">
         <f t="shared" si="19"/>
-        <v>5211.6970516616111</v>
+        <v>26058.485258308061</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4329,47 +4329,47 @@
       </c>
       <c r="D70" s="43">
         <f t="shared" ref="D70:N70" si="20">SUM(D64:D69)</f>
-        <v>-109000</v>
+        <v>-545000</v>
       </c>
       <c r="E70" s="43">
         <f t="shared" si="20"/>
-        <v>7511.1111111111113</v>
+        <v>39955.555555555555</v>
       </c>
       <c r="F70" s="43">
         <f t="shared" si="20"/>
-        <v>7944.6666666666661</v>
+        <v>42123.333333333328</v>
       </c>
       <c r="G70" s="43">
         <f t="shared" si="20"/>
-        <v>8401.5519999999997</v>
+        <v>44407.759999999995</v>
       </c>
       <c r="H70" s="43">
         <f t="shared" si="20"/>
-        <v>8883.0310679999984</v>
+        <v>46815.155339999998</v>
       </c>
       <c r="I70" s="44">
         <f t="shared" si="20"/>
-        <v>9390.4367760119985</v>
+        <v>49352.183880059994</v>
       </c>
       <c r="J70" s="43">
         <f t="shared" si="20"/>
-        <v>9925.1747645467076</v>
+        <v>52025.873822733542</v>
       </c>
       <c r="K70" s="43">
         <f t="shared" si="20"/>
-        <v>10488.727405342463</v>
+        <v>54843.637026712313</v>
       </c>
       <c r="L70" s="43">
         <f t="shared" si="20"/>
-        <v>11082.658018429542</v>
+        <v>57813.290092147712</v>
       </c>
       <c r="M70" s="43">
         <f t="shared" si="20"/>
-        <v>11708.615322497353</v>
+        <v>60943.076612486773</v>
       </c>
       <c r="N70" s="44">
         <f t="shared" si="20"/>
-        <v>12368.33813155419</v>
+        <v>64241.690657770945</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4381,43 +4381,43 @@
       <c r="D71" s="39"/>
       <c r="E71" s="45">
         <f t="shared" ref="E71:N71" si="21">SUM(E65:E66,E68:E69)/12</f>
-        <v>209.25925925925924</v>
+        <v>1246.2962962962963</v>
       </c>
       <c r="F71" s="45">
         <f t="shared" si="21"/>
-        <v>224.55555555555551</v>
+        <v>1322.7777777777776</v>
       </c>
       <c r="G71" s="45">
         <f t="shared" si="21"/>
-        <v>240.75433333333328</v>
+        <v>1403.7716666666665</v>
       </c>
       <c r="H71" s="45">
         <f t="shared" si="21"/>
-        <v>257.90883899999989</v>
+        <v>1489.5441949999997</v>
       </c>
       <c r="I71" s="46">
         <f t="shared" si="21"/>
-        <v>276.0754605009999</v>
+        <v>1580.3773025049998</v>
       </c>
       <c r="J71" s="45">
         <f t="shared" si="21"/>
-        <v>295.31391267055886</v>
+        <v>1676.5695633527948</v>
       </c>
       <c r="K71" s="45">
         <f t="shared" si="21"/>
-        <v>315.68743351812185</v>
+        <v>1778.4371675906095</v>
       </c>
       <c r="L71" s="45">
         <f t="shared" si="21"/>
-        <v>337.262992095691</v>
+        <v>1886.3149604784555</v>
       </c>
       <c r="M71" s="45">
         <f t="shared" si="21"/>
-        <v>360.1115086293367</v>
+        <v>2000.5575431466841</v>
       </c>
       <c r="N71" s="46">
         <f t="shared" si="21"/>
-        <v>384.30808763846761</v>
+        <v>2121.5404381923386</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4429,43 +4429,43 @@
       <c r="D72" s="39"/>
       <c r="E72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:E70)</f>
-        <v>107511.11111111111</v>
+        <v>539955.5555555555</v>
       </c>
       <c r="F72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:F70)</f>
-        <v>115455.77777777778</v>
+        <v>582078.88888888888</v>
       </c>
       <c r="G72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:G70)</f>
-        <v>123857.32977777778</v>
+        <v>626486.64888888889</v>
       </c>
       <c r="H72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:H70)</f>
-        <v>132740.36084577779</v>
+        <v>673301.80422888882</v>
       </c>
       <c r="I72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:I70)</f>
-        <v>142130.79762178977</v>
+        <v>722653.9881089488</v>
       </c>
       <c r="J72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:J70)</f>
-        <v>152055.97238633648</v>
+        <v>774679.86193168233</v>
       </c>
       <c r="K72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:K70)</f>
-        <v>162544.69979167893</v>
+        <v>829523.49895839463</v>
       </c>
       <c r="L72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:L70)</f>
-        <v>173627.35781010849</v>
+        <v>887336.7890505424</v>
       </c>
       <c r="M72" s="43">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:M70)</f>
-        <v>185335.97313260584</v>
+        <v>948279.86566302925</v>
       </c>
       <c r="N72" s="44">
         <f>-$D$64+SUM(O$68:$O68)+SUM($E$70:N70)</f>
-        <v>197704.31126416003</v>
+        <v>1012521.5563208002</v>
       </c>
       <c r="P72" t="s">
         <v>47</v>
@@ -4480,43 +4480,43 @@
       <c r="D73" s="39"/>
       <c r="E73" s="55">
         <f>-$D$64+SUM($E$67:E67)</f>
-        <v>105000</v>
+        <v>525000</v>
       </c>
       <c r="F73" s="55">
         <f>-$D$64+SUM($E$67:F67)</f>
-        <v>110250</v>
+        <v>551250</v>
       </c>
       <c r="G73" s="55">
         <f>-$D$64+SUM($E$67:G67)</f>
-        <v>115762.5</v>
+        <v>578812.5</v>
       </c>
       <c r="H73" s="55">
         <f>-$D$64+SUM($E$67:H67)</f>
-        <v>121550.625</v>
+        <v>607753.125</v>
       </c>
       <c r="I73" s="56">
         <f>-$D$64+SUM($E$67:I67)</f>
-        <v>127628.15625</v>
+        <v>638140.78125</v>
       </c>
       <c r="J73" s="48">
         <f>-$D$64+SUM($E$67:J67)</f>
-        <v>134009.56406249999</v>
+        <v>670047.8203125</v>
       </c>
       <c r="K73" s="48">
         <f>-$D$64+SUM($E$67:K67)</f>
-        <v>140710.042265625</v>
+        <v>703550.21132812498</v>
       </c>
       <c r="L73" s="48">
         <f>-$D$64+SUM($E$67:L67)</f>
-        <v>147745.54437890626</v>
+        <v>738727.72189453128</v>
       </c>
       <c r="M73" s="48">
         <f>-$D$64+SUM($E$67:M67)</f>
-        <v>155132.82159785158</v>
+        <v>775664.10798925778</v>
       </c>
       <c r="N73" s="56">
         <f>-D64+SUM(E67:N67)</f>
-        <v>162889.46267774416</v>
+        <v>814447.31338872062</v>
       </c>
       <c r="P73" t="s">
         <v>48</v>
@@ -4535,7 +4535,7 @@
       <c r="H74" s="43"/>
       <c r="I74" s="44">
         <f>I72+SUM(D64:D69)</f>
-        <v>33130.797621789767</v>
+        <v>177653.9881089488</v>
       </c>
       <c r="J74" s="43"/>
       <c r="K74" s="43"/>
@@ -4543,7 +4543,7 @@
       <c r="M74" s="43"/>
       <c r="N74" s="44">
         <f>N72+SUM(D64:D69)</f>
-        <v>88704.311264160031</v>
+        <v>467521.55632080021</v>
       </c>
       <c r="P74" t="s">
         <v>49</v>
@@ -4562,7 +4562,7 @@
       <c r="H75" s="51"/>
       <c r="I75" s="32">
         <f>(I72+$D$18)/-$D$18</f>
-        <v>0.30395227175953915</v>
+        <v>0.32597062038339231</v>
       </c>
       <c r="J75" s="51"/>
       <c r="K75" s="51"/>
@@ -4570,7 +4570,7 @@
       <c r="M75" s="51"/>
       <c r="N75" s="32">
         <f>(N72+$D$18)/-$D$18</f>
-        <v>0.81380102077211036</v>
+        <v>0.8578377180198169</v>
       </c>
       <c r="P75" t="s">
         <v>49</v>
@@ -4669,16 +4669,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="B27:B38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A27:A38"/>
     <mergeCell ref="B49:B60"/>
     <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="B64:B75"/>
     <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B27:B38"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A27:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="E19:N19">
     <cfRule type="colorScale" priority="8">
@@ -4784,8 +4784,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="50" width="9" style="12" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="12"/>
+    <col min="10" max="53" width="9" style="12" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4883,7 +4883,7 @@
       <c r="C7" s="74"/>
       <c r="D7" s="16">
         <f ca="1">TODAY()</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="73" t="s">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="D10" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C11" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="D11" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="D12" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="D13" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C14" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="D14" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="C15" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="D15" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C16" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="D16" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C17" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45514</v>
+        <v>45516</v>
       </c>
       <c r="D17" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="C18" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="D18" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C19" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45575</v>
+        <v>45577</v>
       </c>
       <c r="D19" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C20" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="D20" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="C21" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="D21" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C22" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="D22" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C23" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="D23" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C24" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="D24" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C25" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45757</v>
+        <v>45759</v>
       </c>
       <c r="D25" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="C26" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45787</v>
+        <v>45789</v>
       </c>
       <c r="D26" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C27" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="D27" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C28" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="D28" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C29" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="D29" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C30" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="D30" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C31" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="D31" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C32" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="D32" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C33" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="D33" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C34" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46032</v>
+        <v>46034</v>
       </c>
       <c r="D34" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C35" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D35" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C36" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46091</v>
+        <v>46093</v>
       </c>
       <c r="D36" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="C37" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46122</v>
+        <v>46124</v>
       </c>
       <c r="D37" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="C38" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46152</v>
+        <v>46154</v>
       </c>
       <c r="D38" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="C39" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46183</v>
+        <v>46185</v>
       </c>
       <c r="D39" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C40" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46213</v>
+        <v>46215</v>
       </c>
       <c r="D40" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C41" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46244</v>
+        <v>46246</v>
       </c>
       <c r="D41" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C42" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46275</v>
+        <v>46277</v>
       </c>
       <c r="D42" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="C43" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46305</v>
+        <v>46307</v>
       </c>
       <c r="D43" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C44" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46336</v>
+        <v>46338</v>
       </c>
       <c r="D44" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="C45" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46366</v>
+        <v>46368</v>
       </c>
       <c r="D45" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="C46" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46397</v>
+        <v>46399</v>
       </c>
       <c r="D46" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C47" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46428</v>
+        <v>46430</v>
       </c>
       <c r="D47" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="C48" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46456</v>
+        <v>46458</v>
       </c>
       <c r="D48" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C49" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46487</v>
+        <v>46489</v>
       </c>
       <c r="D49" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C50" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46517</v>
+        <v>46519</v>
       </c>
       <c r="D50" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="C51" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46548</v>
+        <v>46550</v>
       </c>
       <c r="D51" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C52" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46578</v>
+        <v>46580</v>
       </c>
       <c r="D52" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C53" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46609</v>
+        <v>46611</v>
       </c>
       <c r="D53" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="C54" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46640</v>
+        <v>46642</v>
       </c>
       <c r="D54" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C55" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46670</v>
+        <v>46672</v>
       </c>
       <c r="D55" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="C56" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46701</v>
+        <v>46703</v>
       </c>
       <c r="D56" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="C57" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46731</v>
+        <v>46733</v>
       </c>
       <c r="D57" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C58" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46762</v>
+        <v>46764</v>
       </c>
       <c r="D58" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="C59" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46793</v>
+        <v>46795</v>
       </c>
       <c r="D59" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C60" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46822</v>
+        <v>46824</v>
       </c>
       <c r="D60" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="C61" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46853</v>
+        <v>46855</v>
       </c>
       <c r="D61" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="C62" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46883</v>
+        <v>46885</v>
       </c>
       <c r="D62" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="C63" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46914</v>
+        <v>46916</v>
       </c>
       <c r="D63" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="C64" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46944</v>
+        <v>46946</v>
       </c>
       <c r="D64" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="C65" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46975</v>
+        <v>46977</v>
       </c>
       <c r="D65" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="C66" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47006</v>
+        <v>47008</v>
       </c>
       <c r="D66" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="C67" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47036</v>
+        <v>47038</v>
       </c>
       <c r="D67" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="C68" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47067</v>
+        <v>47069</v>
       </c>
       <c r="D68" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C69" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47097</v>
+        <v>47099</v>
       </c>
       <c r="D69" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C70" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47128</v>
+        <v>47130</v>
       </c>
       <c r="D70" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="C71" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47159</v>
+        <v>47161</v>
       </c>
       <c r="D71" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C72" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47187</v>
+        <v>47189</v>
       </c>
       <c r="D72" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C73" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47218</v>
+        <v>47220</v>
       </c>
       <c r="D73" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="C74" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47248</v>
+        <v>47250</v>
       </c>
       <c r="D74" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C75" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47279</v>
+        <v>47281</v>
       </c>
       <c r="D75" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="C76" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47309</v>
+        <v>47311</v>
       </c>
       <c r="D76" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C77" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47340</v>
+        <v>47342</v>
       </c>
       <c r="D77" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C78" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47371</v>
+        <v>47373</v>
       </c>
       <c r="D78" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="C79" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47401</v>
+        <v>47403</v>
       </c>
       <c r="D79" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C80" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47432</v>
+        <v>47434</v>
       </c>
       <c r="D80" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="C81" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47462</v>
+        <v>47464</v>
       </c>
       <c r="D81" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C82" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47493</v>
+        <v>47495</v>
       </c>
       <c r="D82" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="C83" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47524</v>
+        <v>47526</v>
       </c>
       <c r="D83" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="C84" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47552</v>
+        <v>47554</v>
       </c>
       <c r="D84" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C85" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47583</v>
+        <v>47585</v>
       </c>
       <c r="D85" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="C86" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47613</v>
+        <v>47615</v>
       </c>
       <c r="D86" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="C87" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47644</v>
+        <v>47646</v>
       </c>
       <c r="D87" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="C88" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47674</v>
+        <v>47676</v>
       </c>
       <c r="D88" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="C89" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47705</v>
+        <v>47707</v>
       </c>
       <c r="D89" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="C90" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47736</v>
+        <v>47738</v>
       </c>
       <c r="D90" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C91" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47766</v>
+        <v>47768</v>
       </c>
       <c r="D91" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="C92" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47797</v>
+        <v>47799</v>
       </c>
       <c r="D92" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C93" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47827</v>
+        <v>47829</v>
       </c>
       <c r="D93" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="C94" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47858</v>
+        <v>47860</v>
       </c>
       <c r="D94" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="C95" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47889</v>
+        <v>47891</v>
       </c>
       <c r="D95" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C96" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47917</v>
+        <v>47919</v>
       </c>
       <c r="D96" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="C97" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47948</v>
+        <v>47950</v>
       </c>
       <c r="D97" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="C98" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47978</v>
+        <v>47980</v>
       </c>
       <c r="D98" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="C99" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48009</v>
+        <v>48011</v>
       </c>
       <c r="D99" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C100" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48039</v>
+        <v>48041</v>
       </c>
       <c r="D100" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="C101" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48070</v>
+        <v>48072</v>
       </c>
       <c r="D101" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C102" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48101</v>
+        <v>48103</v>
       </c>
       <c r="D102" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C103" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48131</v>
+        <v>48133</v>
       </c>
       <c r="D103" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="C104" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48162</v>
+        <v>48164</v>
       </c>
       <c r="D104" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="C105" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48192</v>
+        <v>48194</v>
       </c>
       <c r="D105" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C106" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48223</v>
+        <v>48225</v>
       </c>
       <c r="D106" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="C107" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48254</v>
+        <v>48256</v>
       </c>
       <c r="D107" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="C108" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48283</v>
+        <v>48285</v>
       </c>
       <c r="D108" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="C109" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48314</v>
+        <v>48316</v>
       </c>
       <c r="D109" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="C110" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48344</v>
+        <v>48346</v>
       </c>
       <c r="D110" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="C111" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48375</v>
+        <v>48377</v>
       </c>
       <c r="D111" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="C112" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48405</v>
+        <v>48407</v>
       </c>
       <c r="D112" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C113" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48436</v>
+        <v>48438</v>
       </c>
       <c r="D113" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="C114" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48467</v>
+        <v>48469</v>
       </c>
       <c r="D114" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="C115" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48497</v>
+        <v>48499</v>
       </c>
       <c r="D115" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="C116" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48528</v>
+        <v>48530</v>
       </c>
       <c r="D116" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="C117" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48558</v>
+        <v>48560</v>
       </c>
       <c r="D117" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C118" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48589</v>
+        <v>48591</v>
       </c>
       <c r="D118" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="C119" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48620</v>
+        <v>48622</v>
       </c>
       <c r="D119" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="C120" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48648</v>
+        <v>48650</v>
       </c>
       <c r="D120" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C121" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48679</v>
+        <v>48681</v>
       </c>
       <c r="D121" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="C122" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48709</v>
+        <v>48711</v>
       </c>
       <c r="D122" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C123" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48740</v>
+        <v>48742</v>
       </c>
       <c r="D123" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C124" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48770</v>
+        <v>48772</v>
       </c>
       <c r="D124" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="C125" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48801</v>
+        <v>48803</v>
       </c>
       <c r="D125" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="C126" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48832</v>
+        <v>48834</v>
       </c>
       <c r="D126" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="C127" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48862</v>
+        <v>48864</v>
       </c>
       <c r="D127" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="C128" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48893</v>
+        <v>48895</v>
       </c>
       <c r="D128" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="C129" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48923</v>
+        <v>48925</v>
       </c>
       <c r="D129" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -15830,8 +15830,8 @@
     <col min="2" max="2" width="7" style="64" customWidth="1"/>
     <col min="3" max="8" width="18.88671875" style="64" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" style="12" customWidth="1"/>
-    <col min="10" max="50" width="9" style="12" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="12"/>
+    <col min="10" max="53" width="9" style="12" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15929,7 +15929,7 @@
       <c r="C7" s="74"/>
       <c r="D7" s="16">
         <f ca="1">TODAY()</f>
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="73" t="s">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="C10" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="D10" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="C11" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="D11" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="C12" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="D12" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="C13" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="D13" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="C14" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="D14" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="C15" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="D15" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="C16" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45483</v>
+        <v>45485</v>
       </c>
       <c r="D16" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="C17" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45514</v>
+        <v>45516</v>
       </c>
       <c r="D17" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="C18" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="D18" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16250,7 +16250,7 @@
       </c>
       <c r="C19" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45575</v>
+        <v>45577</v>
       </c>
       <c r="D19" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="C20" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="D20" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16310,7 +16310,7 @@
       </c>
       <c r="C21" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="D21" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="C22" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="D22" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="C23" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="D23" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16400,7 +16400,7 @@
       </c>
       <c r="C24" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="D24" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="C25" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45757</v>
+        <v>45759</v>
       </c>
       <c r="D25" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16460,7 +16460,7 @@
       </c>
       <c r="C26" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45787</v>
+        <v>45789</v>
       </c>
       <c r="D26" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16490,7 +16490,7 @@
       </c>
       <c r="C27" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="D27" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C28" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="D28" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="C29" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="D29" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16580,7 +16580,7 @@
       </c>
       <c r="C30" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="D30" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="C31" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45940</v>
+        <v>45942</v>
       </c>
       <c r="D31" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="C32" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="D32" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="C33" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="D33" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="C34" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46032</v>
+        <v>46034</v>
       </c>
       <c r="D34" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="C35" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D35" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16760,7 +16760,7 @@
       </c>
       <c r="C36" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46091</v>
+        <v>46093</v>
       </c>
       <c r="D36" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="C37" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46122</v>
+        <v>46124</v>
       </c>
       <c r="D37" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="C38" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46152</v>
+        <v>46154</v>
       </c>
       <c r="D38" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16850,7 +16850,7 @@
       </c>
       <c r="C39" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46183</v>
+        <v>46185</v>
       </c>
       <c r="D39" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="C40" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46213</v>
+        <v>46215</v>
       </c>
       <c r="D40" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="C41" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46244</v>
+        <v>46246</v>
       </c>
       <c r="D41" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="C42" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46275</v>
+        <v>46277</v>
       </c>
       <c r="D42" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C43" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46305</v>
+        <v>46307</v>
       </c>
       <c r="D43" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17000,7 +17000,7 @@
       </c>
       <c r="C44" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46336</v>
+        <v>46338</v>
       </c>
       <c r="D44" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="C45" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46366</v>
+        <v>46368</v>
       </c>
       <c r="D45" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="C46" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46397</v>
+        <v>46399</v>
       </c>
       <c r="D46" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="C47" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46428</v>
+        <v>46430</v>
       </c>
       <c r="D47" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="C48" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46456</v>
+        <v>46458</v>
       </c>
       <c r="D48" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="C49" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46487</v>
+        <v>46489</v>
       </c>
       <c r="D49" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="C50" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46517</v>
+        <v>46519</v>
       </c>
       <c r="D50" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="C51" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46548</v>
+        <v>46550</v>
       </c>
       <c r="D51" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="C52" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46578</v>
+        <v>46580</v>
       </c>
       <c r="D52" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="C53" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46609</v>
+        <v>46611</v>
       </c>
       <c r="D53" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17300,7 +17300,7 @@
       </c>
       <c r="C54" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46640</v>
+        <v>46642</v>
       </c>
       <c r="D54" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="C55" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46670</v>
+        <v>46672</v>
       </c>
       <c r="D55" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17360,7 +17360,7 @@
       </c>
       <c r="C56" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46701</v>
+        <v>46703</v>
       </c>
       <c r="D56" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="C57" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46731</v>
+        <v>46733</v>
       </c>
       <c r="D57" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="C58" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46762</v>
+        <v>46764</v>
       </c>
       <c r="D58" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17450,7 +17450,7 @@
       </c>
       <c r="C59" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46793</v>
+        <v>46795</v>
       </c>
       <c r="D59" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="C60" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46822</v>
+        <v>46824</v>
       </c>
       <c r="D60" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="C61" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46853</v>
+        <v>46855</v>
       </c>
       <c r="D61" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="C62" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46883</v>
+        <v>46885</v>
       </c>
       <c r="D62" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="C63" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46914</v>
+        <v>46916</v>
       </c>
       <c r="D63" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="C64" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46944</v>
+        <v>46946</v>
       </c>
       <c r="D64" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17630,7 +17630,7 @@
       </c>
       <c r="C65" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>46975</v>
+        <v>46977</v>
       </c>
       <c r="D65" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17660,7 +17660,7 @@
       </c>
       <c r="C66" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47006</v>
+        <v>47008</v>
       </c>
       <c r="D66" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="C67" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47036</v>
+        <v>47038</v>
       </c>
       <c r="D67" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="C68" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47067</v>
+        <v>47069</v>
       </c>
       <c r="D68" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="C69" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47097</v>
+        <v>47099</v>
       </c>
       <c r="D69" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="C70" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47128</v>
+        <v>47130</v>
       </c>
       <c r="D70" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17810,7 +17810,7 @@
       </c>
       <c r="C71" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47159</v>
+        <v>47161</v>
       </c>
       <c r="D71" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="C72" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47187</v>
+        <v>47189</v>
       </c>
       <c r="D72" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="C73" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47218</v>
+        <v>47220</v>
       </c>
       <c r="D73" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="C74" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47248</v>
+        <v>47250</v>
       </c>
       <c r="D74" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="C75" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47279</v>
+        <v>47281</v>
       </c>
       <c r="D75" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="C76" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47309</v>
+        <v>47311</v>
       </c>
       <c r="D76" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -17990,7 +17990,7 @@
       </c>
       <c r="C77" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47340</v>
+        <v>47342</v>
       </c>
       <c r="D77" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18020,7 +18020,7 @@
       </c>
       <c r="C78" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47371</v>
+        <v>47373</v>
       </c>
       <c r="D78" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="C79" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47401</v>
+        <v>47403</v>
       </c>
       <c r="D79" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="C80" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47432</v>
+        <v>47434</v>
       </c>
       <c r="D80" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18110,7 +18110,7 @@
       </c>
       <c r="C81" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47462</v>
+        <v>47464</v>
       </c>
       <c r="D81" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="C82" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47493</v>
+        <v>47495</v>
       </c>
       <c r="D82" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="C83" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47524</v>
+        <v>47526</v>
       </c>
       <c r="D83" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="C84" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47552</v>
+        <v>47554</v>
       </c>
       <c r="D84" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="C85" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47583</v>
+        <v>47585</v>
       </c>
       <c r="D85" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="C86" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47613</v>
+        <v>47615</v>
       </c>
       <c r="D86" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="C87" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47644</v>
+        <v>47646</v>
       </c>
       <c r="D87" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18320,7 +18320,7 @@
       </c>
       <c r="C88" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47674</v>
+        <v>47676</v>
       </c>
       <c r="D88" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="C89" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47705</v>
+        <v>47707</v>
       </c>
       <c r="D89" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18380,7 +18380,7 @@
       </c>
       <c r="C90" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47736</v>
+        <v>47738</v>
       </c>
       <c r="D90" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="C91" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47766</v>
+        <v>47768</v>
       </c>
       <c r="D91" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="C92" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47797</v>
+        <v>47799</v>
       </c>
       <c r="D92" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="C93" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47827</v>
+        <v>47829</v>
       </c>
       <c r="D93" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="C94" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47858</v>
+        <v>47860</v>
       </c>
       <c r="D94" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="C95" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47889</v>
+        <v>47891</v>
       </c>
       <c r="D95" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18560,7 +18560,7 @@
       </c>
       <c r="C96" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47917</v>
+        <v>47919</v>
       </c>
       <c r="D96" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18590,7 +18590,7 @@
       </c>
       <c r="C97" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47948</v>
+        <v>47950</v>
       </c>
       <c r="D97" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="C98" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>47978</v>
+        <v>47980</v>
       </c>
       <c r="D98" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="C99" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48009</v>
+        <v>48011</v>
       </c>
       <c r="D99" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="C100" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48039</v>
+        <v>48041</v>
       </c>
       <c r="D100" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="C101" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48070</v>
+        <v>48072</v>
       </c>
       <c r="D101" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18740,7 +18740,7 @@
       </c>
       <c r="C102" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48101</v>
+        <v>48103</v>
       </c>
       <c r="D102" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="C103" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48131</v>
+        <v>48133</v>
       </c>
       <c r="D103" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18800,7 +18800,7 @@
       </c>
       <c r="C104" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48162</v>
+        <v>48164</v>
       </c>
       <c r="D104" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="C105" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48192</v>
+        <v>48194</v>
       </c>
       <c r="D105" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18860,7 +18860,7 @@
       </c>
       <c r="C106" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48223</v>
+        <v>48225</v>
       </c>
       <c r="D106" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="C107" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48254</v>
+        <v>48256</v>
       </c>
       <c r="D107" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="C108" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48283</v>
+        <v>48285</v>
       </c>
       <c r="D108" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18950,7 +18950,7 @@
       </c>
       <c r="C109" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48314</v>
+        <v>48316</v>
       </c>
       <c r="D109" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="C110" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48344</v>
+        <v>48346</v>
       </c>
       <c r="D110" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="C111" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48375</v>
+        <v>48377</v>
       </c>
       <c r="D111" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="C112" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48405</v>
+        <v>48407</v>
       </c>
       <c r="D112" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="C113" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48436</v>
+        <v>48438</v>
       </c>
       <c r="D113" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="C114" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48467</v>
+        <v>48469</v>
       </c>
       <c r="D114" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19130,7 +19130,7 @@
       </c>
       <c r="C115" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48497</v>
+        <v>48499</v>
       </c>
       <c r="D115" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19160,7 +19160,7 @@
       </c>
       <c r="C116" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48528</v>
+        <v>48530</v>
       </c>
       <c r="D116" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="C117" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48558</v>
+        <v>48560</v>
       </c>
       <c r="D117" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="C118" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48589</v>
+        <v>48591</v>
       </c>
       <c r="D118" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="C119" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48620</v>
+        <v>48622</v>
       </c>
       <c r="D119" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="C120" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48648</v>
+        <v>48650</v>
       </c>
       <c r="D120" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19310,7 +19310,7 @@
       </c>
       <c r="C121" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48679</v>
+        <v>48681</v>
       </c>
       <c r="D121" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19340,7 +19340,7 @@
       </c>
       <c r="C122" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48709</v>
+        <v>48711</v>
       </c>
       <c r="D122" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="C123" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48740</v>
+        <v>48742</v>
       </c>
       <c r="D123" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19400,7 +19400,7 @@
       </c>
       <c r="C124" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48770</v>
+        <v>48772</v>
       </c>
       <c r="D124" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19430,7 +19430,7 @@
       </c>
       <c r="C125" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48801</v>
+        <v>48803</v>
       </c>
       <c r="D125" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="C126" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48832</v>
+        <v>48834</v>
       </c>
       <c r="D126" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19490,7 +19490,7 @@
       </c>
       <c r="C127" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48862</v>
+        <v>48864</v>
       </c>
       <c r="D127" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19520,7 +19520,7 @@
       </c>
       <c r="C128" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48893</v>
+        <v>48895</v>
       </c>
       <c r="D128" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
@@ -19550,7 +19550,7 @@
       </c>
       <c r="C129" s="18">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,PaymentDate,""), "")</f>
-        <v>48923</v>
+        <v>48925</v>
       </c>
       <c r="D129" s="62">
         <f ca="1">IFERROR(IF(LoanIsNotPaid*LoanIsGood,LoanValue,""), "")</f>
